--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06328615717561636</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-3.400247251585109e-05</v>
+        <v>0.001770908265004652</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000754501254230305</v>
+        <v>0.0007774627259165591</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001406828032961265</v>
+        <v>0.004942042381134187</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007048251105169206</v>
+        <v>0.0007715590757423089</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.01102986271891149</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001184881422924898</v>
+        <v>0.0007681822955609378</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008334427338873962</v>
+        <v>0.001770908265004652</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007681489994266349</v>
+        <v>0.0007774627259165591</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002808618423283935</v>
+        <v>0.003731490246596997</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00150900250846061</v>
+        <v>0.001554925451833118</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.01199999999999998</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00130336956521739</v>
+        <v>0.001848751156336722</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.011440285544081</v>
+        <v>0.02148342231897687</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001583805615890102</v>
+        <v>0.001536364591121876</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01768869197914236</v>
+        <v>0.003731490246596997</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00153629799885327</v>
+        <v>0.001554925451833118</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004436266205523925</v>
+        <v>0.005518793684953692</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002263503762690915</v>
+        <v>0.002332388177749677</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004516070470661847</v>
+        <v>0.01435489366608422</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002114475331550762</v>
+        <v>0.002314677227226927</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01593111851074341</v>
+        <v>0.02950857872887558</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002375708423835153</v>
+        <v>0.002304546886682813</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02600000000000002</v>
+        <v>0.005518793684953692</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002455623818525522</v>
+        <v>0.002332388177749677</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.008</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.003475652173913043</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005775924604826545</v>
+        <v>0.01756268884550807</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002819300442067682</v>
+        <v>0.003086236302969236</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01994487728168617</v>
+        <v>0.03599999999999998</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003167611231780203</v>
+        <v>0.003007775919732439</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02995794407629809</v>
+        <v>0.008</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00307259599770654</v>
+        <v>0.003475652173913043</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.003475652173913043</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005957981219152524</v>
+        <v>0.008358841530073088</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003772506271151525</v>
+        <v>0.003887313629582795</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006983296110091651</v>
+        <v>0.02128348767621885</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003524125552584603</v>
+        <v>0.003857795378711545</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02439398059653902</v>
+        <v>0.04133264861984853</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003959514039725255</v>
+        <v>0.003840911477804688</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03527917290300442</v>
+        <v>0.008358841530073088</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003840744997133175</v>
+        <v>0.003887313629582795</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007044466868801252</v>
+        <v>0.009643731595868565</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00452700752538183</v>
+        <v>0.004664776355499355</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007939179561330646</v>
+        <v>0.02483378451371557</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004228950663101524</v>
+        <v>0.004629354454453853</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0277908471949318</v>
+        <v>0.0452691169124963</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004751416847670306</v>
+        <v>0.004609093773365627</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03990090779714445</v>
+        <v>0.009643731595868565</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00460889399655981</v>
+        <v>0.004664776355499355</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008042909202773077</v>
+        <v>0.01064713581200836</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005281508779612135</v>
+        <v>0.005442239081415914</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009044569533417035</v>
+        <v>0.02803007371349739</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004933775773618444</v>
+        <v>0.005400913530196162</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03064789581649424</v>
+        <v>0.04848168067627601</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005543319655615356</v>
+        <v>0.005377276068926564</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04472695569563345</v>
+        <v>0.01064713581200836</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005377042995986445</v>
+        <v>0.005442239081415914</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01096233592620526</v>
+        <v>0.01196452608172872</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00603601003384244</v>
+        <v>0.006219701807332473</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0103004606012243</v>
+        <v>0.03038884963106336</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005638600884135364</v>
+        <v>0.006172472605938471</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006332702360228711</v>
+        <v>0.006232223439643903</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04756112353538677</v>
+        <v>0.01196452608172872</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00614519199541308</v>
+        <v>0.006219701807332473</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01081177474423513</v>
+        <v>0.01289137430826585</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006790511288072744</v>
+        <v>0.006997164533249031</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01130784733962596</v>
+        <v>0.03272660662191249</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006343425994652285</v>
+        <v>0.00694403168168078</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03534880702201351</v>
+        <v>0.05307925611981601</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007127125271505459</v>
+        <v>0.00691364066004844</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.01289137430826585</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007045122149162674</v>
+        <v>0.006997164533249031</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01060025336199995</v>
+        <v>0.013723152394856</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007545012542303051</v>
+        <v>0.007774627259165591</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01196772432349551</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007048251105169206</v>
+        <v>0.007410609144948493</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0375818945692985</v>
+        <v>0.05503745047064257</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00791902807945051</v>
+        <v>0.007681822955609377</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05393334133283761</v>
+        <v>0.013723152394856</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007681489994266349</v>
+        <v>0.007774627259165591</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01435533224473534</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.00855208998508215</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01298108612770643</v>
+        <v>0.03515647188316742</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007753076215686126</v>
+        <v>0.008487149833165397</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03977254890943677</v>
+        <v>0.05776312173799497</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00871093088739556</v>
+        <v>0.008450005251170315</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05744313421711605</v>
+        <v>0.01435533224473534</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008449638993692984</v>
+        <v>0.00855208998508215</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01406033518277686</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009054015050763659</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01394892732713224</v>
+        <v>0.0362781708235437</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008457901326203048</v>
+        <v>0.009258708908907707</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04111650766134439</v>
+        <v>0.05925587318964548</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009502833695340612</v>
+        <v>0.009218187546731253</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05963388346500831</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009217787993119619</v>
+        <v>0.009388273691361219</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01379285109483773</v>
+        <v>0.01534803880928653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009808516304993966</v>
+        <v>0.01010701543691527</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.0381748434178461</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.01003026798465001</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04350950844393753</v>
+        <v>0.06101530809336614</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01029473650328566</v>
+        <v>0.009986369842292191</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06279576323853581</v>
+        <v>0.01534803880928653</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009985936992546254</v>
+        <v>0.01010701543691527</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01453070831905692</v>
+        <v>0.01620766158498012</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01056301755922427</v>
+        <v>0.01088447816283183</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01556594383659293</v>
+        <v>0.0390462841508856</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009867551547236888</v>
+        <v>0.01080182706039232</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04534728887613235</v>
+        <v>0.06244102971692927</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01108663931123071</v>
+        <v>0.01075455213785313</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06541894769971973</v>
+        <v>0.01620766158498012</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01075408599197289</v>
+        <v>0.01088447816283183</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01527012650078449</v>
+        <v>0.01646216064193315</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01131751881345457</v>
+        <v>0.01166194088874839</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01647167808213312</v>
+        <v>0.04059228750747301</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01057237665775381</v>
+        <v>0.01157338613613463</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04682558657684491</v>
+        <v>0.06453264132810704</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01187854211917576</v>
+        <v>0.01152273443341407</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06879361101058112</v>
+        <v>0.01646216064193315</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01152223499139952</v>
+        <v>0.01166194088874839</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01600732528537045</v>
+        <v>0.01731114440379143</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01207202006768488</v>
+        <v>0.01243940361466495</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01728820169702323</v>
+        <v>0.04131264797241924</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01127720176827073</v>
+        <v>0.01234494521187694</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04874013916499143</v>
+        <v>0.06598974619467152</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01267044492712081</v>
+        <v>0.012290916728975</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07060992733314131</v>
+        <v>0.01731114440379143</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01229038399082616</v>
+        <v>0.01243940361466495</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01673852431816483</v>
+        <v>0.01765422129420087</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01282652132191518</v>
+        <v>0.0132168663405815</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01791109653192144</v>
+        <v>0.04260716003053505</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01198202687878765</v>
+        <v>0.01311650428761925</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05058668425948795</v>
+        <v>0.06841194758439512</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01346234773506587</v>
+        <v>0.01305909902453594</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07345807082942141</v>
+        <v>0.01765422129420087</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01305853299025279</v>
+        <v>0.0132168663405815</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01745994324451764</v>
+        <v>0.01819099973680732</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01358102257614549</v>
+        <v>0.01399432906649806</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01893594443748597</v>
+        <v>0.04367561816663135</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01268685198930457</v>
+        <v>0.01388806336336156</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05206095947925071</v>
+        <v>0.06949884876504991</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01425425054301092</v>
+        <v>0.01382728132009688</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07632821566144271</v>
+        <v>0.01819099973680732</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01382668198967943</v>
+        <v>0.01399432906649806</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01816780170977894</v>
+        <v>0.01862108815525665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0143355238303758</v>
+        <v>0.01477179179241462</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01965832726437501</v>
+        <v>0.045317816865519</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01339167709982149</v>
+        <v>0.01465962243910387</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05315870244319573</v>
+        <v>0.07145005300440815</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01504615335095597</v>
+        <v>0.01459546361565782</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07931053599122628</v>
+        <v>0.01862108815525665</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01459483098910606</v>
+        <v>0.01477179179241462</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01885831935929874</v>
+        <v>0.01924409497319471</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0150900250846061</v>
+        <v>0.01554925451833118</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02027382686324679</v>
+        <v>0.04633355061200889</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01409650221033841</v>
+        <v>0.01543118151484618</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05497565077023922</v>
+        <v>0.07296516357024191</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01583805615890102</v>
+        <v>0.01536364591121875</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08129520598079348</v>
+        <v>0.01924409497319471</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0153629799885327</v>
+        <v>0.01554925451833118</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01852771583842706</v>
+        <v>0.01995962861426739</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0158445263388364</v>
+        <v>0.01632671724424774</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02137802508475944</v>
+        <v>0.04722261389091181</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01480132732085533</v>
+        <v>0.01620274059058849</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05590754207929727</v>
+        <v>0.07474378373032353</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01662995896684607</v>
+        <v>0.01613182820677969</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08317239979216529</v>
+        <v>0.01995962861426739</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01613112898795933</v>
+        <v>0.01632671724424774</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02117221079251397</v>
+        <v>0.02026729750212053</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01659902759306671</v>
+        <v>0.0171041799701643</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02186650377957122</v>
+        <v>0.04838480118703872</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01550615243137225</v>
+        <v>0.01697429966633079</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05735011398928605</v>
+        <v>0.07618551675242519</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01742186177479112</v>
+        <v>0.01690001050234063</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08553229158736314</v>
+        <v>0.02026729750212053</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01689927798738597</v>
+        <v>0.0171041799701643</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02078802386690945</v>
+        <v>0.02066671006040001</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01735352884729701</v>
+        <v>0.01788164269608086</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0227348447983403</v>
+        <v>0.04961990698520038</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01621097754188917</v>
+        <v>0.0177458587420731</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0584991041191216</v>
+        <v>0.07798996590431889</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01821376458273617</v>
+        <v>0.01766819279790157</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0880650555284081</v>
+        <v>0.02066671006040001</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0176674269868126</v>
+        <v>0.01788164269608086</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02237137470696354</v>
+        <v>0.02115747471275169</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01810803010152732</v>
+        <v>0.01865910542199742</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02357862999172491</v>
+        <v>0.05062772577020774</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0169158026524061</v>
+        <v>0.01851741781781541</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05985025008772019</v>
+        <v>0.07935673445377711</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01900566739068122</v>
+        <v>0.01843637509346251</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0896608657773213</v>
+        <v>0.02115747471275169</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01843557598623924</v>
+        <v>0.01865910542199742</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02191848295802627</v>
+        <v>0.02163919988282144</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01886253135575763</v>
+        <v>0.01943656814791398</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02409344121038323</v>
+        <v>0.05130805202687158</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01762062776292301</v>
+        <v>0.01928897689355772</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06069928951399786</v>
+        <v>0.0811854256685719</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01979757019862627</v>
+        <v>0.01920455738902345</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09150989649612407</v>
+        <v>0.02163919988282144</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01920372498566587</v>
+        <v>0.01943656814791398</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02342556826544769</v>
+        <v>0.02241149399425509</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01961703260998793</v>
+        <v>0.02021403087383054</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02477486030497347</v>
+        <v>0.05216068024000278</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01832545287343993</v>
+        <v>0.02006053596930003</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06154196001687073</v>
+        <v>0.08197564281647546</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02058947300657132</v>
+        <v>0.01997273968458438</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0929023218468375</v>
+        <v>0.02241149399425509</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01997187398509251</v>
+        <v>0.02021403087383054</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02388885027457779</v>
+        <v>0.02277396547069853</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02037153386421824</v>
+        <v>0.0209914935997471</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0257184691261538</v>
+        <v>0.05328540489441227</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01903027798395686</v>
+        <v>0.02083209504504234</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06237399921525499</v>
+        <v>0.08332698916525993</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02138137581451637</v>
+        <v>0.02074092198014532</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09382831599148289</v>
+        <v>0.02277396547069853</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02074002298451914</v>
+        <v>0.0209914935997471</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02430454863076664</v>
+        <v>0.02312622273579766</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02112603511844854</v>
+        <v>0.02176895632566365</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02621984952458248</v>
+        <v>0.05398202047491077</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01973510309447378</v>
+        <v>0.02160365412078465</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06249114472806674</v>
+        <v>0.0842390679826977</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02217327862246142</v>
+        <v>0.02150910427570626</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09507805309208145</v>
+        <v>0.02312622273579766</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02150817198394578</v>
+        <v>0.02176895632566365</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02366888297936422</v>
+        <v>0.02356787421319829</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02188053637267885</v>
+        <v>0.02254641905158021</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02667458335091763</v>
+        <v>0.05525032146630929</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0204399282049907</v>
+        <v>0.02237521319652696</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06308913417422207</v>
+        <v>0.08641148253656078</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02296518143040648</v>
+        <v>0.0222772865712672</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0965417073106542</v>
+        <v>0.02356787421319829</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02227632098337241</v>
+        <v>0.02254641905158021</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02297807296572059</v>
+        <v>0.02409852832654634</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02263503762690915</v>
+        <v>0.02332388177749677</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02737825245581751</v>
+        <v>0.0558901023534186</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02114475331550762</v>
+        <v>0.02314677227226927</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06356370517263724</v>
+        <v>0.08694383609462131</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02375708423835153</v>
+        <v>0.02304546886682813</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09730945280922243</v>
+        <v>0.02409852832654634</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02304446998279905</v>
+        <v>0.02332388177749677</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02522833823518578</v>
+        <v>0.02451779349948761</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02338953888113945</v>
+        <v>0.02410134450341333</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02752643868994031</v>
+        <v>0.05690115762104958</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02184957842602454</v>
+        <v>0.02391833134801158</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06381059534222827</v>
+        <v>0.08853573192465175</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02454898704629658</v>
+        <v>0.02381365116238907</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09797146374980742</v>
+        <v>0.02451779349948761</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02381261898222568</v>
+        <v>0.02410134450341333</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0244158984331098</v>
+        <v>0.02492527815566799</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02414404013536976</v>
+        <v>0.02487880722932989</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0280147239039442</v>
+        <v>0.05728328175401309</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02255440353654146</v>
+        <v>0.02468989042375389</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06362554230191128</v>
+        <v>0.09008677329442416</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02534088985424163</v>
+        <v>0.02458183345795001</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09831791429443021</v>
+        <v>0.02492527815566799</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02458076798165232</v>
+        <v>0.02487880722932989</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02353697320484269</v>
+        <v>0.02542059071873336</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02489854138960006</v>
+        <v>0.02565626995524645</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02853868994848742</v>
+        <v>0.05843626923711998</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02325922864705838</v>
+        <v>0.02546144949949619</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06357488870050576</v>
+        <v>0.0904965634717107</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02613279266218668</v>
+        <v>0.02535001575351095</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09863897860511223</v>
+        <v>0.02542059071873336</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02534891698107895</v>
+        <v>0.02565626995524645</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02558778219573446</v>
+        <v>0.02560333961232958</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02565304264383037</v>
+        <v>0.02643373268116301</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02869391867422816</v>
+        <v>0.05905991455518111</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0239640537575753</v>
+        <v>0.0262330085752385</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06377217081468986</v>
+        <v>0.09186470572428351</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02692469547013173</v>
+        <v>0.02611819804907188</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09833070969418306</v>
+        <v>0.02560333961232958</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02611706598050559</v>
+        <v>0.02643373268116301</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02357245055468404</v>
+        <v>0.02587313326010253</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02640754389806068</v>
+        <v>0.02721119540707957</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0286759919318246</v>
+        <v>0.0598540121930074</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02466887886809222</v>
+        <v>0.02700456765098081</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06294368613346016</v>
+        <v>0.09289080331991484</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02771659827807678</v>
+        <v>0.02688638034463282</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09892247357349515</v>
+        <v>0.02587313326010253</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02688521497993223</v>
+        <v>0.02721119540707957</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02350795622965732</v>
+        <v>0.02622958008569803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02716204515229098</v>
+        <v>0.02798865813299612</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02908049157193494</v>
+        <v>0.06051835663540966</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02537370397860914</v>
+        <v>0.02777612672672312</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06202484848635539</v>
+        <v>0.09397445952637701</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02850850108602183</v>
+        <v>0.02765456264019376</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09863429274762125</v>
+        <v>0.02622958008569803</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02765336397935886</v>
+        <v>0.02798865813299612</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02339974408806889</v>
+        <v>0.02657228851276197</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02791654640652129</v>
+        <v>0.02876612085891268</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02890282553221207</v>
+        <v>0.06065274236719875</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02607852908912606</v>
+        <v>0.02854768580246543</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06145107170291417</v>
+        <v>0.09451527761144213</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02930040389396689</v>
+        <v>0.0284227449357547</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09768336216153595</v>
+        <v>0.02657228851276197</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02842151297878549</v>
+        <v>0.02876612085891268</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02325285776994927</v>
+        <v>0.0272008669649402</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02867104766075159</v>
+        <v>0.02954358358482925</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02873808506053899</v>
+        <v>0.06175696387318549</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02678335419964298</v>
+        <v>0.02931924487820774</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06065776961267513</v>
+        <v>0.09551286084288235</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03009230670191193</v>
+        <v>0.02919092723131564</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09648687676021389</v>
+        <v>0.0272008669649402</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02918966197821213</v>
+        <v>0.02954358358482925</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02507234091532901</v>
+        <v>0.02741492386587861</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0294255489149819</v>
+        <v>0.03032104631074581</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02879377341460551</v>
+        <v>0.0623308156381808</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0274881793101599</v>
+        <v>0.03009080395395005</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05928035604517692</v>
+        <v>0.0963668124884699</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03088420950985698</v>
+        <v>0.02995910952687657</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09566203148862984</v>
+        <v>0.02741492386587861</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02995781097763876</v>
+        <v>0.03032104631074581</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02386323716423856</v>
+        <v>0.02761406763922307</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0301800501692122</v>
+        <v>0.03109850903666236</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02868079644651632</v>
+        <v>0.06297409214699548</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02819300442067682</v>
+        <v>0.03086236302969236</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05855424482995822</v>
+        <v>0.09727673581597696</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03167611231780204</v>
+        <v>0.03072729182243751</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09522602129175839</v>
+        <v>0.02761406763922307</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0307259599770654</v>
+        <v>0.03109850903666236</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02263059015670851</v>
+        <v>0.02809790670861942</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0309345514234425</v>
+        <v>0.03187597176257893</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02811006000837596</v>
+        <v>0.06328658788444047</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02889782953119375</v>
+        <v>0.03163392210543466</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05731484979655768</v>
+        <v>0.09794223409317576</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03246801512574709</v>
+        <v>0.03149547411799845</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09409604111457415</v>
+        <v>0.02809790670861942</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03149410897649203</v>
+        <v>0.03187597176257893</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02437944353276932</v>
+        <v>0.02826604949771352</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03168905267767281</v>
+        <v>0.03265343448849548</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02809246995228908</v>
+        <v>0.06336809733532661</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02960265464171066</v>
+        <v>0.03240548118117698</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05599758477451389</v>
+        <v>0.0989629105878384</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03325991793369214</v>
+        <v>0.03226365641355938</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09328928590205177</v>
+        <v>0.02826604949771352</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03226225797591867</v>
+        <v>0.03265343448849548</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02411484093245149</v>
+        <v>0.02861810443015125</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03244355393190312</v>
+        <v>0.03343089721441204</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02753893213036025</v>
+        <v>0.0640184149844647</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03030747975222758</v>
+        <v>0.03317704025691928</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05483786359336554</v>
+        <v>0.09933836856773731</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03405182074163719</v>
+        <v>0.03303183870912032</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09162295059916603</v>
+        <v>0.02861810443015125</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0330304069753453</v>
+        <v>0.03343089721441204</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02184182599578559</v>
+        <v>0.02875367992957847</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03319805518613342</v>
+        <v>0.0342083599403286</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02706035239469412</v>
+        <v>0.06463733531666566</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03101230486274451</v>
+        <v>0.03394859933266159</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05367110008265133</v>
+        <v>0.1004682113006444</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03484372354958224</v>
+        <v>0.03380002100468126</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09051423015089155</v>
+        <v>0.02875367992957847</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03379855597477194</v>
+        <v>0.0342083599403286</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02356544236280209</v>
+        <v>0.02907238441964108</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03395255644036373</v>
+        <v>0.03498582266624516</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02676763659739523</v>
+        <v>0.06512465281674037</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03171712997326143</v>
+        <v>0.0347201584084039</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05313270807190987</v>
+        <v>0.1005520420543321</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03563562635752729</v>
+        <v>0.0345682033002422</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08978031950220294</v>
+        <v>0.02907238441964108</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03456670497419857</v>
+        <v>0.03498582266624516</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02129073367353153</v>
+        <v>0.02927382632398487</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03470705769459403</v>
+        <v>0.03576328539216172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02627169059056823</v>
+        <v>0.06508016196949959</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03242195508377834</v>
+        <v>0.03549171748414621</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05265810139067981</v>
+        <v>0.1008894640965724</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03642752916547234</v>
+        <v>0.03533638559580314</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08783841359807487</v>
+        <v>0.02927382632398487</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03533485397362521</v>
+        <v>0.03576328539216172</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0220227435680044</v>
+        <v>0.02935761406625577</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03546155894882434</v>
+        <v>0.03654074811807827</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0261834202263177</v>
+        <v>0.06590365725975428</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03312678019429527</v>
+        <v>0.03626327655988851</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05168269386849975</v>
+        <v>0.1016800806951376</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03721943197341739</v>
+        <v>0.03610456789136408</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08680570738348209</v>
+        <v>0.02935761406625577</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03610300297305184</v>
+        <v>0.03654074811807827</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02276651568625124</v>
+        <v>0.02952335607009961</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03621606020305464</v>
+        <v>0.03731821084399484</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02551373135674825</v>
+        <v>0.06599493317231522</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03383160530481219</v>
+        <v>0.03703483563563083</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05194189933490842</v>
+        <v>0.1025234951178</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03801133478136245</v>
+        <v>0.03687275018692501</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08529939580339907</v>
+        <v>0.02952335607009961</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03687115197247848</v>
+        <v>0.03731821084399484</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02052709366830253</v>
+        <v>0.02967066075916226</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03697056145728495</v>
+        <v>0.0380956735699114</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02547352983396449</v>
+        <v>0.06625378419199332</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03453643041532911</v>
+        <v>0.03780639471137313</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05183444180551844</v>
+        <v>0.1021193106323315</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0388032375893075</v>
+        <v>0.03764093248248596</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08503667380280061</v>
+        <v>0.02967066075916226</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03763930097190511</v>
+        <v>0.0380956735699114</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02230952115418881</v>
+        <v>0.02979913655708959</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03772506271151525</v>
+        <v>0.03887313629582795</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02507372151007102</v>
+        <v>0.06668000480359945</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03524125552584603</v>
+        <v>0.03857795378711544</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05172602508040486</v>
+        <v>0.1029671305065047</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03959514039725254</v>
+        <v>0.03840911477804689</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08353473632666131</v>
+        <v>0.02979913655708959</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03840744997133175</v>
+        <v>0.03887313629582795</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02211884178394059</v>
+        <v>0.03000839188752749</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03847956396574555</v>
+        <v>0.03965059902174452</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02482521223717243</v>
+        <v>0.06627338949194445</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03594608063636295</v>
+        <v>0.03934951286285775</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05229585065539033</v>
+        <v>0.1029665580080915</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0403870432051976</v>
+        <v>0.03917729707360782</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08281077831995592</v>
+        <v>0.03000839188752749</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03917559897075838</v>
+        <v>0.03965059902174452</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02096009919758839</v>
+        <v>0.02979803517412177</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03923406521997586</v>
+        <v>0.04042806174766107</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02463890786737334</v>
+        <v>0.06663373274183915</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03665090574687987</v>
+        <v>0.04012107193860006</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05223873379763413</v>
+        <v>0.1039171964048641</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04117894601314265</v>
+        <v>0.03994547936916876</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08198199472765905</v>
+        <v>0.02979803517412177</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03994374797018502</v>
+        <v>0.04042806174766107</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02183833703516269</v>
+        <v>0.03016767484051834</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03998856647420616</v>
+        <v>0.04120552447357764</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02452571425277834</v>
+        <v>0.06656082903809443</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03735573085739679</v>
+        <v>0.04089263101434237</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05234948977429565</v>
+        <v>0.1035186489645949</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0419708488210877</v>
+        <v>0.0407136616647297</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08046558049474528</v>
+        <v>0.03016767484051834</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04071189696961165</v>
+        <v>0.04120552447357764</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02175859893669403</v>
+        <v>0.02991691931036303</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04074306772843647</v>
+        <v>0.04198298719949419</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02459551360523173</v>
+        <v>0.06705447286552119</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03806055596791371</v>
+        <v>0.04166419009008468</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05262293385253417</v>
+        <v>0.1040705189550559</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04276275162903274</v>
+        <v>0.04148184396029064</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0796787305661894</v>
+        <v>0.02991691931036303</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04148004596903829</v>
+        <v>0.04198298719949419</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02072592854221293</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04149756898266678</v>
+        <v>0.04276044992541075</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02451338199513041</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03876538107843063</v>
+        <v>0.04243574916582699</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05315388129950904</v>
+        <v>0.1043724096440192</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0435546544369778</v>
+        <v>0.04225002625585158</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07983863988696605</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04224819496846492</v>
+        <v>0.04276044992541075</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02073788358555768</v>
+        <v>0.03025268573140996</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04225207023689708</v>
+        <v>0.04353791265132731</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02435653473069642</v>
+        <v>0.06694058105313247</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03947020618894755</v>
+        <v>0.04320730824156929</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05353714738237964</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04434655724492285</v>
+        <v>0.04301820855141252</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07946250340204974</v>
+        <v>0.03025268573140996</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04301634396789156</v>
+        <v>0.04353791265132731</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01978260770835256</v>
+        <v>0.03024020931454598</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04300657149112739</v>
+        <v>0.04431537537724387</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02472345358786299</v>
+        <v>0.06683898165161237</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04017503129946447</v>
+        <v>0.04397886731731161</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05426754736830519</v>
+        <v>0.1038257838911137</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0451384600528679</v>
+        <v>0.04378639084697345</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07866751605641531</v>
+        <v>0.03024020931454598</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04378449296731819</v>
+        <v>0.04431537537724387</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01985757764345614</v>
+        <v>0.03000952998483868</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04376107274535769</v>
+        <v>0.04509283810316043</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0247126203425633</v>
+        <v>0.06672612427015898</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0408798564099814</v>
+        <v>0.04475042639305391</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05483989652444515</v>
+        <v>0.1039853926060505</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04593036286081295</v>
+        <v>0.04455457314253439</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07907208774359603</v>
+        <v>0.03000952998483868</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04455264196674483</v>
+        <v>0.04509283810316043</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02196045061083397</v>
+        <v>0.03016157183354558</v>
       </c>
       <c r="G124" t="n">
-        <v>0.044515573999588</v>
+        <v>0.04587030082907699</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02482251677073059</v>
+        <v>0.06690304851656007</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04158468152049831</v>
+        <v>0.04552198546879622</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0554490101179588</v>
+        <v>0.1040053786247453</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04672226566875801</v>
+        <v>0.04532275543809533</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07908755575957993</v>
+        <v>0.03016157183354558</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04532079096617146</v>
+        <v>0.04587030082907699</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02108888383045165</v>
+        <v>0.03009725895192414</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0452700752538183</v>
+        <v>0.04664776355499355</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02505162464829806</v>
+        <v>0.0666699519998265</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04228950663101523</v>
+        <v>0.04629354454453853</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0560897034160055</v>
+        <v>0.1033871927308214</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04751416847670305</v>
+        <v>0.04609093773365627</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07940001189278123</v>
+        <v>0.03009725895192414</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0460889399655981</v>
+        <v>0.04664776355499355</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02024053452227473</v>
+        <v>0.03001751543123188</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04602457650804861</v>
+        <v>0.04742522628091011</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02519842575119891</v>
+        <v>0.06692703232896899</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04299433174153216</v>
+        <v>0.04706510362028084</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05695679168574455</v>
+        <v>0.1031322857079021</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0483060712846481</v>
+        <v>0.0468591200292172</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08049312443172896</v>
+        <v>0.03001751543123188</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04685708896502473</v>
+        <v>0.04742522628091011</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02141305990626878</v>
+        <v>0.0299232653627263</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04677907776227891</v>
+        <v>0.04820268900682666</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02516140185536636</v>
+        <v>0.06687448711299837</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04369915685204908</v>
+        <v>0.04783666269602315</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05774509019433532</v>
+        <v>0.1034421083396107</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04909797409259315</v>
+        <v>0.04762730232477814</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08085056166495191</v>
+        <v>0.0299232653627263</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04762523796445137</v>
+        <v>0.04820268900682666</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02060411720239938</v>
+        <v>0.02971543283766487</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04753357901650921</v>
+        <v>0.04898015173274323</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02553903473673362</v>
+        <v>0.06661251396092535</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04440398196256599</v>
+        <v>0.04860822177176546</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0581494142089371</v>
+        <v>0.1031181114095704</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04988987690053821</v>
+        <v>0.04839548462033908</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08175599188097898</v>
+        <v>0.02971543283766487</v>
       </c>
       <c r="O128" t="n">
-        <v>0.048393386963878</v>
+        <v>0.04898015173274323</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0228113636306321</v>
+        <v>0.02939494194730512</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04828808027073952</v>
+        <v>0.04975761445865978</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02542980617123392</v>
+        <v>0.06684131048176079</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04510880707308292</v>
+        <v>0.04937978084750777</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05876457899670928</v>
+        <v>0.1024617457014045</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05068177970848325</v>
+        <v>0.04916366691590002</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08309308336833915</v>
+        <v>0.02939494194730512</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04916153596330464</v>
+        <v>0.04975761445865978</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02303245641093252</v>
+        <v>0.0293627167829045</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04904258152496983</v>
+        <v>0.05053507718457634</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02563219793480041</v>
+        <v>0.06656107428451541</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04581363218359984</v>
+        <v>0.05015133992325008</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05968539982481116</v>
+        <v>0.1029744619987364</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05147368251642831</v>
+        <v>0.04993184921146095</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08424550441556122</v>
+        <v>0.0293627167829045</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04992968496273127</v>
+        <v>0.05053507718457634</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02326505276326619</v>
+        <v>0.02911968143572058</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04979708277920013</v>
+        <v>0.0513125399104929</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02614469180336637</v>
+        <v>0.06667200297820006</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04651845729411676</v>
+        <v>0.05092289899899238</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0602066919604021</v>
+        <v>0.1027577110851892</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05226558532437336</v>
+        <v>0.0507000315070219</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08549692331117414</v>
+        <v>0.02911968143572058</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05069783396215791</v>
+        <v>0.0513125399104929</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02250680990759872</v>
+        <v>0.02916675999701077</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05055158403343044</v>
+        <v>0.05209000263640946</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02606576955286498</v>
+        <v>0.06667429417182547</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04722328240463367</v>
+        <v>0.0516944580747347</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06122327067064137</v>
+        <v>0.1022129437443863</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05305748813231841</v>
+        <v>0.05146821380258283</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08623100834370673</v>
+        <v>0.02916675999701077</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05146598296158454</v>
+        <v>0.05209000263640946</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02375538506389563</v>
+        <v>0.02880487655803263</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05130608528766074</v>
+        <v>0.05286746536232602</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02629391295922946</v>
+        <v>0.06626814547440241</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0479281075151506</v>
+        <v>0.052466017150477</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06152995122268842</v>
+        <v>0.101741610759951</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05384939094026346</v>
+        <v>0.05223639609814377</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08823142780168791</v>
+        <v>0.02880487655803263</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05223413196101118</v>
+        <v>0.05286746536232602</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02300843545212254</v>
+        <v>0.02863495521004362</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05206058654189104</v>
+        <v>0.05364492808824257</v>
       </c>
       <c r="J134" t="n">
-        <v>0.026827603798393</v>
+        <v>0.06605375449494172</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04863293262566752</v>
+        <v>0.05323757622621932</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06222154888370249</v>
+        <v>0.1006451629155064</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05464129374820852</v>
+        <v>0.0530045783937047</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08958184997364649</v>
+        <v>0.02863495521004362</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05300228096043781</v>
+        <v>0.05364492808824257</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02426361829224499</v>
+        <v>0.02855792004430124</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05281508779612135</v>
+        <v>0.05442239081415914</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02706532384628883</v>
+        <v>0.06633131884245416</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04933775773618444</v>
+        <v>0.05400913530196162</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0634928789208429</v>
+        <v>0.100625050994676</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05543319655615356</v>
+        <v>0.05377276068926565</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09096594314811152</v>
+        <v>0.02855792004430124</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05377042995986445</v>
+        <v>0.05442239081415914</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02251859080422856</v>
+        <v>0.02847469515206302</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05356958905035165</v>
+        <v>0.05519985354007569</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02710555487885016</v>
+        <v>0.06610103612595047</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05004258284670136</v>
+        <v>0.05478069437770392</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06383875660126909</v>
+        <v>0.1006827257810829</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05622509936409861</v>
+        <v>0.05454094298482658</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09296737561361185</v>
+        <v>0.02847469515206302</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05453857895929108</v>
+        <v>0.05519985354007569</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02277101020803882</v>
+        <v>0.02818620462458642</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05432409030458196</v>
+        <v>0.05597731626599225</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0274467786720102</v>
+        <v>0.06586310395444153</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05074740795721828</v>
+        <v>0.05555225345344624</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06415399719214029</v>
+        <v>0.09941963805835058</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05701700217204367</v>
+        <v>0.05530912528038752</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09406981565867623</v>
+        <v>0.02818620462458642</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05530672795871772</v>
+        <v>0.05597731626599225</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02501853372364135</v>
+        <v>0.02819337255312895</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05507859155881227</v>
+        <v>0.05675477899190881</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02748747700170218</v>
+        <v>0.06571771993693803</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0514522330677352</v>
+        <v>0.05632381252918855</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0650334159606159</v>
+        <v>0.0992372386101022</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05780890497998872</v>
+        <v>0.05607730757594846</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09495693157183366</v>
+        <v>0.02819337255312895</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05607487695814435</v>
+        <v>0.05675477899190881</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02525881857100172</v>
+        <v>0.02799712302894809</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05583309281304257</v>
+        <v>0.05753224171782537</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02802613164385925</v>
+        <v>0.06576508168245079</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05215705817825212</v>
+        <v>0.05709537160493085</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06557182817385523</v>
+        <v>0.098936978219961</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05860080778793377</v>
+        <v>0.05684548987150939</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09701239164161302</v>
+        <v>0.02799712302894809</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05684302595757098</v>
+        <v>0.05753224171782537</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0244895219700855</v>
+        <v>0.02779838014330137</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05658759406727287</v>
+        <v>0.05830970444374194</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02796122437441467</v>
+        <v>0.06520538679999058</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05286188328876904</v>
+        <v>0.05786693068067317</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0661640490990176</v>
+        <v>0.09802030767155029</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05939271059587881</v>
+        <v>0.05761367216707033</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09811986415654322</v>
+        <v>0.02779838014330137</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05761117495699762</v>
+        <v>0.05830970444374194</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02370830114085824</v>
+        <v>0.02729806798744625</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05734209532150319</v>
+        <v>0.0590871671696585</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02819123696930166</v>
+        <v>0.06493883289856819</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05356670839928596</v>
+        <v>0.05863848975641547</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06620489400326243</v>
+        <v>0.09808867774849345</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06018461340382387</v>
+        <v>0.05838185446263128</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09946301740515306</v>
+        <v>0.02729806798744625</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05837932395642426</v>
+        <v>0.0590871671696585</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02591281330328554</v>
+        <v>0.02729711065264025</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05809659657573349</v>
+        <v>0.05986462989557505</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02851465120445339</v>
+        <v>0.0647656175871944</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05427153350980288</v>
+        <v>0.05941004883215778</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.09684353923441358</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06097651621176892</v>
+        <v>0.05915003675819221</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1006255196759714</v>
+        <v>0.02729711065264025</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0591474729558509</v>
+        <v>0.05986462989557505</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02610071567733296</v>
+        <v>0.02689643223014085</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05885109782996379</v>
+        <v>0.06064209262149162</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02862994885580311</v>
+        <v>0.06458593847488001</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0549763586203198</v>
+        <v>0.06018160790790009</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0672220178661751</v>
+        <v>0.09668634291293415</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06176841901971396</v>
+        <v>0.05991821905375314</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1023910392575273</v>
+        <v>0.02689643223014085</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05991562195527753</v>
+        <v>0.06064209262149162</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02626966548296607</v>
+        <v>0.02679695681120553</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05960559908419409</v>
+        <v>0.06141955534740817</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02883561169928402</v>
+        <v>0.06439999317063577</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05568118373083673</v>
+        <v>0.0609531669836424</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06725063190926242</v>
+        <v>0.0966185395676783</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06256032182765903</v>
+        <v>0.06068640134931408</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1032432444383496</v>
+        <v>0.02679695681120553</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06068377095470417</v>
+        <v>0.06141955534740817</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02641731994015047</v>
+        <v>0.02669960848709184</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06036010033842441</v>
+        <v>0.06219701807332473</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02933012151082928</v>
+        <v>0.06470797928347249</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05638600884135365</v>
+        <v>0.06172472605938471</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06758091552405687</v>
+        <v>0.09594157998226943</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06335222463560408</v>
+        <v>0.06145458364487501</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.02669960848709184</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0614519199541308</v>
+        <v>0.06219701807332473</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.02650531134905725</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06111460159265471</v>
+        <v>0.06297448079924128</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02941196006637219</v>
+        <v>0.06401009442240096</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05709083395187057</v>
+        <v>0.06249628513512702</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06811209606137392</v>
+        <v>0.09515691494033063</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06414412744354912</v>
+        <v>0.06222276594043596</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1053631917771268</v>
+        <v>0.02650531134905725</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06222006895355742</v>
+        <v>0.06297448079924128</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02564641006240596</v>
+        <v>0.02641498948835923</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06186910284688501</v>
+        <v>0.06375194352515785</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02947960914184589</v>
+        <v>0.06390653619643194</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05779565906238749</v>
+        <v>0.06326784421086933</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06824340087202901</v>
+        <v>0.09416599522548547</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06493603025149418</v>
+        <v>0.06299094823599689</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1058848669957368</v>
+        <v>0.02641498948835923</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06298821795298407</v>
+        <v>0.06375194352515785</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02575074073003633</v>
+        <v>0.02592956699625532</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06262360410111532</v>
+        <v>0.06452940625107441</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02983155051318363</v>
+        <v>0.06419750221457621</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05850048417290441</v>
+        <v>0.06403940328661165</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06907405730683747</v>
+        <v>0.09407027162135695</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06572793305943923</v>
+        <v>0.06375913053155784</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1064271815511752</v>
+        <v>0.02592956699625532</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0637563669524107</v>
+        <v>0.06452940625107441</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02585511073300702</v>
+        <v>0.02604996796400297</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06337810535534562</v>
+        <v>0.06530686897699096</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02976626595631859</v>
+        <v>0.06368319008584458</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05920530928342133</v>
+        <v>0.06481096236235395</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0694032927166148</v>
+        <v>0.09307119491156851</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06651983586738427</v>
+        <v>0.06452731282711877</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1075843193419795</v>
+        <v>0.02604996796400297</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06452451595183734</v>
+        <v>0.06530686897699096</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02495918108940737</v>
+        <v>0.02587711648285972</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06413260660957593</v>
+        <v>0.06608433170290752</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02998223724718402</v>
+        <v>0.06356379741924778</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05991013439393825</v>
+        <v>0.06558252143809624</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06943033445217636</v>
+        <v>0.09277021587974332</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06731173867532933</v>
+        <v>0.06529549512267971</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1084504642666871</v>
+        <v>0.02587711648285972</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06529266495126397</v>
+        <v>0.06608433170290752</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02606261281732671</v>
+        <v>0.02561193664408304</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06488710786380623</v>
+        <v>0.06686179442882408</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0298779461617131</v>
+        <v>0.06303952182379666</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06061495950445517</v>
+        <v>0.06635408051383856</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06985440986433764</v>
+        <v>0.09216878530950479</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06810364148327437</v>
+        <v>0.06606367741824064</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1097198002238357</v>
+        <v>0.02561193664408304</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06606081395069061</v>
+        <v>0.06686179442882408</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02716506693485435</v>
+        <v>0.02525535253893042</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06564160911803654</v>
+        <v>0.06763925715474065</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.06301056090850199</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06131978461497209</v>
+        <v>0.06712563958958087</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07047474630391395</v>
+        <v>0.09126835398447619</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06889554429121943</v>
+        <v>0.06683185971380159</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1109865111119628</v>
+        <v>0.02525535253893042</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06682896295011724</v>
+        <v>0.06763925715474065</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02526620446007961</v>
+        <v>0.0251071036607028</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06639611037226684</v>
+        <v>0.0684167198806572</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03011369140126183</v>
+        <v>0.06277711228237451</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06202460972548901</v>
+        <v>0.06789719866532318</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07019057112172081</v>
+        <v>0.09077037268828064</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06968744709916448</v>
+        <v>0.06760004200936252</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1113447808296057</v>
+        <v>0.0251071036607028</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06759711194954388</v>
+        <v>0.0684167198806572</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02736568641109181</v>
+        <v>0.02516152435533874</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06715061162649714</v>
+        <v>0.06919418260657376</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03027480961053328</v>
+        <v>0.062639373554425</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06272943483600593</v>
+        <v>0.0686687577410655</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07070111166857357</v>
+        <v>0.0901762922045416</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07047934990710952</v>
+        <v>0.06836822430492347</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1128887932753022</v>
+        <v>0.02516152435533874</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06836526094897051</v>
+        <v>0.06919418260657376</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02546317380598029</v>
+        <v>0.0249176213720033</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06790511288072745</v>
+        <v>0.06997164533249031</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03013519196587806</v>
+        <v>0.0622975423336643</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06343425994652285</v>
+        <v>0.0694403168168078</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07140559529528775</v>
+        <v>0.08988756331688236</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07127125271505458</v>
+        <v>0.0691364066004844</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1135127323475895</v>
+        <v>0.0249176213720033</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06913340994839715</v>
+        <v>0.06997164533249031</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02655832766283435</v>
+        <v>0.02487524929105146</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06865961413495776</v>
+        <v>0.07074910805840688</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03039479807468694</v>
+        <v>0.06185181622910316</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06413908505703976</v>
+        <v>0.07021187589255011</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07150324935267863</v>
+        <v>0.08890563680892599</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07206315552299963</v>
+        <v>0.06990458889604534</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1145107819450053</v>
+        <v>0.02487524929105146</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06990155894782378</v>
+        <v>0.07074910805840688</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02665080899974331</v>
+        <v>0.02463426269283811</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06941411538918806</v>
+        <v>0.07152657078432344</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03025358754435077</v>
+        <v>0.06190239284975235</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06484391016755668</v>
+        <v>0.07098343496829242</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07159330119156171</v>
+        <v>0.08793196346429594</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07285505833094467</v>
+        <v>0.07067277119160628</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1152771259660871</v>
+        <v>0.02463426269283811</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07066970794725042</v>
+        <v>0.07152657078432344</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0257402788347965</v>
+        <v>0.02469451615771825</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07016861664341838</v>
+        <v>0.07230403351023999</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03051151998226026</v>
+        <v>0.06124946980462273</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06554873527807362</v>
+        <v>0.07175499404403472</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07207497816275238</v>
+        <v>0.08736799406661544</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07364696113888973</v>
+        <v>0.07144095348716721</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1163059483093724</v>
+        <v>0.02469451615771825</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07143785694667705</v>
+        <v>0.07230403351023999</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02682639818608325</v>
+        <v>0.02455586426604678</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07092311789764867</v>
+        <v>0.07308149623615655</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03056855499580627</v>
+        <v>0.06129324470272496</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06625356038859054</v>
+        <v>0.07252655311977703</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07234750761706613</v>
+        <v>0.08731517939950778</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07443886394683479</v>
+        <v>0.07220913578272815</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1172914328733987</v>
+        <v>0.02455586426604678</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07220600594610369</v>
+        <v>0.07308149623615655</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02690882807169284</v>
+        <v>0.02411816159817864</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07167761915187898</v>
+        <v>0.0738589589620731</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03062465219237959</v>
+        <v>0.06113391515306987</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06695838549910746</v>
+        <v>0.07329811219551935</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07251011690531828</v>
+        <v>0.08717497024659626</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07523076675477984</v>
+        <v>0.07297731807828908</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1174277635567035</v>
+        <v>0.02411816159817864</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07297415494553032</v>
+        <v>0.0738589589620731</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02798722950971465</v>
+        <v>0.02418126273446874</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07243212040610927</v>
+        <v>0.07463642168798967</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03057977117937097</v>
+        <v>0.06057167876466829</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06766321060962438</v>
+        <v>0.07406967127126166</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07246203337832433</v>
+        <v>0.08594857044897686</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0760226695627249</v>
+        <v>0.07374550037385003</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1178091242578242</v>
+        <v>0.02418126273446874</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07374230394495696</v>
+        <v>0.07463642168798967</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02806126351823796</v>
+        <v>0.02404502225527209</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07318662166033958</v>
+        <v>0.07541388441390624</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03063387156417123</v>
+        <v>0.06040673314653094</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0683680357201413</v>
+        <v>0.07484123034700396</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07270248438689964</v>
+        <v>0.08562848533333123</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07681457237066994</v>
+        <v>0.07451368266941095</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1191296988752986</v>
+        <v>0.02404502225527209</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07451045294438359</v>
+        <v>0.07541388441390624</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0281305911153521</v>
+        <v>0.0237092947409436</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07394112291456989</v>
+        <v>0.0761913471398228</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03088691295417119</v>
+        <v>0.06053927590766869</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06907286083065822</v>
+        <v>0.07561278942274627</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07303069728185965</v>
+        <v>0.08541010571543789</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07760647517861499</v>
+        <v>0.07528186496497191</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1191836713076639</v>
+        <v>0.0237092947409436</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07527860194381022</v>
+        <v>0.0761913471398228</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0261948733191464</v>
+        <v>0.02357393477183818</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0746956241688002</v>
+        <v>0.07696880986573935</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03063885495676161</v>
+        <v>0.05966950465709223</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06977768594117513</v>
+        <v>0.07638434849848857</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07324589941401979</v>
+        <v>0.08429273158014761</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07839837798656005</v>
+        <v>0.07605004726053284</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1196652254534578</v>
+        <v>0.02357393477183818</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07604675094323686</v>
+        <v>0.07696880986573935</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02625377114771017</v>
+        <v>0.02353879692831078</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07545012542303051</v>
+        <v>0.07774627259165591</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03078965717933325</v>
+        <v>0.0599976170038124</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07048251105169205</v>
+        <v>0.07715590757423088</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07334731813419545</v>
+        <v>0.08387566291231113</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07919028079450509</v>
+        <v>0.07681822955609378</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1198685452112179</v>
+        <v>0.02353879692831078</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07681489994266349</v>
+        <v>0.07774627259165591</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02730694561913272</v>
+        <v>0.02340373579071636</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0762046266772608</v>
+        <v>0.07852373531757247</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03073927922927698</v>
+        <v>0.05922381055683992</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07118733616220897</v>
+        <v>0.0779274666499732</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07353418079320209</v>
+        <v>0.08335819969677938</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07998218360245014</v>
+        <v>0.07758641185165471</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1202878144794815</v>
+        <v>0.02340373579071636</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07758304894209013</v>
+        <v>0.07852373531757247</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02635405775150339</v>
+        <v>0.02346860593940985</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07695912793149111</v>
+        <v>0.07930119804348904</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03088768071398355</v>
+        <v>0.05904828292518563</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07189216127272589</v>
+        <v>0.07869902572571551</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07400571474185508</v>
+        <v>0.08323964191840305</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0807740864103952</v>
+        <v>0.07835459414721564</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1207172171567861</v>
+        <v>0.02346860593940985</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07835119794151676</v>
+        <v>0.07930119804348904</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02639476856291151</v>
+        <v>0.0232332619547462</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07771362918572142</v>
+        <v>0.08007866076940559</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03103482124084375</v>
+        <v>0.05875554472326772</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07259698638324281</v>
+        <v>0.07947058480145781</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07386114733096991</v>
+        <v>0.082219289562033</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08156598921834024</v>
+        <v>0.0791227764427766</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1208509371416694</v>
+        <v>0.0232332619547462</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0791193469409434</v>
+        <v>0.08007866076940559</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02642873907144636</v>
+        <v>0.02319755841708029</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07846813043995172</v>
+        <v>0.08085612349532215</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03098066041724838</v>
+        <v>0.05872087802845982</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07330181149375974</v>
+        <v>0.08024214387720012</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0744997059113619</v>
+        <v>0.08169644261251996</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0823578920262853</v>
+        <v>0.07989095873833753</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1209827017531305</v>
+        <v>0.02319755841708029</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07988749594037003</v>
+        <v>0.08085612349532215</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02745563029519732</v>
+        <v>0.02306134990676714</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07922263169418202</v>
+        <v>0.0816335862212387</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03102515785058825</v>
+        <v>0.05844691306631167</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07400663660427666</v>
+        <v>0.08101370295294243</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07442061783384654</v>
+        <v>0.08117040105471474</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08314979483423034</v>
+        <v>0.08065914103389847</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1213934342196498</v>
+        <v>0.02306134990676714</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08065564493979667</v>
+        <v>0.0816335862212387</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02847510325225365</v>
+        <v>0.02282449100416165</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07997713294841233</v>
+        <v>0.08241104894715527</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03126827314825414</v>
+        <v>0.05773672473328548</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07471146171479358</v>
+        <v>0.08178526202868473</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07472311044923924</v>
+        <v>0.08064046487346821</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08394169764217539</v>
+        <v>0.0814273233294594</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1212805411486569</v>
+        <v>0.02282449100416165</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0814237939392233</v>
+        <v>0.08241104894715527</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02748681896070471</v>
+        <v>0.02248683628961876</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08073163420264264</v>
+        <v>0.08318851167307183</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03100996591763684</v>
+        <v>0.05709338792584326</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0754162868253105</v>
+        <v>0.08255682110442705</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0745064111083554</v>
+        <v>0.0800059340536311</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08473360045012045</v>
+        <v>0.08219550562502034</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1200509305680063</v>
+        <v>0.02248683628961876</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08219194293864994</v>
+        <v>0.08318851167307183</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02649042471108805</v>
+        <v>0.02234824034349339</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08148613545687294</v>
+        <v>0.08396597439898838</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03115019576612714</v>
+        <v>0.05671997754044716</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07612111193582742</v>
+        <v>0.08332838018016936</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07486974716201045</v>
+        <v>0.08026610858005423</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08552550325806549</v>
+        <v>0.08296368792058127</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1203115105055522</v>
+        <v>0.02234824034349339</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08296009193807657</v>
+        <v>0.08396597439898838</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02848204767982235</v>
+        <v>0.02250855774614051</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08224063671110324</v>
+        <v>0.08474343712490494</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03138892230111584</v>
+        <v>0.05631956847355934</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07682593704634434</v>
+        <v>0.08409993925591167</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07491234596101984</v>
+        <v>0.07992028843758836</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08631740606601054</v>
+        <v>0.08373187021614222</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1194691889891492</v>
+        <v>0.02250855774614051</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08372824093750321</v>
+        <v>0.08474343712490494</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02645928556915225</v>
+        <v>0.02226764307791504</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08299513796533356</v>
+        <v>0.08552089985082149</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03112610512999374</v>
+        <v>0.05579523562164185</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07753076215686126</v>
+        <v>0.08487149833165397</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0745334348561989</v>
+        <v>0.07896777361108437</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0871093088739556</v>
+        <v>0.08450005251170316</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1191308740466517</v>
+        <v>0.02226764307791504</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08449638993692984</v>
+        <v>0.08552089985082149</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.028422787926127</v>
+        <v>0.02192535091917194</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08374963921956385</v>
+        <v>0.08629836257673806</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03136170386015159</v>
+        <v>0.05545005388115676</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07823558726737818</v>
+        <v>0.08564305740739628</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07482193533402667</v>
+        <v>0.07810786408539305</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08790121168190064</v>
+        <v>0.08526823480726409</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1183034737059139</v>
+        <v>0.02192535091917194</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08526453893635648</v>
+        <v>0.08629836257673806</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02737320429779581</v>
+        <v>0.02178153585026611</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08450414047379416</v>
+        <v>0.08707582530265462</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03129567809898025</v>
+        <v>0.05498709814856625</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07894041237789511</v>
+        <v>0.08641461648313858</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07492866412288443</v>
+        <v>0.07803985984536521</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0886931144898457</v>
+        <v>0.08603641710282503</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1169938959947905</v>
+        <v>0.02178153585026611</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08603268793578311</v>
+        <v>0.08707582530265462</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0273111842312079</v>
+        <v>0.02193605245155254</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08525864172802447</v>
+        <v>0.08785328802857117</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03142798745387049</v>
+        <v>0.05400944332033233</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07964523748841203</v>
+        <v>0.0871861755588809</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07435150802779283</v>
+        <v>0.07686306087585143</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08948501729779075</v>
+        <v>0.08680459939838596</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1165090489411358</v>
+        <v>0.02193605245155254</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08680083693520975</v>
+        <v>0.08785328802857117</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02823737727341251</v>
+        <v>0.02158875530338612</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08601314298225478</v>
+        <v>0.08863075075448773</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03135859153221307</v>
+        <v>0.05332016429291728</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08035006259892895</v>
+        <v>0.08795773463462321</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0739953723022938</v>
+        <v>0.07707676716170286</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09027692010573581</v>
+        <v>0.0875727816939469</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1156558405728043</v>
+        <v>0.02158875530338612</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08756898593463638</v>
+        <v>0.08863075075448773</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02715243297145888</v>
+        <v>0.02143949898612182</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08676764423648507</v>
+        <v>0.08940821348040429</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03148744994139882</v>
+        <v>0.05272233596278297</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08105488770944587</v>
+        <v>0.08872929371036553</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07376516219992904</v>
+        <v>0.0762802786877701</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09106882291368086</v>
+        <v>0.08834096398950785</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1147411789176503</v>
+        <v>0.02143949898612182</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08833713493406302</v>
+        <v>0.08940821348040429</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02605700087239619</v>
+        <v>0.02148813808011457</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08752214549071538</v>
+        <v>0.09018567620632086</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03151452228881854</v>
+        <v>0.05231903322639173</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08175971281996279</v>
+        <v>0.08950085278610782</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07376578297424033</v>
+        <v>0.07527289543890398</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0918607257216259</v>
+        <v>0.08910914628506879</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1129719720035282</v>
+        <v>0.02148813808011457</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08910528393348965</v>
+        <v>0.09018567620632086</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0269517305232737</v>
+        <v>0.02103452716571932</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08827664674494569</v>
+        <v>0.09096313893223741</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03163976818186297</v>
+        <v>0.05161333098020551</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0824645379304797</v>
+        <v>0.09027241186185013</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07310213987876948</v>
+        <v>0.07495391739995522</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09265262852957096</v>
+        <v>0.08987732858062972</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1122551278582924</v>
+        <v>0.02103452716571932</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08987343293291629</v>
+        <v>0.09096313893223741</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02683727147114062</v>
+        <v>0.02117852082329098</v>
       </c>
       <c r="G183" t="n">
-        <v>0.089031147999176</v>
+        <v>0.09174060165815398</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03146314722792294</v>
+        <v>0.05090830412068645</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08316936304099662</v>
+        <v>0.09104397093759245</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0727791381670583</v>
+        <v>0.07412264455577477</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09344453133751601</v>
+        <v>0.09064551087619066</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1114975545097976</v>
+        <v>0.02117852082329098</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09064158193234292</v>
+        <v>0.09174060165815398</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02571427326304618</v>
+        <v>0.02071997363318451</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08978564925340629</v>
+        <v>0.09251806438407054</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03148461903438926</v>
+        <v>0.0503070275442967</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08387418815151354</v>
+        <v>0.09181553001333476</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07160168309264853</v>
+        <v>0.07357837689121327</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09423643414546105</v>
+        <v>0.09141369317175159</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1096061599858978</v>
+        <v>0.02071997363318451</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09140973093176956</v>
+        <v>0.09251806438407054</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02758338544603961</v>
+        <v>0.02075874017575484</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0905401505076366</v>
+        <v>0.09329552710998709</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03170414320865272</v>
+        <v>0.05011257614749834</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08457901326203046</v>
+        <v>0.09258708908907706</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07107467990908195</v>
+        <v>0.07312041439112171</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09502833695340611</v>
+        <v>0.09218187546731253</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1083878523144478</v>
+        <v>0.02075874017575484</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09217787993119619</v>
+        <v>0.09329552710998709</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02544525756717012</v>
+        <v>0.02049467503135692</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09129465176186691</v>
+        <v>0.09407298983590366</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03172167935810406</v>
+        <v>0.04942802482675349</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0852838383725474</v>
+        <v>0.09335864816481938</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07040303386990038</v>
+        <v>0.07184805704035069</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09582023976135116</v>
+        <v>0.09295005776287348</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1076495395233018</v>
+        <v>0.02049467503135692</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09294602893062283</v>
+        <v>0.09407298983590366</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02730053917348695</v>
+        <v>0.02022763278034569</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09204915301609722</v>
+        <v>0.09485045256182022</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03163718709013413</v>
+        <v>0.04855644847852419</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08598866348306432</v>
+        <v>0.09413020724056169</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06959165022864561</v>
+        <v>0.07196060482375111</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09661214256929621</v>
+        <v>0.0937182400584344</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1059981296403142</v>
+        <v>0.02022763278034569</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09371417793004946</v>
+        <v>0.09485045256182022</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02714987981203931</v>
+        <v>0.02025737114574021</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09280365427032752</v>
+        <v>0.09562791528773677</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03145062601213372</v>
+        <v>0.04830092199927263</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08669348859358124</v>
+        <v>0.09490176631630398</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06904543423885937</v>
+        <v>0.07075735772617381</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09740404537724126</v>
+        <v>0.09448642235399535</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1048405306933395</v>
+        <v>0.02025737114574021</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0944823269294761</v>
+        <v>0.09562791528773677</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02499392902987645</v>
+        <v>0.01997803116586258</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09355815552455782</v>
+        <v>0.09640537801365333</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03166195573149357</v>
+        <v>0.0476643730192082</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08739831370409816</v>
+        <v>0.0956733253920463</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06816929115408354</v>
+        <v>0.0702376157324695</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0981959481851863</v>
+        <v>0.09525460464955628</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1035836507102321</v>
+        <v>0.01997803116586258</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09525047592890273</v>
+        <v>0.09640537801365333</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02483333637404757</v>
+        <v>0.0199869922200486</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09431265677878813</v>
+        <v>0.09718284073956988</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03167113585560452</v>
+        <v>0.04713359636417572</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08810313881461507</v>
+        <v>0.09644488446778861</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06786812622785982</v>
+        <v>0.06890067882748907</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09898785099313136</v>
+        <v>0.09602278694511722</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1025343977188464</v>
+        <v>0.0199869922200486</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09601862492832937</v>
+        <v>0.09718284073956988</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02666875139160189</v>
+        <v>0.01968532079027439</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09506715803301842</v>
+        <v>0.09796030346548645</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03177812599185736</v>
+        <v>0.04629873523766298</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08880796392513199</v>
+        <v>0.09721644354353091</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06684684471373001</v>
+        <v>0.06844584699608319</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09977975380107641</v>
+        <v>0.09679096924067816</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1006996797470369</v>
+        <v>0.01968532079027439</v>
       </c>
       <c r="O191" t="n">
-        <v>0.096786773927756</v>
+        <v>0.09796030346548645</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02650082362958867</v>
+        <v>0.01937408335851615</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09582165928724874</v>
+        <v>0.09873776619140301</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0317828857476429</v>
+        <v>0.0462601592371934</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08951278903564891</v>
+        <v>0.09798800261927323</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06601035186523596</v>
+        <v>0.06767242022310282</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1005716566090215</v>
+        <v>0.09755915153623911</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1002864048226579</v>
+        <v>0.01937408335851615</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09755492292718264</v>
+        <v>0.09873776619140301</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0263302026350571</v>
+        <v>0.01905434640675008</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09657616054147904</v>
+        <v>0.09951522891731956</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0314853747303519</v>
+        <v>0.04581823796029055</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09021761414616583</v>
+        <v>0.09875956169501554</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06496355293591938</v>
+        <v>0.06667969849339855</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1013635594169665</v>
+        <v>0.09832733383180003</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09900148097356387</v>
+        <v>0.01905434640675008</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09832307192660927</v>
+        <v>0.09951522891731956</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02515753795505643</v>
+        <v>0.01902717641695233</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09733066179570934</v>
+        <v>0.1002926916432361</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03148300235960888</v>
+        <v>0.0447733410044778</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09092243925668275</v>
+        <v>0.09953112077075783</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06451135317932211</v>
+        <v>0.06576698179182144</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1021554622249116</v>
+        <v>0.09909551612736096</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09785181622760925</v>
+        <v>0.01902717641695233</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09909122092603591</v>
+        <v>0.1002926916432361</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02398347913663586</v>
+        <v>0.01889363987109911</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09808516304993965</v>
+        <v>0.1010701543691527</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03145519966547057</v>
+        <v>0.04412583796727867</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09162726436719967</v>
+        <v>0.1003026798465002</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06365865784898592</v>
+        <v>0.06583357010322211</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1029473650328566</v>
+        <v>0.09986369842292191</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09634431861264847</v>
+        <v>0.01889363987109911</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09985936992546254</v>
+        <v>0.1010701543691527</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02380867572684464</v>
+        <v>0.01835480325116658</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09883966430416996</v>
+        <v>0.1018476170950692</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03139907422224476</v>
+        <v>0.0437760984462166</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09233208947771659</v>
+        <v>0.1010742389222425</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06281037219845256</v>
+        <v>0.06397821215806404</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1037392678408017</v>
+        <v>0.1006318807184828</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09508589615653584</v>
+        <v>0.01835480325116658</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1006275189248892</v>
+        <v>0.1018476170950692</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02563377727273199</v>
+        <v>0.01811173303913093</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09959416555840025</v>
+        <v>0.1026250798209858</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03141658749534082</v>
+        <v>0.04362449203881516</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09303691458823352</v>
+        <v>0.1018457979979848</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06137140148126385</v>
+        <v>0.06401781562033948</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1045311706487467</v>
+        <v>0.1014000630140438</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09448345688712584</v>
+        <v>0.01811173303913093</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1013956679243158</v>
+        <v>0.1026250798209858</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0234594333213471</v>
+        <v>0.01806549571696835</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1003486668126306</v>
+        <v>0.1034025425469024</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03150970095016815</v>
+        <v>0.04287138834259768</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09374173969875044</v>
+        <v>0.1026173570737271</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06104665095096157</v>
+        <v>0.06240408904797318</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1053230734566918</v>
+        <v>0.1021682453096047</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09404390883227293</v>
+        <v>0.01806549571696835</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1021638169237424</v>
+        <v>0.1034025425469024</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02528629341973926</v>
+        <v>0.01791715776665499</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1011031680668609</v>
+        <v>0.1041800052728189</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03108037605213612</v>
+        <v>0.04211715695508769</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09444656480926734</v>
+        <v>0.1033889161494694</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06014102586108749</v>
+        <v>0.06095276527604943</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1061149762646368</v>
+        <v>0.1029364276051657</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09237416001983151</v>
+        <v>0.01791715776665499</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1029319659231691</v>
+        <v>0.1041800052728189</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02411500711495763</v>
+        <v>0.01736778567016709</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1018576693210912</v>
+        <v>0.1049574679987355</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03103057426665405</v>
+        <v>0.04136216747380872</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09515138991978427</v>
+        <v>0.1041604752252117</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05905943146518342</v>
+        <v>0.05967957713965283</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1069068790725819</v>
+        <v>0.1037046099007266</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09138111847765595</v>
+        <v>0.01736778567016709</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1037001149225957</v>
+        <v>0.1049574679987355</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02494622395405147</v>
+        <v>0.01711844590948078</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1026121705753215</v>
+        <v>0.105734930724652</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03106225705913138</v>
+        <v>0.0409067894962841</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0958562150303012</v>
+        <v>0.104932034300954</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05830677301679116</v>
+        <v>0.05820025747386803</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1076987818805269</v>
+        <v>0.1044727921962875</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09117169223360072</v>
+        <v>0.01711844590948078</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1044682639220224</v>
+        <v>0.105734930724652</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02478059348407001</v>
+        <v>0.01687020496657227</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1033666718295518</v>
+        <v>0.1065123934505686</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03057738589497741</v>
+        <v>0.04075139262003741</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09656104014081812</v>
+        <v>0.1057035933766963</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05768704938542732</v>
+        <v>0.05693053911377932</v>
       </c>
       <c r="M202" t="n">
-        <v>0.108490684688472</v>
+        <v>0.1052409744918485</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09025278931552017</v>
+        <v>0.01687020496657227</v>
       </c>
       <c r="O202" t="n">
-        <v>0.105236412921449</v>
+        <v>0.1065123934505686</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02261876525206244</v>
+        <v>0.0167241293234177</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1041211730837821</v>
+        <v>0.1072898561764851</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03047792223960154</v>
+        <v>0.04029634644259208</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09726586525133504</v>
+        <v>0.1064751524524386</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05707636518922379</v>
+        <v>0.05478615489447142</v>
       </c>
       <c r="M203" t="n">
-        <v>0.109282587496417</v>
+        <v>0.1060091567874094</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08983131775126885</v>
+        <v>0.0167241293234177</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1060045619208756</v>
+        <v>0.1072898561764851</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02446138880507802</v>
+        <v>0.0163812854619933</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1048756743380124</v>
+        <v>0.1080673189024017</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03046582755841315</v>
+        <v>0.03934202056147162</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09797069036185196</v>
+        <v>0.1072467115281809</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05626223668437627</v>
+        <v>0.05378283765102887</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1100744903043621</v>
+        <v>0.1067773390829703</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09001418556870106</v>
+        <v>0.0163812854619933</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1067727109203023</v>
+        <v>0.1080673189024017</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02430911369016597</v>
+        <v>0.01614273986427525</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1056301755922427</v>
+        <v>0.1088447816283183</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0302430633168216</v>
+        <v>0.03858878457419943</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09867551547236889</v>
+        <v>0.1080182706039232</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0554446425064585</v>
+        <v>0.05153632021853599</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1108663931123071</v>
+        <v>0.1075455213785313</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08940830079567114</v>
+        <v>0.01614273986427525</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1075408599197289</v>
+        <v>0.1088447816283183</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02216258945437551</v>
+        <v>0.01600955901223966</v>
       </c>
       <c r="G206" t="n">
-        <v>0.106384676846473</v>
+        <v>0.1096222443542348</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02981159098023624</v>
+        <v>0.03833700807829904</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09938034058288581</v>
+        <v>0.1087898296796656</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0552235612910443</v>
+        <v>0.04966233543207743</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1116582959202522</v>
+        <v>0.1083137036740922</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08882057146003369</v>
+        <v>0.01600955901223966</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1083090089191555</v>
+        <v>0.1096222443542348</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02402246564475585</v>
+        <v>0.01598280938786283</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1071391781007033</v>
+        <v>0.1103997070801514</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02947337201406648</v>
+        <v>0.0376870606712939</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1000851656934027</v>
+        <v>0.1095613887554078</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05419897167370746</v>
+        <v>0.04787661612673777</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1124501987281972</v>
+        <v>0.1090818859696532</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08943498473084527</v>
+        <v>0.01598280938786283</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1090771579185822</v>
+        <v>0.1103997070801514</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02288939180835622</v>
+        <v>0.01556355747312083</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1078936793549336</v>
+        <v>0.111177169806068</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02923036788372166</v>
+        <v>0.03703931195070742</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1007899908039196</v>
+        <v>0.1103329478311502</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05337085229002175</v>
+        <v>0.04669489513760144</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1132421015361423</v>
+        <v>0.1098500682652141</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08906089807048978</v>
+        <v>0.01556355747312083</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1098453069180088</v>
+        <v>0.111177169806068</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02276401749222587</v>
+        <v>0.01555286974998993</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1086481806091639</v>
+        <v>0.1119546325319845</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02898454005461115</v>
+        <v>0.03689413151406323</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1014948159144366</v>
+        <v>0.1111045069068925</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05293918177556106</v>
+        <v>0.044632905299753</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1140340043440873</v>
+        <v>0.110618250560775</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08928821244498025</v>
+        <v>0.01555286974998993</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1106134559174354</v>
+        <v>0.1119546325319845</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02264634609372877</v>
+        <v>0.01505181270044625</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1094026818633942</v>
+        <v>0.1127320952579011</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02873784999214432</v>
+        <v>0.03625188895888462</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1021996410249535</v>
+        <v>0.1118760659826348</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05220393876589907</v>
+        <v>0.04250637944827701</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1148259071520324</v>
+        <v>0.111386432856336</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08841692461940098</v>
+        <v>0.01505181270044625</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1113816049168621</v>
+        <v>0.1127320952579011</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02253056808612904</v>
+        <v>0.014861452806466</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1101571831176245</v>
+        <v>0.1135095579838176</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02879225916173055</v>
+        <v>0.03571295388269519</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1029044661354704</v>
+        <v>0.1126476250583771</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05146510189660972</v>
+        <v>0.04103105041825805</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1156178099599774</v>
+        <v>0.1121546151518969</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08844703135883664</v>
+        <v>0.014861452806466</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1121497539162887</v>
+        <v>0.1135095579838176</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02341515722522743</v>
+        <v>0.01468285655002534</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1109116843718548</v>
+        <v>0.1142870207097342</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02854972902877921</v>
+        <v>0.03527769588301832</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1036092912459873</v>
+        <v>0.1134191841341194</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05082264980326659</v>
+        <v>0.03932265104478044</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1164097127679225</v>
+        <v>0.1129227974474579</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08917852942837157</v>
+        <v>0.01468285655002534</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1129179029157154</v>
+        <v>0.1142870207097342</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02130012059237617</v>
+        <v>0.01461709041310047</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1116661856260851</v>
+        <v>0.1150644834356507</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02801222105869966</v>
+        <v>0.03484648455737752</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1043141163565042</v>
+        <v>0.1141907432098617</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04997656112144369</v>
+        <v>0.03779691416292885</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1172016155758675</v>
+        <v>0.1136909797430188</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08851141559309017</v>
+        <v>0.01461709041310047</v>
       </c>
       <c r="O213" t="n">
-        <v>0.113686051915142</v>
+        <v>0.1150644834356507</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02318546526892745</v>
+        <v>0.01446522087766756</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1124206868803155</v>
+        <v>0.1158419461615673</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02808169671690126</v>
+        <v>0.03391968950329621</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1050189414670212</v>
+        <v>0.114962302285604</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04902681448671473</v>
+        <v>0.03626957260778774</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1179935183838126</v>
+        <v>0.1144591620385797</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08864568661807681</v>
+        <v>0.01446522087766756</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1144542009145686</v>
+        <v>0.1158419461615673</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02107119833623348</v>
+        <v>0.01442831442570283</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1131751881345457</v>
+        <v>0.1166194088874839</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02776011746879342</v>
+        <v>0.03369768031829801</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1057237665775381</v>
+        <v>0.1157338613613463</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04827338853465349</v>
+        <v>0.03535635921444169</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1187854211917576</v>
+        <v>0.1152273443341407</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08828133926841614</v>
+        <v>0.01442831442570283</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1152223499139952</v>
+        <v>0.1166194088874839</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02095732687564653</v>
+        <v>0.0142074375391824</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1139296893887761</v>
+        <v>0.1173968716134004</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02734944477978546</v>
+        <v>0.03288082659990621</v>
       </c>
       <c r="K216" t="n">
-        <v>0.106428591688055</v>
+        <v>0.1165054204370886</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04781626190083377</v>
+        <v>0.03387300681797517</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1195773239997027</v>
+        <v>0.1159955266297016</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08891837030919247</v>
+        <v>0.0142074375391824</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1159904989134219</v>
+        <v>0.1173968716134004</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02084385796851876</v>
+        <v>0.0142036567000825</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1146841906430064</v>
+        <v>0.118174334339317</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02715164011528678</v>
+        <v>0.03276949794564435</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1071334167985719</v>
+        <v>0.1172769795128309</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04665541322082939</v>
+        <v>0.03333524825347284</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1203692268076477</v>
+        <v>0.1167637089252626</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08835677650549029</v>
+        <v>0.0142036567000825</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1167586479128485</v>
+        <v>0.118174334339317</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02273079869620241</v>
+        <v>0.01421141087082288</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1154386918972367</v>
+        <v>0.1189517970652335</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02726866494070673</v>
+        <v>0.03166406395303598</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1078382419090888</v>
+        <v>0.1180485385885733</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04619082113021419</v>
+        <v>0.03195881635601899</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1211611296155928</v>
+        <v>0.1175318912208235</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08849655462239403</v>
+        <v>0.01421141087082288</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1175267969122751</v>
+        <v>0.1189517970652335</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02061815614004968</v>
+        <v>0.01392009298047553</v>
       </c>
       <c r="G219" t="n">
-        <v>0.116193193151467</v>
+        <v>0.1197292597911501</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02700248072145468</v>
+        <v>0.03136489421960442</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1085430670196058</v>
+        <v>0.1188200976643156</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04522246426456186</v>
+        <v>0.03145944396069833</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1219530324235378</v>
+        <v>0.1183000735163844</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08823770142498816</v>
+        <v>0.01392009298047553</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1182949459117018</v>
+        <v>0.1197292597911501</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02250593738141279</v>
+        <v>0.01372958662076994</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1169476944056973</v>
+        <v>0.1205067225170667</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02695504892294003</v>
+        <v>0.03067235834287324</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1092478921301227</v>
+        <v>0.1195916567400579</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04465032125944629</v>
+        <v>0.03105286390259537</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1227449352314829</v>
+        <v>0.1190682558119454</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08818021367835704</v>
+        <v>0.01372958662076994</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1190630949111284</v>
+        <v>0.1205067225170667</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02239414950164399</v>
+        <v>0.01373994552227523</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1177021956599276</v>
+        <v>0.1212841852429832</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0265255342348537</v>
+        <v>0.03038682592036585</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1099527172406396</v>
+        <v>0.1203632158158002</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04357437075044127</v>
+        <v>0.03035480901679455</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1235368380394279</v>
+        <v>0.1198364381075063</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0877240881475852</v>
+        <v>0.01373994552227523</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1198312439105551</v>
+        <v>0.1212841852429832</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02128279958209543</v>
+        <v>0.01385122341556054</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1184566969141579</v>
+        <v>0.1220616479688998</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02649909378195889</v>
+        <v>0.02990866654960578</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1106575423511565</v>
+        <v>0.1211347748915425</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0427945913731205</v>
+        <v>0.03103738465092154</v>
       </c>
       <c r="M222" t="n">
-        <v>0.124328740847373</v>
+        <v>0.1206046204030672</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08776932159775697</v>
+        <v>0.01385122341556054</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1205993929099817</v>
+        <v>0.1220616479688998</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02117189470411938</v>
+        <v>0.01346347403119499</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1192111981683882</v>
+        <v>0.1228391106948163</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02627330267253221</v>
+        <v>0.02933811542849651</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1113623674616735</v>
+        <v>0.1219063339672848</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0418109617630579</v>
+        <v>0.0304393780324414</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1251206436553181</v>
+        <v>0.1213728026986282</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08781591079395706</v>
+        <v>0.01346347403119499</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1213675419094083</v>
+        <v>0.1228391106948163</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02006144194906803</v>
+        <v>0.0136767510997477</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1199656994226185</v>
+        <v>0.1236165734207329</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02624822820315226</v>
+        <v>0.02917146948288743</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1120671925721904</v>
+        <v>0.1226778930430271</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04142346055582721</v>
+        <v>0.0307440350663829</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1259125464632631</v>
+        <v>0.1221409849941891</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08766385250126957</v>
+        <v>0.0136767510997477</v>
       </c>
       <c r="O224" t="n">
-        <v>0.122135690908835</v>
+        <v>0.1236165734207329</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02195144839829359</v>
+        <v>0.01339110835178782</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1207202006768488</v>
+        <v>0.1243940361466495</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02622393767039768</v>
+        <v>0.02890694467129962</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1127720176827073</v>
+        <v>0.1234494521187694</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04033206638700221</v>
+        <v>0.02995134083609746</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1267044492712082</v>
+        <v>0.12290916728975</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08771314348477921</v>
+        <v>0.01339110835178782</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1229038399082616</v>
+        <v>0.1243940361466495</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0198419211331483</v>
+        <v>0.01330659951788447</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1214747019310791</v>
+        <v>0.125171498872566</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02590049837084712</v>
+        <v>0.0278445814238068</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1134768427932242</v>
+        <v>0.1242210111945117</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03983675789215674</v>
+        <v>0.0305612804249365</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1274963520791532</v>
+        <v>0.123677349585311</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08746378050957027</v>
+        <v>0.01330659951788447</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1236719889076882</v>
+        <v>0.125171498872566</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02073286723498434</v>
+        <v>0.01342327832860676</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1222292031853094</v>
+        <v>0.1259489615984826</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02607797760107923</v>
+        <v>0.02798442017048272</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1141816679037411</v>
+        <v>0.124992570270254</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03913751370686458</v>
+        <v>0.02987383891625145</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1282882548870982</v>
+        <v>0.1244455318808719</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08731576034072724</v>
+        <v>0.01342327832860676</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1244401379071148</v>
+        <v>0.1259489615984826</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02162429378515396</v>
+        <v>0.01314119851452385</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1229837044395397</v>
+        <v>0.1267264243243991</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02595644265767263</v>
+        <v>0.0274265013414012</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1148864930142581</v>
+        <v>0.1257641293459963</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03813431246669952</v>
+        <v>0.0296890013933937</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1290801576950433</v>
+        <v>0.1252137141764329</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08806907974333467</v>
+        <v>0.01314119851452385</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1252082869065415</v>
+        <v>0.1267264243243991</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01951620786500934</v>
+        <v>0.01326041380620485</v>
       </c>
       <c r="G229" t="n">
-        <v>0.12373820569377</v>
+        <v>0.1275038870503157</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02583596083720596</v>
+        <v>0.02697086536663595</v>
       </c>
       <c r="K229" t="n">
-        <v>0.115591318124775</v>
+        <v>0.1265356884217387</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03742713280723534</v>
+        <v>0.03040675293971473</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1298720605029884</v>
+        <v>0.1259818964719938</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08722373548247681</v>
+        <v>0.01326041380620485</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1259764359059681</v>
+        <v>0.1275038870503157</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02140861655590272</v>
+        <v>0.01318097793421891</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1244927069480003</v>
+        <v>0.1282813497762322</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02541659943625789</v>
+        <v>0.02621755267626077</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1162961432352919</v>
+        <v>0.127307247497481</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03671595336404587</v>
+        <v>0.02982707863856593</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1306639633109334</v>
+        <v>0.1267500787675547</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08757972432323818</v>
+        <v>0.01318097793421891</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1267445849053948</v>
+        <v>0.1282813497762322</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02030152693918631</v>
+        <v>0.01300294462913511</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1252472082022306</v>
+        <v>0.1290588125021488</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02529842575140703</v>
+        <v>0.02596660370034945</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1170009683458088</v>
+        <v>0.1280788065732233</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03540075277270488</v>
+        <v>0.02984996357329878</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1314558661188785</v>
+        <v>0.1275182610631157</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08763704303070324</v>
+        <v>0.01300294462913511</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1275127339048214</v>
+        <v>0.1290588125021488</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02119494609621234</v>
+        <v>0.01272636762152263</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1260017094564609</v>
+        <v>0.1298362752280654</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02548150707923202</v>
+        <v>0.02561805886897575</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1177057934563257</v>
+        <v>0.1288503656489656</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0350815096687862</v>
+        <v>0.02947539282726463</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1322477689268235</v>
+        <v>0.1282864433586766</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08789568836995648</v>
+        <v>0.01272636762152263</v>
       </c>
       <c r="O232" t="n">
-        <v>0.128280882904248</v>
+        <v>0.1298362752280654</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02008888110833298</v>
+        <v>0.01295130064195055</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1267562107106912</v>
+        <v>0.1306137379539819</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02506591071631153</v>
+        <v>0.02507195861221334</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1184106185668427</v>
+        <v>0.1296219247247079</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03415820268786363</v>
+        <v>0.03010335148381493</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1330396717347685</v>
+        <v>0.1290546256542375</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08805565710608226</v>
+        <v>0.01295130064195055</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1290490319036747</v>
+        <v>0.1306137379539819</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02098333905690047</v>
+        <v>0.01287779742098803</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1275107119649216</v>
+        <v>0.1313912006798985</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02505170395922415</v>
+        <v>0.02462834336013608</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1191154436773596</v>
+        <v>0.1303934838004502</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03343081046551094</v>
+        <v>0.02903382462630122</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1338315745427136</v>
+        <v>0.1298228079497985</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08711694600416509</v>
+        <v>0.01287779742098803</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1298171809031013</v>
+        <v>0.1313912006798985</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02087832702326706</v>
+        <v>0.0125059116892042</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1282652132191519</v>
+        <v>0.132168663405815</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02483895410454856</v>
+        <v>0.02378725354281774</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1198202687878765</v>
+        <v>0.1311650428761925</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03249931163730185</v>
+        <v>0.02936679733807468</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1346234773506587</v>
+        <v>0.1305909902453594</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08737955182928941</v>
+        <v>0.0125059116892042</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1305853299025279</v>
+        <v>0.132168663405815</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02077385208878491</v>
+        <v>0.01273569717716817</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1290197144733821</v>
+        <v>0.1329461261317316</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0249277284488634</v>
+        <v>0.02374872959033206</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1205250938983934</v>
+        <v>0.1319366019519348</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03156368483881036</v>
+        <v>0.02890225470248697</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1354153801586037</v>
+        <v>0.1313591725409204</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0871434713465396</v>
+        <v>0.01273569717716817</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1313534789019546</v>
+        <v>0.1329461261317316</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01866992133480627</v>
+        <v>0.01256720761544906</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1297742157276125</v>
+        <v>0.1337235888576482</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02471809428874729</v>
+        <v>0.02311281193275275</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1212299190089103</v>
+        <v>0.1327081610276771</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03072390870561009</v>
+        <v>0.02964018180288946</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1362072829665487</v>
+        <v>0.1321273548364813</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08720870132100023</v>
+        <v>0.01256720761544906</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1321216279013812</v>
+        <v>0.1337235888576482</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01956654184268335</v>
+        <v>0.01240049673461604</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1305287169818428</v>
+        <v>0.1345010515835647</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02471011892077887</v>
+        <v>0.02277954100015367</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1219347441194273</v>
+        <v>0.1334797201034194</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03007996187327491</v>
+        <v>0.02898056372263352</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1369991857744938</v>
+        <v>0.1328955371320422</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08787523851775553</v>
+        <v>0.01240049673461604</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1328897769008078</v>
+        <v>0.1345010515835647</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01846372069376834</v>
+        <v>0.0125356182652382</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1312832182360731</v>
+        <v>0.1352785143094813</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02460386964153681</v>
+        <v>0.02244895722260853</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1226395692299442</v>
+        <v>0.1342512791791617</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02873182297737858</v>
+        <v>0.0296233855450706</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1377910885824389</v>
+        <v>0.1336637194276032</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08744307970189014</v>
+        <v>0.0125356182652382</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1336579259002345</v>
+        <v>0.1352785143094813</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01836146496941347</v>
+        <v>0.01217262593788469</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1320377194903034</v>
+        <v>0.1360559770353978</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02449941374759972</v>
+        <v>0.02222110103019118</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1233443943404611</v>
+        <v>0.135022838254904</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02837947065349494</v>
+        <v>0.02966863235355216</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1385829913903839</v>
+        <v>0.1344319017231641</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08731222163848851</v>
+        <v>0.01217262593788469</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1344260748996611</v>
+        <v>0.1360559770353978</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01825978175097098</v>
+        <v>0.01241157348312463</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1327922207445337</v>
+        <v>0.1368334397613144</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02449681853554624</v>
+        <v>0.02159601285297524</v>
       </c>
       <c r="K241" t="n">
-        <v>0.124049219450978</v>
+        <v>0.1357943973306464</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02742288353719774</v>
+        <v>0.0287162892314296</v>
       </c>
       <c r="M241" t="n">
-        <v>0.139374894198329</v>
+        <v>0.135200084018725</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08758266109263491</v>
+        <v>0.01241157348312463</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1351942238990878</v>
+        <v>0.1368334397613144</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01915867811979306</v>
+        <v>0.01235251463152713</v>
       </c>
       <c r="G242" t="n">
-        <v>0.133546721998764</v>
+        <v>0.137610902487231</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02409615130195503</v>
+        <v>0.02107373312103458</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1247540445614949</v>
+        <v>0.1365659564063887</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02616204026406083</v>
+        <v>0.02896634126205444</v>
       </c>
       <c r="M242" t="n">
-        <v>0.140166797006274</v>
+        <v>0.135968266314286</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08725439482941388</v>
+        <v>0.01235251463152713</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1359623728985144</v>
+        <v>0.137610902487231</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0180581611572319</v>
+        <v>0.01229550311366135</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1343012232529943</v>
+        <v>0.1383883652131475</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02419747934340472</v>
+        <v>0.02095430226444292</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1254588696720119</v>
+        <v>0.137337515482131</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02579691946965798</v>
+        <v>0.02851877352877796</v>
       </c>
       <c r="M243" t="n">
-        <v>0.140958699814219</v>
+        <v>0.1367364486098469</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08752741961390992</v>
+        <v>0.01229550311366135</v>
       </c>
       <c r="O243" t="n">
-        <v>0.136730521897941</v>
+        <v>0.1383883652131475</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01995823794463977</v>
+        <v>0.0120405926600964</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1350557245072246</v>
+        <v>0.1391658279390641</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02400086995647392</v>
+        <v>0.02053776071327409</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1261636947825288</v>
+        <v>0.1381090745578733</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02462749978956294</v>
+        <v>0.02907357111495157</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1417506026221641</v>
+        <v>0.1375046309054078</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08740173221120734</v>
+        <v>0.0120405926600964</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1374986708973677</v>
+        <v>0.1391658279390641</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01985891556336886</v>
+        <v>0.0120878370014014</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1358102257614549</v>
+        <v>0.1399432906649806</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02380639043774135</v>
+        <v>0.01982414889760181</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1268685198930457</v>
+        <v>0.1388806336336156</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0237537598593496</v>
+        <v>0.02843071910392686</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1425425054301092</v>
+        <v>0.1382728132009688</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08677732938639082</v>
+        <v>0.0120878370014014</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1382668198967943</v>
+        <v>0.1399432906649806</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01876020109477137</v>
+        <v>0.01213728986814551</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1365647270156852</v>
+        <v>0.1407207533908972</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02391410808378555</v>
+        <v>0.01931350724749981</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1275733450035626</v>
+        <v>0.1396521927093579</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02277567831459174</v>
+        <v>0.02869020257905519</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1433344082380542</v>
+        <v>0.1390409954965297</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08735420790454457</v>
+        <v>0.01213728986814551</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1390349688962209</v>
+        <v>0.1407207533908972</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01866210162019954</v>
+        <v>0.01188900499089782</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1373192282699155</v>
+        <v>0.1414982161168138</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02382409019118523</v>
+        <v>0.01890587619304188</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1282781701140795</v>
+        <v>0.1404237517851002</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02219323379086305</v>
+        <v>0.0285520066236879</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1441263110459993</v>
+        <v>0.1398091777920907</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08713236453075307</v>
+        <v>0.01188900499089782</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1398031178956476</v>
+        <v>0.1414982161168138</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01756462422100556</v>
+        <v>0.01204303610022748</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1380737295241458</v>
+        <v>0.1422756788427303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02353640405651901</v>
+        <v>0.01860129616430184</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1289829952245964</v>
+        <v>0.1411953108608425</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02120640492373752</v>
+        <v>0.02901611632117651</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1449182138539443</v>
+        <v>0.1405773600876516</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08731179603010081</v>
+        <v>0.01204303610022748</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1405712668950742</v>
+        <v>0.1422756788427303</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01846777597854166</v>
+        <v>0.01189943692670361</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1388282307783761</v>
+        <v>0.1430531415686469</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02375111697636553</v>
+        <v>0.01839980759135343</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1296878203351134</v>
+        <v>0.1419668699365848</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02011517034878874</v>
+        <v>0.02828251675487248</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1457101166618893</v>
+        <v>0.1413455423832126</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08749249916767232</v>
+        <v>0.01189943692670361</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1413394158945008</v>
+        <v>0.1430531415686469</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01937156397416005</v>
+        <v>0.01165826120089535</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1395827320326064</v>
+        <v>0.1438306042945634</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02366829624730342</v>
+        <v>0.01750145090427038</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1303926454456303</v>
+        <v>0.1427384290123271</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01961950870159065</v>
+        <v>0.02845119300812715</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1465020194698344</v>
+        <v>0.1421137246787735</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08737447070855192</v>
+        <v>0.01165826120089535</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1421075648939275</v>
+        <v>0.1438306042945634</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01827599528921296</v>
+        <v>0.01191956265337181</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1403372332868368</v>
+        <v>0.14460806702048</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02328800916591134</v>
+        <v>0.01740626653312646</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1310974705561472</v>
+        <v>0.1435099880880694</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01871939861771696</v>
+        <v>0.028522130164292</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1472939222777795</v>
+        <v>0.1428819069743344</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08685770741782417</v>
+        <v>0.01191956265337181</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1428757138933541</v>
+        <v>0.14460806702048</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01918107700505259</v>
+        <v>0.01188339501470213</v>
       </c>
       <c r="G252" t="n">
-        <v>0.141091734541067</v>
+        <v>0.1453855297463965</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0235103230287679</v>
+        <v>0.01731429490799546</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1318022956666642</v>
+        <v>0.1442815471638118</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01791481873274151</v>
+        <v>0.02869531330671837</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1480858250857245</v>
+        <v>0.1436500892698954</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0873422060605733</v>
+        <v>0.01188339501470213</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1436438628927807</v>
+        <v>0.1453855297463965</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01908681620303115</v>
+        <v>0.01154981201545544</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1418462357952973</v>
+        <v>0.1461629924723131</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02333530513245177</v>
+        <v>0.01672557645895115</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1325071207771811</v>
+        <v>0.1450531062395541</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01660574768223813</v>
+        <v>0.02877072751875781</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1488777278936696</v>
+        <v>0.1444182715654563</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08662796340188389</v>
+        <v>0.01154981201545544</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1444120118922074</v>
+        <v>0.1461629924723131</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01699321996450086</v>
+        <v>0.01181886738620085</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1426007370495277</v>
+        <v>0.1469404551982297</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02306302277354159</v>
+        <v>0.01644015161606729</v>
       </c>
       <c r="K254" t="n">
-        <v>0.133211945887698</v>
+        <v>0.1458246653152964</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01609216410178052</v>
+        <v>0.02874835788376173</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1496696307016146</v>
+        <v>0.1451864538610173</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08701497620684051</v>
+        <v>0.01181886738620085</v>
       </c>
       <c r="O254" t="n">
-        <v>0.145180160891634</v>
+        <v>0.1469404551982297</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01690029537081396</v>
+        <v>0.01149061485750751</v>
       </c>
       <c r="G255" t="n">
-        <v>0.143355238303758</v>
+        <v>0.1477179179241462</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02309354324861597</v>
+        <v>0.01565806080941762</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1339167709982149</v>
+        <v>0.1465962243910387</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01517404662694261</v>
+        <v>0.02852818948508146</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1504615335095597</v>
+        <v>0.1459546361565782</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08720324124052736</v>
+        <v>0.01149061485750751</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1459483098910606</v>
+        <v>0.1477179179241462</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01880804950332262</v>
+        <v>0.01176510815994453</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1441097395579883</v>
+        <v>0.1484953806500628</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02312693385425357</v>
+        <v>0.01567934446907593</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1346215961087318</v>
+        <v>0.147367783466781</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0141513738932981</v>
+        <v>0.0282102074060685</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1512534363175047</v>
+        <v>0.1467228184521391</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08749275526802913</v>
+        <v>0.01176510815994453</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1467164588904873</v>
+        <v>0.1484953806500628</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0167164894433791</v>
+        <v>0.01174240102408107</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1448642408122185</v>
+        <v>0.1492728433759793</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02296326188703304</v>
+        <v>0.01480404302511601</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1353264212192488</v>
+        <v>0.1481393425425233</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01332412453642073</v>
+        <v>0.02909439673007425</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1520453391254498</v>
+        <v>0.1474910007477001</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08668351505442995</v>
+        <v>0.01174240102408107</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1474846078899139</v>
+        <v>0.1492728433759793</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01662562227233557</v>
+        <v>0.01172254718048622</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1456187420664489</v>
+        <v>0.1500503061018959</v>
       </c>
       <c r="J258" t="n">
-        <v>0.022902594643533</v>
+        <v>0.01443219690761158</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1360312463297657</v>
+        <v>0.1489109016182656</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01199227719188448</v>
+        <v>0.02898074254045024</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1528372419333948</v>
+        <v>0.148259183043261</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08747551736481463</v>
+        <v>0.01172254718048622</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1482527568893406</v>
+        <v>0.1500503061018959</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01653545507154428</v>
+        <v>0.01170560035972912</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1463732433206792</v>
+        <v>0.1508277688278125</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02294499942033212</v>
+        <v>0.01466384654663644</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1367360714402826</v>
+        <v>0.1496824606940079</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01135581049526302</v>
+        <v>0.02896922992054779</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1536291447413399</v>
+        <v>0.1490273653388219</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08656875896426736</v>
+        <v>0.01170560035972912</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1490209058887672</v>
+        <v>0.1508277688278125</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01744599492235743</v>
+        <v>0.01169161429237891</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1471277445749095</v>
+        <v>0.151605231553729</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02289054351400902</v>
+        <v>0.01389903237226428</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1374408965507995</v>
+        <v>0.1504540197697502</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01051470308213012</v>
+        <v>0.02905984395371825</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1544210475492849</v>
+        <v>0.1497955476343829</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08746323661787264</v>
+        <v>0.01169161429237891</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1497890548881938</v>
+        <v>0.151605231553729</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01635724890612723</v>
+        <v>0.01138064270900471</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1478822458291398</v>
+        <v>0.1523826942796456</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02263929422114232</v>
+        <v>0.013437794814569</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1381457216613164</v>
+        <v>0.1512255788454925</v>
       </c>
       <c r="L261" t="n">
-        <v>0.009268933588059719</v>
+        <v>0.02835256972331324</v>
       </c>
       <c r="M261" t="n">
-        <v>0.15521295035723</v>
+        <v>0.1505637299299438</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08665894709071487</v>
+        <v>0.01138064270900471</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1505572038876204</v>
+        <v>0.1523826942796456</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01626922410420592</v>
+        <v>0.01157273934017564</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1486367470833701</v>
+        <v>0.1531601570055622</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02279131883831068</v>
+        <v>0.01338017430362426</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1388505467718334</v>
+        <v>0.1519971379212348</v>
       </c>
       <c r="L262" t="n">
-        <v>0.008218480648625431</v>
+        <v>0.02884739231268407</v>
       </c>
       <c r="M262" t="n">
-        <v>0.156004853165175</v>
+        <v>0.1513319122255047</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08735588714787873</v>
+        <v>0.01157273934017564</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1513253528870471</v>
+        <v>0.1531601570055622</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01818192759794569</v>
+        <v>0.01146795791646085</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1493912483376004</v>
+        <v>0.1539376197314787</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02284668466209272</v>
+        <v>0.01292621126950388</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1395553718823503</v>
+        <v>0.1527686969969771</v>
       </c>
       <c r="L263" t="n">
-        <v>0.007563322899401231</v>
+        <v>0.02864429680518216</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1567967559731201</v>
+        <v>0.1521000945210657</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08655405355444834</v>
+        <v>0.01146795791646085</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1520935018864737</v>
+        <v>0.1539376197314787</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01709536646869876</v>
+        <v>0.01136635216842943</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1501457495918307</v>
+        <v>0.1547150824573953</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02250545898906714</v>
+        <v>0.01277594614228161</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1402601969928672</v>
+        <v>0.1535402560727195</v>
       </c>
       <c r="L264" t="n">
-        <v>0.00620343897596079</v>
+        <v>0.02874326828415902</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1575886587810651</v>
+        <v>0.1528682768166266</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08665344307550837</v>
+        <v>0.01136635216842943</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1528616508859003</v>
+        <v>0.1547150824573953</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8435655349597692</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06748524279678154</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08530696604879308</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.03530696604879308</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.01405993348579394</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001770908265004652</v>
+        <v>0.0008732880278876712</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007774627259165591</v>
+        <v>0.0005457569038969085</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004942042381134187</v>
+        <v>0.001870908265004655</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007715590757423089</v>
+        <v>0.0007774627259165591</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01102986271891149</v>
+        <v>0.006173289276060034</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007681822955609378</v>
+        <v>0.0007718440305601128</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001770908265004652</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007774627259165591</v>
+        <v>0.0007742789496340945</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003731490246596997</v>
+        <v>0.00179942374975095</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001554925451833118</v>
+        <v>0.001091513807793817</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01199999999999998</v>
+        <v>0.003931490246596996</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001848751156336722</v>
+        <v>0.001554925451833118</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02148342231897687</v>
+        <v>0.01254089781103546</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001536364591121876</v>
+        <v>0.001543688061120226</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003731490246596997</v>
+        <v>0.01635969103279561</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001554925451833118</v>
+        <v>0.001537416754199707</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005518793684953692</v>
+        <v>0.002776282697374698</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002332388177749677</v>
+        <v>0.001637270711690725</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01435489366608422</v>
+        <v>0.005818793684953694</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002314677227226927</v>
+        <v>0.002332388177749677</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02950857872887558</v>
+        <v>0.01825825640961934</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002304546886682813</v>
+        <v>0.002315532091680338</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005518793684953692</v>
+        <v>0.02347485897598717</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002332388177749677</v>
+        <v>0.00230612513129956</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008</v>
+        <v>0.003801740402543746</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003475652173913043</v>
+        <v>0.002183027615587634</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01756268884550807</v>
+        <v>0.008</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003086236302969236</v>
+        <v>0.003475652173913043</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03599999999999998</v>
+        <v>0.02238079587650466</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003007775919732439</v>
+        <v>0.003087376122240451</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.008</v>
+        <v>0.03005939758815745</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003475652173913043</v>
+        <v>0.003074833508399413</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003475652173913043</v>
+        <v>0.01099477644532891</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008358841530073088</v>
+        <v>0.004873672397042943</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003887313629582795</v>
+        <v>0.002728784519484542</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02128348767621885</v>
+        <v>0.008558841530073087</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003857795378711545</v>
+        <v>0.003887313629582795</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04133264861984853</v>
+        <v>0.02576394701638451</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003840911477804688</v>
+        <v>0.003859220152800563</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008358841530073088</v>
+        <v>0.03678145298276947</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003887313629582795</v>
+        <v>0.003843541885499266</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009643731595868565</v>
+        <v>0.005989954212657134</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004664776355499355</v>
+        <v>0.003274541423381451</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02483378451371557</v>
+        <v>0.009543731595868563</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004629354454453853</v>
+        <v>0.004664776355499355</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0452691169124963</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004609093773365627</v>
+        <v>0.004360137135733203</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009643731595868565</v>
+        <v>0.04250917127328585</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004664776355499355</v>
+        <v>0.00461225026259912</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01064713581200836</v>
+        <v>0.007148461381171159</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005442239081415914</v>
+        <v>0.003820298327278359</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02803007371349739</v>
+        <v>0.01074713581200836</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005400913530196162</v>
+        <v>0.005442239081415914</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04848168067627601</v>
+        <v>0.03032615071071357</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005377276068926564</v>
+        <v>0.005402908213920789</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01064713581200836</v>
+        <v>0.04741069857316954</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005442239081415914</v>
+        <v>0.005380958639698973</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01196452608172872</v>
+        <v>0.008347069434369858</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006219701807332473</v>
+        <v>0.004366055231175268</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03038884963106336</v>
+        <v>0.01166452608172872</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006172472605938471</v>
+        <v>0.006219701807332473</v>
       </c>
       <c r="L73" s="172" t="n">
+        <v>0.03128714017292544</v>
+      </c>
+      <c r="M73" s="170" t="n">
+        <v>0.006174752244480902</v>
+      </c>
+      <c r="N73" s="171" t="n">
         <v>0.05221533613880286</v>
       </c>
-      <c r="M73" s="170" t="n">
-        <v>0.006232223439643903</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.01196452608172872</v>
-      </c>
       <c r="O73" s="172" t="n">
-        <v>0.006219701807332473</v>
+        <v>0.006417338987356099</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01289137430826585</v>
+        <v>0.009583653904038078</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006997164533249031</v>
+        <v>0.004911812135072176</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03272660662191249</v>
+        <v>0.01279137430826585</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00694403168168078</v>
+        <v>0.006997164533249031</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05307925611981601</v>
+        <v>0.03242758878200022</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00691364066004844</v>
+        <v>0.006946596275041014</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01289137430826585</v>
+        <v>0.05314190962881227</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006997164533249031</v>
+        <v>0.006918375393898679</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.013723152394856</v>
+        <v>0.01085609032196065</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007774627259165591</v>
+        <v>0.005457569038969085</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
+        <v>0.013423152394856</v>
+      </c>
+      <c r="K75" s="171" t="n">
+        <v>0.007774627259165591</v>
+      </c>
+      <c r="L75" s="172" t="n">
         <v>0.03367090081550678</v>
       </c>
-      <c r="K75" s="171" t="n">
-        <v>0.007410609144948493</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.05503745047064257</v>
-      </c>
       <c r="M75" s="170" t="n">
-        <v>0.007681822955609377</v>
+        <v>0.007490293114249014</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.013723152394856</v>
+        <v>0.05499106598418024</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007774627259165591</v>
+        <v>0.007687083770998532</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01435533224473534</v>
+        <v>0.01216225421992244</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00855208998508215</v>
+        <v>0.006003325942865993</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03515647188316742</v>
+        <v>0.01425533224473534</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008487149833165397</v>
+        <v>0.00855208998508215</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05776312173799497</v>
+        <v>0.03442943151980077</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008450005251170315</v>
+        <v>0.008490284336161238</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01435533224473534</v>
+        <v>0.05759242003919185</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00855208998508215</v>
+        <v>0.008455792148098386</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>0.01350002112970827</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.006549082846762901</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.01512646549221072</v>
       </c>
-      <c r="G77" t="n">
+      <c r="K77" t="n">
         <v>0.009388273691361219</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.0362781708235437</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009258708908907707</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05925587318964548</v>
+        <v>0.03588028122266665</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009218187546731253</v>
+        <v>0.009262128366721353</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.05944606107843003</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.009224500525198239</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01534803880928653</v>
+        <v>0.01486726658310299</v>
       </c>
       <c r="G78" t="n">
+        <v>0.00709483975065981</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01554803880928653</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01010701543691527</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0381748434178461</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01003026798465001</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06101530809336614</v>
+        <v>0.03683188822243322</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009986369842292191</v>
+        <v>0.01003397239728147</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01534803880928653</v>
+        <v>0.0619520783864777</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01010701543691527</v>
+        <v>0.009993208902298092</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01620766158498012</v>
+        <v>0.01626186611189145</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007640596654556718</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01590766158498012</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01088447816283183</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0390462841508856</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01080182706039232</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06244102971692927</v>
+        <v>0.0380831441993198</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01075455213785313</v>
+        <v>0.01080581642784158</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01620766158498012</v>
+        <v>0.0633105612479179</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01088447816283183</v>
+        <v>0.01076191727939795</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01646216064193315</v>
+        <v>0.01768169524785847</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008186353558453627</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01676216064193314</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01166194088874839</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04059228750747301</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01157338613613463</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06453264132810704</v>
+        <v>0.03873294083354556</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01152273443341407</v>
+        <v>0.01157766045840169</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01646216064193315</v>
+        <v>0.06482159894733358</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01166194088874839</v>
+        <v>0.0115306256564978</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.01912462952278893</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.008732110462350536</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01731114440379143</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01243940361466495</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04131264797241924</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01234494521187694</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06598974619467152</v>
+        <v>0.04028016980532989</v>
       </c>
       <c r="M81" t="n">
-        <v>0.012290916728975</v>
+        <v>0.0123495044889618</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01731114440379143</v>
+        <v>0.06668528076930763</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01243940361466495</v>
+        <v>0.01229933403359765</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01765422129420087</v>
+        <v>0.02058854446846764</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009277867366247444</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01785422129420088</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.0132168663405815</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04260716003053505</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01311650428761925</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06841194758439512</v>
+        <v>0.04092372279489195</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01305909902453594</v>
+        <v>0.01312134851952192</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01765422129420087</v>
+        <v>0.06940169599842316</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0132168663405815</v>
+        <v>0.01306804241069751</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01819099973680732</v>
+        <v>0.02207131561667947</v>
       </c>
       <c r="G83" t="n">
+        <v>0.009823624270144353</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01839099973680733</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01399432906649806</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04367561816663135</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01388806336336156</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06949884876504991</v>
+        <v>0.04216249148245108</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01382728132009688</v>
+        <v>0.01389319255008203</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01819099973680732</v>
+        <v>0.07077093391926298</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01399432906649806</v>
+        <v>0.01383675078779736</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02357081849920922</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01036938117404126</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01862108815525665</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01477179179241462</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.045317816865519</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01465962243910387</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07145005300440815</v>
+        <v>0.04289536754822648</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01459546361565782</v>
+        <v>0.01466503658064214</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01862108815525665</v>
+        <v>0.07209308381641022</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01477179179241462</v>
+        <v>0.01460545916489721</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01924409497319471</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01099477644532891</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01914409497319472</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01554925451833118</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04633355061200889</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01543118151484618</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07296516357024191</v>
+        <v>0.04392124267243747</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01536364591121875</v>
+        <v>0.01543688061120225</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01924409497319471</v>
+        <v>0.07446823497444771</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01554925451833118</v>
+        <v>0.01537416754199706</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01995962861426739</v>
+        <v>0.02676862697362861</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01146089498183508</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01975962861426739</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01632671724424774</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04722261389091181</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01620274059058849</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07474378373032353</v>
+        <v>0.04483900853530332</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01613182820677969</v>
+        <v>0.01620872464176237</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01995962861426739</v>
+        <v>0.07589647667795846</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01632671724424774</v>
+        <v>0.01614287591909692</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>0.02876358514776003</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01200665188573199</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.02026729750212053</v>
       </c>
-      <c r="G87" t="n">
+      <c r="K87" t="n">
         <v>0.0171041799701643</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04838480118703872</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01697429966633079</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07618551675242519</v>
+        <v>0.04614755681704322</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01690001050234063</v>
+        <v>0.01698056867232248</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02026729750212053</v>
+        <v>0.07777789821152548</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0171041799701643</v>
+        <v>0.01691158429619677</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02066671006040001</v>
+        <v>0.03085440483597023</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01255240878962889</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0207667100604</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01788164269608086</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04961990698520038</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0177458587420731</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07798996590431889</v>
+        <v>0.04684577919787652</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01766819279790157</v>
+        <v>0.01775241270288259</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02066671006040001</v>
+        <v>0.07891258885973162</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01788164269608086</v>
+        <v>0.01768029267329662</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
+        <v>0.0328203256904188</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0130981656935258</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.02115747471275169</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.01865910542199742</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05062772577020774</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01851741781781541</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.07935673445377711</v>
+        <v>0.04823256735802242</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01843637509346251</v>
+        <v>0.01852425673344271</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02115747471275169</v>
+        <v>0.08050063790715994</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01865910542199742</v>
+        <v>0.01844900105039648</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02163919988282144</v>
+        <v>0.03444058736326536</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01364392259742271</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02193919988282143</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01943656814791398</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05130805202687158</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01928897689355772</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.0811854256685719</v>
+        <v>0.0494068129777003</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01920455738902345</v>
+        <v>0.01929610076400282</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02163919988282144</v>
+        <v>0.08164213463839348</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01943656814791398</v>
+        <v>0.01921770942749633</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
+        <v>0.03530696604879308</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.01405993348579394</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.02241149399425509</v>
       </c>
-      <c r="G91" t="n">
+      <c r="K91" t="n">
         <v>0.02021403087383054</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05216068024000278</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02006053596930003</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.08197564281647546</v>
+        <v>0.05026740773712932</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01997273968458438</v>
+        <v>0.02006794479456293</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02241149399425509</v>
+        <v>0.08273716833801503</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02021403087383054</v>
+        <v>0.01998641780459618</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02277396547069853</v>
+        <v>0.03635889724351234</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01473543640521653</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02287396547069853</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.0209914935997471</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05328540489441227</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02083209504504234</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08332698916525993</v>
+        <v>0.05071324331652877</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02074092198014532</v>
+        <v>0.02083978882512304</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02277396547069853</v>
+        <v>0.08458582829060773</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0209914935997471</v>
+        <v>0.02075512618169604</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02312622273579766</v>
+        <v>0.03715925412028179</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01528119330911344</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02302622273579767</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02176895632566365</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05398202047491077</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02160365412078465</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.0842390679826977</v>
+        <v>0.05184321139611789</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02150910427570626</v>
+        <v>0.02161163285568315</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02312622273579766</v>
+        <v>0.08568820378075442</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02176895632566365</v>
+        <v>0.02152383455879589</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
+        <v>0.03791691382073564</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01582695021301035</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.02356787421319829</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.02254641905158021</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05525032146630929</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02237521319652696</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.08641148253656078</v>
+        <v>0.05255620365611605</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0222772865712672</v>
+        <v>0.02238347688624327</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02356787421319829</v>
+        <v>0.08704438409303805</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02254641905158021</v>
+        <v>0.02229254293589574</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02409852832654634</v>
+        <v>0.03863332890316794</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01637270711690725</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02399852832654634</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02332388177749677</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.0558901023534186</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02314677227226927</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.08694383609462131</v>
+        <v>0.0538511117767424</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02304546886682813</v>
+        <v>0.02315532091680338</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02409852832654634</v>
+        <v>0.08845445851204176</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02332388177749677</v>
+        <v>0.0230612513129956</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02451779349948761</v>
+        <v>0.03930995192587265</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01691846402080417</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02441779349948761</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02410134450341333</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05690115762104958</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02391833134801158</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.08853573192465175</v>
+        <v>0.05442682743821628</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02381365116238907</v>
+        <v>0.02392716494736349</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02451779349948761</v>
+        <v>0.08951851632234831</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02410134450341333</v>
+        <v>0.02382995969009545</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02492527815566799</v>
+        <v>0.03994823544714382</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01746422092470107</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.024725278155668</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02487880722932989</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05728328175401309</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02468989042375389</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09008677329442416</v>
+        <v>0.05518224232075697</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02458183345795001</v>
+        <v>0.02469900897792361</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02492527815566799</v>
+        <v>0.09103664680854084</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02487880722932989</v>
+        <v>0.02459866806719531</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02542059071873336</v>
+        <v>0.04054963202527542</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01800997782859798</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02512059071873336</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02565626995524645</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05843626923711998</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02546144949949619</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.0904965634717107</v>
+        <v>0.0566162481045836</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02535001575351095</v>
+        <v>0.02547085300848372</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02542059071873336</v>
+        <v>0.0920089392552022</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02565626995524645</v>
+        <v>0.02536737644429516</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
+        <v>0.04111559421856152</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.01855573473249489</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.02560333961232958</v>
       </c>
-      <c r="G99" t="n">
+      <c r="K99" t="n">
         <v>0.02643373268116301</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.05905991455518111</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.0262330085752385</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.09186470572428351</v>
+        <v>0.05732773646991562</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02611819804907188</v>
+        <v>0.02624269703904383</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02560333961232958</v>
+        <v>0.09233548294691535</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02643373268116301</v>
+        <v>0.02613608482139501</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
+        <v>0.04164757458529605</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0191014916363918</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.02587313326010253</v>
       </c>
-      <c r="G100" t="n">
+      <c r="K100" t="n">
         <v>0.02721119540707957</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0598540121930074</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02700456765098081</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.09289080331991484</v>
+        <v>0.05791559909697216</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02688638034463282</v>
+        <v>0.02701454106960395</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02587313326010253</v>
+        <v>0.0938163671682633</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02721119540707957</v>
+        <v>0.02690479319849486</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02622958008569803</v>
+        <v>0.0421470256837731</v>
       </c>
       <c r="G101" t="n">
+        <v>0.01964724854028871</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02652958008569803</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02798865813299612</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06051835663540966</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02777612672672312</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.09397445952637701</v>
+        <v>0.05837872766597257</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02765456264019376</v>
+        <v>0.02778638510016406</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02622958008569803</v>
+        <v>0.09415168120382911</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02798865813299612</v>
+        <v>0.02767350157559472</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
+        <v>0.0426154000722866</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.02019300544418561</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.02657228851276197</v>
       </c>
-      <c r="G102" t="n">
+      <c r="K102" t="n">
         <v>0.02876612085891268</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06065274236719875</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02854768580246543</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.09451527761144213</v>
+        <v>0.0592160138571361</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0284227449357547</v>
+        <v>0.02855822913072417</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02657228851276197</v>
+        <v>0.0953415143381956</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02876612085891268</v>
+        <v>0.02844220995269457</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0272008669649402</v>
+        <v>0.04305415030913062</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02073876234808252</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0270008669649402</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02954358358482925</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06175696387318549</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02931924487820774</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.09551286084288235</v>
+        <v>0.06012634935068198</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02919092723131564</v>
+        <v>0.02933007316128429</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0272008669649402</v>
+        <v>0.09588595585594578</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02954358358482925</v>
+        <v>0.02921091832979442</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02741492386587861</v>
+        <v>0.04346472895259915</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02128451925197943</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02751492386587862</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03032104631074581</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.0623308156381808</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03009080395395005</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.0963668124884699</v>
+        <v>0.0608086258268295</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02995910952687657</v>
+        <v>0.0301019171918444</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02741492386587861</v>
+        <v>0.09678509504166266</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03032104631074581</v>
+        <v>0.02997962670689427</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02761406763922307</v>
+        <v>0.0438485885609862</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02183027615587634</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02771406763922307</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03109850903666236</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06297409214699548</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03086236302969236</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.09727673581597696</v>
+        <v>0.06176173496579793</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03072729182243751</v>
+        <v>0.03087376122240451</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02761406763922307</v>
+        <v>0.09793902117992914</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03109850903666236</v>
+        <v>0.03074833508399413</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02809790670861942</v>
+        <v>0.04420718169258575</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02237603305977325</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02799790670861942</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03187597176257893</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06328658788444047</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03163392210543466</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.09794223409317576</v>
+        <v>0.06188456844780649</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03149547411799845</v>
+        <v>0.03164560525296462</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02809790670861942</v>
+        <v>0.0991478235553282</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03187597176257893</v>
+        <v>0.03151704346109398</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
+        <v>0.04454196090569186</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.02292178996367016</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.02826604949771352</v>
       </c>
-      <c r="G107" t="n">
+      <c r="K107" t="n">
         <v>0.03265343448849548</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06336809733532661</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03240548118117698</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.0989629105878384</v>
+        <v>0.06257601795307452</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03226365641355938</v>
+        <v>0.03241744928352473</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02826604949771352</v>
+        <v>0.09901159145244282</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03265343448849548</v>
+        <v>0.03228575183819384</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02861810443015125</v>
+        <v>0.0448543787585985</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02346754686756707</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02841810443015125</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03343089721441204</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.0640184149844647</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03317704025691928</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.09933836856773731</v>
+        <v>0.06313497516182129</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03303183870912032</v>
+        <v>0.03318929331408484</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02861810443015125</v>
+        <v>0.09983041415585608</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03343089721441204</v>
+        <v>0.03305446021529369</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02875367992957847</v>
+        <v>0.04514588780959972</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02401330377146397</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02885367992957848</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0342083599403286</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06463733531666566</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03394859933266159</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1004682113006444</v>
+        <v>0.06406033175426604</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03380002100468126</v>
+        <v>0.03396113734464495</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02875367992957847</v>
+        <v>0.1005043809501508</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0342083599403286</v>
+        <v>0.03382316859239354</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
+        <v>0.04541794061698949</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.02455906067536088</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.02907238441964108</v>
       </c>
-      <c r="G110" t="n">
+      <c r="K110" t="n">
         <v>0.03498582266624516</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06512465281674037</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.0347201584084039</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1005520420543321</v>
+        <v>0.06405097941062798</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0345682033002422</v>
+        <v>0.03473298137520507</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02907238441964108</v>
+        <v>0.1015335811199099</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03498582266624516</v>
+        <v>0.0345918769694934</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02927382632398487</v>
+        <v>0.04567198973906182</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02510481757925779</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02897382632398487</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03576328539216172</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.06508016196949959</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03549171748414621</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1008894640965724</v>
+        <v>0.0647058098111265</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03533638559580314</v>
+        <v>0.03550482540576518</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02927382632398487</v>
+        <v>0.1020181039497165</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03576328539216172</v>
+        <v>0.03536058534659325</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02935761406625577</v>
+        <v>0.04590978763686505</v>
       </c>
       <c r="G112" t="n">
+        <v>0.0256505744831547</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02915761406625578</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03654074811807827</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.06590365725975428</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03626327655988851</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1016800806951376</v>
+        <v>0.06502371463598072</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03610456789136408</v>
+        <v>0.03627666943632529</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02935761406625577</v>
+        <v>0.1023580387241535</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03654074811807827</v>
+        <v>0.0361292937236931</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
+        <v>0.04614114938003601</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.02619633138705161</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.02952335607009961</v>
       </c>
-      <c r="G113" t="n">
+      <c r="K113" t="n">
         <v>0.03731821084399484</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.06599493317231522</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03703483563563083</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1025234951178</v>
+        <v>0.06570358556541001</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03687275018692501</v>
+        <v>0.03704851346688541</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02952335607009961</v>
+        <v>0.1023534747278039</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03731821084399484</v>
+        <v>0.03689800210079296</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02967066075916226</v>
+        <v>0.04637018596009811</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02674208829094851</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02977066075916227</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0380956735699114</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06625378419199332</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03780639471137313</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1021193106323315</v>
+        <v>0.06554431427963359</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03764093248248596</v>
+        <v>0.03782035749744552</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02967066075916226</v>
+        <v>0.1025045012452506</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0380956735699114</v>
+        <v>0.03766671047789281</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02979913655708959</v>
+        <v>0.04659681154071983</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02728784519484542</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02989913655708959</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03887313629582795</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.06668000480359945</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03857795378711544</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1029671305065047</v>
+        <v>0.06584479245887079</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03840911477804689</v>
+        <v>0.03859220152800563</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02979913655708959</v>
+        <v>0.1033112075610766</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03887313629582795</v>
+        <v>0.03843541885499267</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03000839188752749</v>
+        <v>0.04682094028556971</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02783360209874233</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02990839188752749</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03965059902174452</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06627338949194445</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03934951286285775</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1029665580080915</v>
+        <v>0.06630391178334077</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03917729707360782</v>
+        <v>0.03936404555856574</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03000839188752749</v>
+        <v>0.1027736829598648</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03965059902174452</v>
+        <v>0.03920412723209252</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
+        <v>0.04704248635831625</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.02837935900263924</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.02979803517412177</v>
       </c>
-      <c r="G117" t="n">
+      <c r="K117" t="n">
         <v>0.04042806174766107</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.06663373274183915</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04012107193860006</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1039171964048641</v>
+        <v>0.06652056393326289</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03994547936916876</v>
+        <v>0.04013588958912586</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02979803517412177</v>
+        <v>0.1039920167261983</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04042806174766107</v>
+        <v>0.03997283560919237</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03016767484051834</v>
+        <v>0.04726136392262791</v>
       </c>
       <c r="G118" t="n">
+        <v>0.02892511590653615</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03006767484051834</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04120552447357764</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.06656082903809443</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04089263101434237</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1035186489645949</v>
+        <v>0.06689364058885638</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0407136616647297</v>
+        <v>0.04090773361968597</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03016767484051834</v>
+        <v>0.10326629814466</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04120552447357764</v>
+        <v>0.04074154398629222</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02991691931036303</v>
+        <v>0.0474774871421732</v>
       </c>
       <c r="G119" t="n">
+        <v>0.02947087281043306</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03021691931036302</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04198298719949419</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.06705447286552119</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04166419009008468</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1040705189550559</v>
+        <v>0.06692203343034053</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04148184396029064</v>
+        <v>0.04167957765024608</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02991691931036303</v>
+        <v>0.1042966164998329</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04198298719949419</v>
+        <v>0.04151025236339207</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.0476907701806206</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03001662971432997</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.03025293098442144</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04276044992541075</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.06734180163101358</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04243574916582699</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.1043724096440192</v>
-      </c>
       <c r="M120" t="n">
-        <v>0.04225002625585158</v>
+        <v>0.0424514216808062</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04276044992541075</v>
+        <v>0.04227896074049193</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03025268573140996</v>
+        <v>0.04790112720163865</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03056238661822687</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02995285259160725</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04353791265132731</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06694058105313247</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04320730824156929</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.06714033439185776</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04301820855141252</v>
+        <v>0.04322326571136631</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03025268573140996</v>
+        <v>0.103925721158644</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04353791265132731</v>
+        <v>0.04304766911759178</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03024020931454598</v>
+        <v>0.04810847236889583</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03110814352212378</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03004883798505635</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04431537537724387</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.06683898165161237</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04397886731731161</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1038257838911137</v>
+        <v>0.06723252528473733</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04378639084697345</v>
+        <v>0.04399510974192642</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03024020931454598</v>
+        <v>0.1042254737391784</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04431537537724387</v>
+        <v>0.04381637749469164</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03000952998483868</v>
+        <v>0.04831271984606059</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0316539004260207</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02993887350373915</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04509283810316043</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.06672612427015898</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04475042639305391</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1039853926060505</v>
+        <v>0.0666921882026105</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04455457314253439</v>
+        <v>0.04476695377248654</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03000952998483868</v>
+        <v>0.1042872346729847</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04509283810316043</v>
+        <v>0.04458508587179149</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03016157183354558</v>
+        <v>0.04851378379680149</v>
       </c>
       <c r="G124" t="n">
+        <v>0.0321996573299176</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03022313569341199</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04587030082907699</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06690304851656007</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04552198546879622</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1040053786247453</v>
+        <v>0.06722103807183419</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04532275543809533</v>
+        <v>0.04553879780304665</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03016157183354558</v>
+        <v>0.103613045387583</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04587030082907699</v>
+        <v>0.04535379424889134</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03009725895192414</v>
+        <v>0.04871157838478701</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03274541423381451</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02990180109983129</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04664776355499355</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.0666699519998265</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04629354454453853</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1033871927308214</v>
+        <v>0.06702033091316181</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04609093773365627</v>
+        <v>0.04631064183360676</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03009725895192414</v>
+        <v>0.1032043473609615</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04664776355499355</v>
+        <v>0.04612250262599119</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03001751543123188</v>
+        <v>0.04890601777368561</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03329117113771142</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03017504626875338</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04742522628091011</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.06692703232896899</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04706510362028084</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1031322857079021</v>
+        <v>0.06639132274734674</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0468591200292172</v>
+        <v>0.04708248586416688</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03001751543123188</v>
+        <v>0.1033625820711082</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04742522628091011</v>
+        <v>0.04689121100309105</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0299232653627263</v>
+        <v>0.04909701612716583</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03383692804160833</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02994304774593465</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04820268900682666</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06687448711299837</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04783666269602315</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1034421083396107</v>
+        <v>0.06653526959514244</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04762730232477814</v>
+        <v>0.04785432989472699</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0299232653627263</v>
+        <v>0.1034891909960112</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04820268900682666</v>
+        <v>0.0476599193801909</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02971543283766487</v>
+        <v>0.04928448760889614</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03438268494550523</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02990598207713147</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04898015173274323</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06661251396092535</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04860822177176546</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1031181114095704</v>
+        <v>0.06625342747730231</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04839548462033908</v>
+        <v>0.0486261739252871</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02971543283766487</v>
+        <v>0.1033856156136586</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04898015173274323</v>
+        <v>0.04842862775729075</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02939494194730512</v>
+        <v>0.04946834638254505</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03492844184940214</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02976402580810021</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04975761445865978</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06684131048176079</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04937978084750777</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1024617457014045</v>
+        <v>0.06634705241457986</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04916366691590002</v>
+        <v>0.04939801795584722</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02939494194730512</v>
+        <v>0.1026532974020387</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04975761445865978</v>
+        <v>0.04919733613439061</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0293627167829045</v>
+        <v>0.04964850661178107</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03547419875329905</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02981735548459723</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05053507718457634</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06656107428451541</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05015133992325008</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1029744619987364</v>
+        <v>0.06621740042772836</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04993184921146095</v>
+        <v>0.05016986198640733</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0293627167829045</v>
+        <v>0.1021936778391394</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05053507718457634</v>
+        <v>0.04996604451149046</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02911968143572058</v>
+        <v>0.04982488246027265</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03601995565719596</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02996614765237891</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.0513125399104929</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06667200297820006</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05092289899899238</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1027577110851892</v>
+        <v>0.06556572753750137</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0507000315070219</v>
+        <v>0.05094170601696744</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02911968143572058</v>
+        <v>0.1024081984029489</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0513125399104929</v>
+        <v>0.05073475288859031</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02916675999701077</v>
+        <v>0.04999738809168833</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03656571256109287</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02961057885720164</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05209000263640946</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.06667429417182547</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0516944580747347</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1022129437443863</v>
+        <v>0.06539328976465225</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05146821380258283</v>
+        <v>0.05171355004752756</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02916675999701077</v>
+        <v>0.1025983005714554</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05209000263640946</v>
+        <v>0.05150346126569016</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02880487655803263</v>
+        <v>0.0501659376696966</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03711146946498978</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02955082564482177</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05286746536232602</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06626814547440241</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.052466017150477</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.101741610759951</v>
+        <v>0.06500134312993441</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05223639609814377</v>
+        <v>0.05248539407808767</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02880487655803263</v>
+        <v>0.1022654258226468</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05286746536232602</v>
+        <v>0.05227216964279002</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02863495521004362</v>
+        <v>0.05033044535796592</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03765722636888669</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02968706456099567</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05364492808824257</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06605375449494172</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05323757622621932</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1006451629155064</v>
+        <v>0.06499114365410133</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0530045783937047</v>
+        <v>0.05325723810864778</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02863495521004362</v>
+        <v>0.1017110156345115</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05364492808824257</v>
+        <v>0.05304087801988987</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02855792004430124</v>
+        <v>0.05049082532016484</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03820298327278359</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02961947215147971</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05442239081415914</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.06633131884245416</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05400913530196162</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.100625050994676</v>
+        <v>0.06436394735790635</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05377276068926565</v>
+        <v>0.05402908213920789</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02855792004430124</v>
+        <v>0.1008365114850373</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05442239081415914</v>
+        <v>0.05380958639698972</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02847469515206302</v>
+        <v>0.05064699171996181</v>
       </c>
       <c r="G136" t="n">
+        <v>0.0387487401766805</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02934822496203028</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05519985354007569</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.06610103612595047</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05478069437770392</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1006827257810829</v>
+        <v>0.064021010262103</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05454094298482658</v>
+        <v>0.054800926169768</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02847469515206302</v>
+        <v>0.1006433548522125</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05519985354007569</v>
+        <v>0.05457829477408958</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02818620462458642</v>
+        <v>0.05079885872102537</v>
       </c>
       <c r="G137" t="n">
+        <v>0.03929449708057741</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02947349953840372</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05597731626599225</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06586310395444153</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05555225345344624</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.09941963805835058</v>
+        <v>0.0638635883874446</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05530912528038752</v>
+        <v>0.05557277020032812</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02818620462458642</v>
+        <v>0.09973298721402524</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05597731626599225</v>
+        <v>0.05534700315118943</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02819337255312895</v>
+        <v>0.05094634048702398</v>
       </c>
       <c r="G138" t="n">
+        <v>0.03984025398447431</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02919547242635644</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05675477899190881</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06571771993693803</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05632381252918855</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.0992372386101022</v>
+        <v>0.06359293775468464</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05607730757594846</v>
+        <v>0.05634461423088823</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02819337255312895</v>
+        <v>0.09970685004846352</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05675477899190881</v>
+        <v>0.05611571152828929</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02799712302894809</v>
+        <v>0.05108935118162616</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04038601088837122</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02921432017164477</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05753224171782537</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06576508168245079</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05709537160493085</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.098936978219961</v>
+        <v>0.0629103143845765</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05684548987150939</v>
+        <v>0.05711645826144834</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02799712302894809</v>
+        <v>0.09976638483351558</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05753224171782537</v>
+        <v>0.05688441990538914</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02779838014330137</v>
+        <v>0.05122780496850041</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04093176779226813</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02923021932002511</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05830970444374194</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06520538679999058</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05786693068067317</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.09802030767155029</v>
+        <v>0.06241697429787366</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05761367216707033</v>
+        <v>0.05788830229200845</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02779838014330137</v>
+        <v>0.09871303304716944</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05830970444374194</v>
+        <v>0.057653128282489</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02729806798744625</v>
+        <v>0.05136161601131518</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04147752469616504</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02904334641725383</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.0590871671696585</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06493883289856819</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05863848975641547</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.09808867774849345</v>
+        <v>0.06221417351532946</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05838185446263128</v>
+        <v>0.05866014632256857</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02729806798744625</v>
+        <v>0.09804823616741332</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0590871671696585</v>
+        <v>0.05842183665958885</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02729711065264025</v>
+        <v>0.05149069847373901</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04202328160006195</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02905387800908726</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05986462989557505</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.0647656175871944</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05941004883215778</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.09684353923441358</v>
+        <v>0.06210316805769739</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05915003675819221</v>
+        <v>0.05943199035312868</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02729711065264025</v>
+        <v>0.0980734356722352</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05986462989557505</v>
+        <v>0.0591905450366887</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02689643223014085</v>
+        <v>0.05161496651944039</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04256903850395886</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02876199064128185</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06064209262149162</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06458593847488001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06018160790790009</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.09668634291293415</v>
+        <v>0.06138521394573088</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05991821905375314</v>
+        <v>0.06020383438368879</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02689643223014085</v>
+        <v>0.09759007303962325</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06064209262149162</v>
+        <v>0.05995925341378855</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02679695681120553</v>
+        <v>0.05173433431208781</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04311479540785577</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02886786085959389</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06141955534740817</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06439999317063577</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0609531669836424</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.0966185395676783</v>
+        <v>0.06096156720018328</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06068640134931408</v>
+        <v>0.06097567841424891</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02679695681120553</v>
+        <v>0.09699958974756567</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06141955534740817</v>
+        <v>0.06072796179088841</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02669960848709184</v>
+        <v>0.05184871601534978</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04366055231175268</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02857166520977981</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06219701807332473</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06470797928347249</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06172472605938471</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.09594157998226943</v>
+        <v>0.06083348384180806</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06145458364487501</v>
+        <v>0.06174752244480902</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02669960848709184</v>
+        <v>0.09640342727405043</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06219701807332473</v>
+        <v>0.06149667016798826</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02650531134905725</v>
+        <v>0.05195802579289477</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04420630921564959</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02877358023759595</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06297448079924128</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06401009442240096</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06249628513512702</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.09515691494033063</v>
+        <v>0.06000221989135865</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06222276594043596</v>
+        <v>0.06251936647536913</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02650531134905725</v>
+        <v>0.09560302709706575</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06297448079924128</v>
+        <v>0.06226537854508811</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02641498948835923</v>
+        <v>0.0520621778083913</v>
       </c>
       <c r="G147" t="n">
+        <v>0.0447520661195465</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02857378248879869</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06375194352515785</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06390653619643194</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06326784421086933</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.09416599522548547</v>
+        <v>0.0594690313695885</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06299094823599689</v>
+        <v>0.06329121050592924</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02641498948835923</v>
+        <v>0.09509983069459965</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06375194352515785</v>
+        <v>0.06303408692218797</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02592956699625532</v>
+        <v>0.05216108622550786</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04529782302344341</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0284724485091444</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06452940625107441</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06419750221457621</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06403940328661165</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.09407027162135695</v>
+        <v>0.05933517429725099</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06375913053155784</v>
+        <v>0.06406305453648935</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02592956699625532</v>
+        <v>0.09449527954464043</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06452940625107441</v>
+        <v>0.06380279529928781</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02604996796400297</v>
+        <v>0.05225466520791291</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04584357992734031</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02846975484438945</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06530686897699096</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06368319008584458</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06481096236235395</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.09307119491156851</v>
+        <v>0.05850190469509953</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06452731282711877</v>
+        <v>0.06483489856704946</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02604996796400297</v>
+        <v>0.09409081512517598</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06530686897699096</v>
+        <v>0.06457150367638768</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02587711648285972</v>
+        <v>0.05234282891927503</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04638933683123722</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0283658780402902</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06608433170290752</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06356379741924778</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06558252143809624</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.09277021587974332</v>
+        <v>0.05827047858388756</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06529549512267971</v>
+        <v>0.06560674259760957</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02587711648285972</v>
+        <v>0.09388787891419453</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06608433170290752</v>
+        <v>0.06534021205348753</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02561193664408304</v>
+        <v>0.05242549152326266</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04693509373513413</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02806099464260305</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06686179442882408</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06303952182379666</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06635408051383856</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.09216878530950479</v>
+        <v>0.05804215198436852</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06606367741824064</v>
+        <v>0.06637858662816969</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02561193664408304</v>
+        <v>0.09398791238968424</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06686179442882408</v>
+        <v>0.06610892043058739</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02525535253893042</v>
+        <v>0.05250256718354428</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04748085063903104</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02805528119708435</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06763925715474065</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06301056090850199</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06712563958958087</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.09126835398447619</v>
+        <v>0.05771818091729583</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06683185971380159</v>
+        <v>0.0671504306587298</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02525535253893042</v>
+        <v>0.09279235702963312</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06763925715474065</v>
+        <v>0.06687762880768723</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0251071036607028</v>
+        <v>0.05257397006378842</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04802660754292794</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02794891424949046</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0684167198806572</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06277711228237451</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06789719866532318</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.09077037268828064</v>
+        <v>0.05679982140342288</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06760004200936252</v>
+        <v>0.06792227468928991</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0251071036607028</v>
+        <v>0.09240265431202938</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0684167198806572</v>
+        <v>0.06764633718478709</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02516152435533874</v>
+        <v>0.05263961432766356</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04857236444682485</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02764207034557779</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06919418260657376</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.062639373554425</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0686687577410655</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.0901762922045416</v>
+        <v>0.0567883294635031</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06836822430492347</v>
+        <v>0.06869411871985003</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02516152435533874</v>
+        <v>0.09242024571486102</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06919418260657376</v>
+        <v>0.06841504556188693</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0249176213720033</v>
+        <v>0.05269941413883822</v>
       </c>
       <c r="G155" t="n">
+        <v>0.04911812135072176</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02783492603110267</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06997164533249031</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.0622975423336643</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.0694403168168078</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.08988756331688236</v>
+        <v>0.05658496111828998</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0691364066004844</v>
+        <v>0.06946596275041014</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0249176213720033</v>
+        <v>0.09134657271611624</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06997164533249031</v>
+        <v>0.06918375393898679</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02487524929105146</v>
+        <v>0.05275328366098087</v>
       </c>
       <c r="G156" t="n">
+        <v>0.04966387825461867</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0276276578518215</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07074910805840688</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06185181622910316</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07021187589255011</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.08890563680892599</v>
+        <v>0.05589097238853688</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06990458889604534</v>
+        <v>0.07023780678097025</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02487524929105146</v>
+        <v>0.09118307679378312</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07074910805840688</v>
+        <v>0.06995246231608665</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02463426269283811</v>
+        <v>0.05280113705776002</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05020963515851558</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02752044235349063</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07152657078432344</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06190239284975235</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07098343496829242</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.08793196346429594</v>
+        <v>0.0558076192949972</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07067277119160628</v>
+        <v>0.07100965081153036</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02463426269283811</v>
+        <v>0.09043119942584982</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07152657078432344</v>
+        <v>0.07072117069318649</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02469451615771825</v>
+        <v>0.05284288849284416</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05075539206241249</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02730989834047184</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07230403351023999</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06124946980462273</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07175499404403472</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.08736799406661544</v>
+        <v>0.05502850095242345</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07144095348716721</v>
+        <v>0.07178149484209048</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02469451615771825</v>
+        <v>0.09048701177709684</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07230403351023999</v>
+        <v>0.07148987907028635</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02455586426604678</v>
+        <v>0.05287845212990178</v>
       </c>
       <c r="G159" t="n">
+        <v>0.0513011489663094</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02719017603520896</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07308149623615655</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06129324470272496</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07252655311977703</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.08731517939950778</v>
+        <v>0.05454179796558348</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07220913578272815</v>
+        <v>0.07255333887265059</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02455586426604678</v>
+        <v>0.09014184825309707</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07308149623615655</v>
+        <v>0.0722585874473862</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02411816159817864</v>
+        <v>0.0529077421326014</v>
       </c>
       <c r="G160" t="n">
+        <v>0.0518469058702063</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0272615395783664</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.0738589589620731</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06113391515306987</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07329811219551935</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.08717497024659626</v>
+        <v>0.0542476629234587</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07297731807828908</v>
+        <v>0.0733251829032107</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02411816159817864</v>
+        <v>0.08969514580534876</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0738589589620731</v>
+        <v>0.07302729582448605</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02418126273446874</v>
+        <v>0.05293067266461149</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05239266277410321</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02712436126587545</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07463642168798967</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06057167876466829</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07406967127126166</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.08594857044897686</v>
+        <v>0.05404642602100271</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07374550037385003</v>
+        <v>0.07409702693377082</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02418126273446874</v>
+        <v>0.08864647920114366</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07463642168798967</v>
+        <v>0.07379600420158591</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02404502225527209</v>
+        <v>0.05294715788960055</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05293841967800011</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02687901339366737</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07541388441390624</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06040673314653094</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07484123034700396</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.08562848533333123</v>
+        <v>0.05373841745316899</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07451368266941095</v>
+        <v>0.07486887096433092</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02404502225527209</v>
+        <v>0.08819542320777346</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07541388441390624</v>
+        <v>0.07456471257868577</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0237092947409436</v>
+        <v>0.05295711197123709</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05348417658189702</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0265258682576735</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.0761913471398228</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06053927590766869</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07561278942274627</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.08541010571543789</v>
+        <v>0.05332396741491097</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07528186496497191</v>
+        <v>0.07564071499489104</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0237092947409436</v>
+        <v>0.08754155259252977</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0761913471398228</v>
+        <v>0.07533342095578562</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02357393477183818</v>
+        <v>0.0529604490731896</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05402993348579394</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02636529815382509</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07696880986573935</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05966950465709223</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07638434849848857</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.08429273158014761</v>
+        <v>0.05260340610118219</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07605004726053284</v>
+        <v>0.07641255902545115</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02357393477183818</v>
+        <v>0.0879844421227044</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07696880986573935</v>
+        <v>0.07610212933288547</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02353879692831078</v>
+        <v>0.05296044907318961</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05402993348579394</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02629767537805343</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07774627259165591</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.0599976170038124</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07715590757423088</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.08387566291231113</v>
+        <v>0.05247706370693622</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07681822955609378</v>
+        <v>0.07718440305601126</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02353879692831078</v>
+        <v>0.08712366656558906</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07774627259165591</v>
+        <v>0.07687083770998533</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02340373579071636</v>
+        <v>0.0520630844181405</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05402966495732992</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02602337222628986</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07852373531757247</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.05922381055683992</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0779274666499732</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.08335819969677938</v>
+        <v>0.05154527042712645</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07758641185165471</v>
+        <v>0.07795624708657138</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02340373579071636</v>
+        <v>0.08675880068847547</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07852373531757247</v>
+        <v>0.07763954608708518</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02346860593940985</v>
+        <v>0.0511757981640858</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05402939642886591</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02584276099446561</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07930119804348904</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.05904828292518563</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07869902572571551</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.08323964191840305</v>
+        <v>0.05130835645670648</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07835459414721564</v>
+        <v>0.07872809111713149</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02346860593940985</v>
+        <v>0.08638941925865534</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07930119804348904</v>
+        <v>0.07840825446418503</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0232332619547462</v>
+        <v>0.05029907041353977</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05402912790040188</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02575621397851199</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08007866076940559</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.05875554472326772</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07947058480145781</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.082219289562033</v>
+        <v>0.05096665199062975</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0791227764427766</v>
+        <v>0.0794999351476916</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0232332619547462</v>
+        <v>0.08511509704342018</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08007866076940559</v>
+        <v>0.07917696284128488</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02319755841708029</v>
+        <v>0.04943338126913097</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05402885937193787</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02566410347436029</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08085612349532215</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05872087802845982</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08024214387720012</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.08169644261251996</v>
+        <v>0.05022048722384972</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07989095873833753</v>
+        <v>0.08027177917825172</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02319755841708029</v>
+        <v>0.08563540881006204</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08085612349532215</v>
+        <v>0.07994567121838474</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02306134990676714</v>
+        <v>0.04857921083337322</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05402859084347385</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02536680177794182</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0816335862212387</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05844691306631167</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08101370295294243</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.08117040105471474</v>
+        <v>0.05027019235131999</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08065914103389847</v>
+        <v>0.08104362320881182</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02306134990676714</v>
+        <v>0.08504992932587246</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0816335862212387</v>
+        <v>0.08071437959548459</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02282449100416165</v>
+        <v>0.04773703920881869</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05402832231500984</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02526468118518785</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08241104894715527</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.05773672473328548</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08178526202868473</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08064046487346821</v>
+        <v>0.04951609756799397</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0814273233294594</v>
+        <v>0.08181546723937194</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02282449100416165</v>
+        <v>0.08455823335814305</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08241104894715527</v>
+        <v>0.08148308797258444</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02248683628961876</v>
+        <v>0.0469073464979838</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05402805378654581</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02485811399202968</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08318851167307183</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.05709338792584326</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08255682110442705</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.0800059340536311</v>
+        <v>0.04935853306882521</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08219550562502034</v>
+        <v>0.08258731126993206</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02248683628961876</v>
+        <v>0.08335989567416563</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08318851167307183</v>
+        <v>0.0822517963496843</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02234824034349339</v>
+        <v>0.04609061280349297</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0540277852580818</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02494747249439856</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08396597439898838</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.05671997754044716</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08332838018016936</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.08026610858005423</v>
+        <v>0.04859782904876717</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08296368792058127</v>
+        <v>0.08335915530049216</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02234824034349339</v>
+        <v>0.0836544910412319</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08396597439898838</v>
+        <v>0.08302050472678414</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02250855774614051</v>
+        <v>0.04528731822786203</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05402751672961779</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02443312898822583</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08474343712490494</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.05631956847355934</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08409993925591167</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.07992028843758836</v>
+        <v>0.04853431570277342</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08373187021614222</v>
+        <v>0.08413099933105228</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02250855774614051</v>
+        <v>0.08224159422663357</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08474343712490494</v>
+        <v>0.08378921310388401</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02226764307791504</v>
+        <v>0.0444979428736432</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05402724820115377</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02421545576944277</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08552089985082149</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.05579523562164185</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08487149833165397</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.07896777361108437</v>
+        <v>0.04766832322579742</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08450005251170316</v>
+        <v>0.0849028433616124</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02226764307791504</v>
+        <v>0.08162077999766237</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08552089985082149</v>
+        <v>0.08455792148098386</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02192535091917194</v>
+        <v>0.04372296684335523</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05402697967268975</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02399482513398064</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08629836257673806</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05545005388115676</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08564305740739628</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.07810786408539305</v>
+        <v>0.0470001818127927</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08526823480726409</v>
+        <v>0.0856746873921725</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02192535091917194</v>
+        <v>0.08149162312161001</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08629836257673806</v>
+        <v>0.08532662985808372</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02178153585026611</v>
+        <v>0.04296287023961788</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05402671114422573</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02397160937777076</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08707582530265462</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05498709814856625</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08641461648313858</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.07803985984536521</v>
+        <v>0.04713022165871264</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08603641710282503</v>
+        <v>0.08644653142273262</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02178153585026611</v>
+        <v>0.08075369836576801</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08707582530265462</v>
+        <v>0.08609533823518356</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02193605245155254</v>
+        <v>0.04221813316494924</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05402644261576171</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02364618079674441</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08785328802857117</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.05400944332033233</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0871861755588809</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.07686306087585143</v>
+        <v>0.0463587729585109</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08680459939838596</v>
+        <v>0.08721837545329274</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02193605245155254</v>
+        <v>0.08100658049742837</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08785328802857117</v>
+        <v>0.08686404661228342</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02158875530338612</v>
+        <v>0.04148923572190157</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0540261740872977</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0235189116868329</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08863075075448773</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05332016429291728</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08795773463462321</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.07707676716170286</v>
+        <v>0.0455861659071409</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0875727816939469</v>
+        <v>0.08799021948385284</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02158875530338612</v>
+        <v>0.07994984428388269</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08863075075448773</v>
+        <v>0.08763275498938328</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02143949898612182</v>
+        <v>0.04077665801299638</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05402590555883367</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02319017434396747</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08940821348040429</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.05272233596278297</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08872929371036553</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.0762802786877701</v>
+        <v>0.04521273069955611</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08834096398950785</v>
+        <v>0.08876206351441296</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02143949898612182</v>
+        <v>0.07938306449242266</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08940821348040429</v>
+        <v>0.08840146336648312</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02148813808011457</v>
+        <v>0.04008088014084793</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05402563703036966</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02286034106407946</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09018567620632086</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05231903322639173</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08950085278610782</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.07527289543890398</v>
+        <v>0.04473879753071011</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08910914628506879</v>
+        <v>0.08953390754497308</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02148813808011457</v>
+        <v>0.0784058158903399</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09018567620632086</v>
+        <v>0.08917017174358298</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02103452716571932</v>
+        <v>0.03940238220797709</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05402536850190565</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02272978414310013</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09096313893223741</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05161333098020551</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09027241186185013</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07495391739995522</v>
+        <v>0.04436469659555634</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08987732858062972</v>
+        <v>0.09030575157553318</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02103452716571932</v>
+        <v>0.0781176732449263</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09096313893223741</v>
+        <v>0.08993888012068282</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02117852082329098</v>
+        <v>0.03874164431693605</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05402509997344163</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02269887587696078</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09174060165815398</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05090830412068645</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09104397093759245</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07412264455577477</v>
+        <v>0.04399075808904834</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09064551087619066</v>
+        <v>0.0910775956060933</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02117852082329098</v>
+        <v>0.07761821132347341</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09174060165815398</v>
+        <v>0.09070758849778268</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02071997363318451</v>
+        <v>0.03809914657024945</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05402483144497761</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02236798856159271</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09251806438407054</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.0503070275442967</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09181553001333476</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07357837689121327</v>
+        <v>0.04381731220613955</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09141369317175159</v>
+        <v>0.09184943963665342</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02071997363318451</v>
+        <v>0.07740700489327301</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09251806438407054</v>
+        <v>0.09147629687488253</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02075874017575484</v>
+        <v>0.03747536907052544</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05402456291651359</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02193749449292719</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09329552710998709</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05011257614749834</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09258708908907706</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07312041439112171</v>
+        <v>0.04324468914178356</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09218187546731253</v>
+        <v>0.09262128366721352</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02075874017575484</v>
+        <v>0.07668362872161688</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09329552710998709</v>
+        <v>0.09224500525198238</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02049467503135692</v>
+        <v>0.03687079192028786</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05402429438804958</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02200776596689551</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09407298983590366</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04942802482675349</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09335864816481938</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07184805704035069</v>
+        <v>0.0426732190909338</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09295005776287348</v>
+        <v>0.09339312769777364</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02049467503135692</v>
+        <v>0.07534765757579648</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09407298983590366</v>
+        <v>0.09301371362908224</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02022763278034569</v>
+        <v>0.03628589522208893</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05402402585958557</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02147917527942897</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09485045256182022</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04855644847852419</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09413020724056169</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07196060482375111</v>
+        <v>0.04200323224854374</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0937182400584344</v>
+        <v>0.09416497172833375</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02022763278034569</v>
+        <v>0.07529866622310383</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09485045256182022</v>
+        <v>0.0937824220061821</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02025737114574021</v>
+        <v>0.03572115907845673</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05402375733112154</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02135209472645887</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09562791528773677</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04830092199927263</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09490176631630398</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07075735772617381</v>
+        <v>0.04173505880956699</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09448642235399535</v>
+        <v>0.09493681575889386</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02025737114574021</v>
+        <v>0.07423622943083052</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09562791528773677</v>
+        <v>0.09455113038328196</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01997803116586258</v>
+        <v>0.0351770635919926</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05402348880265753</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02132689660391648</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09640537801365333</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.0476643730192082</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.0956733253920463</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.0702376157324695</v>
+        <v>0.04116902896895702</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09525460464955628</v>
+        <v>0.09570865978945398</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01997803116586258</v>
+        <v>0.07375992196626818</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09640537801365333</v>
+        <v>0.0953198387603818</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0199869922200486</v>
+        <v>0.03465212844646877</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0540232202741935</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02110395320773309</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09718284073956988</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04713359636417572</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09644488446778861</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.06890067882748907</v>
+        <v>0.04100547292166729</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09602278694511722</v>
+        <v>0.09648050382001409</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0199869922200486</v>
+        <v>0.07256931859670862</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09718284073956988</v>
+        <v>0.09608854713748166</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01968532079027439</v>
+        <v>0.03413507123190819</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05402295174572949</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02078363683383999</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09796030346548645</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04629873523766298</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09721644354353091</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06844584699608319</v>
+        <v>0.04004472086265126</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09679096924067816</v>
+        <v>0.0972523478505742</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01968532079027439</v>
+        <v>0.07206399408944342</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09796030346548645</v>
+        <v>0.09685725551458151</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01937408335851615</v>
+        <v>0.03362441163208632</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05402268321726546</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0204663197781685</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09873776619140301</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.0462601592371934</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09798800261927323</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.06767242022310282</v>
+        <v>0.03988710298686249</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09755915153623911</v>
+        <v>0.09802419188113431</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01937408335851615</v>
+        <v>0.07154352321176449</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09873776619140301</v>
+        <v>0.09762596389168136</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01905434640675008</v>
+        <v>0.03312062974959987</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05402241468880145</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02034634273955209</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09951522891731956</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04581823796029055</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09875956169501554</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.06667969849339855</v>
+        <v>0.03922635311785597</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09832733383180003</v>
+        <v>0.09879603591169443</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01905434640675008</v>
+        <v>0.07107686397625201</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09951522891731956</v>
+        <v>0.09839467226878122</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01902717641695233</v>
+        <v>0.0326242056869786</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05402214616033744</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02001687267683995</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1002926916432361</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0447733410044778</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09953112077075783</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.06576698179182144</v>
+        <v>0.03915520829460245</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09909551612736096</v>
+        <v>0.09956787994225454</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01902717641695233</v>
+        <v>0.07002985188833705</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1002926916432361</v>
+        <v>0.09916338064588107</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01889363987109911</v>
+        <v>0.03213561954677477</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05402187763187342</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01987861491140104</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1010701543691527</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.04412583796727867</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1003026798465002</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.06583357010322211</v>
+        <v>0.03847451456415663</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09986369842292191</v>
+        <v>0.1003397239728147</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01889363987109911</v>
+        <v>0.06870750407977017</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1010701543691527</v>
+        <v>0.09993208902298092</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01835480325116658</v>
+        <v>0.03165535143151989</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0540216091034094</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01963229457805793</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1018476170950692</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.0437760984462166</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1010742389222425</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06397821215806404</v>
+        <v>0.03758513464951135</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1006318807184828</v>
+        <v>0.1011115680033748</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01835480325116658</v>
+        <v>0.06761492732810814</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1018476170950692</v>
+        <v>0.1007007974000808</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01811173303913093</v>
+        <v>0.03118388144380792</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05402134057494538</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01947863681163314</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1026250798209858</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04362449203881516</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1018457979979848</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.06401781562033948</v>
+        <v>0.03728793127365959</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014000630140438</v>
+        <v>0.1018834120339349</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01811173303913093</v>
+        <v>0.0669572284109074</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1026250798209858</v>
+        <v>0.1014695057771806</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01806549571696835</v>
+        <v>0.03072168968617003</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05402107204648137</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01921836674694923</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1034025425469024</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04287138834259768</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1026173570737271</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.06240408904797318</v>
+        <v>0.0367837671595943</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1021682453096047</v>
+        <v>0.102655256064495</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01806549571696835</v>
+        <v>0.06613951410572444</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1034025425469024</v>
+        <v>0.1022382141542805</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01791715776665499</v>
+        <v>0.03026925626115842</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05402080351801736</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01865220951882875</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1041800052728189</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04211715695508769</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1033889161494694</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.06095276527604943</v>
+        <v>0.0363735050303084</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1029364276051657</v>
+        <v>0.1034271000950551</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01791715776665499</v>
+        <v>0.06516689119011604</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1041800052728189</v>
+        <v>0.1030069225313803</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01736778567016709</v>
+        <v>0.02982706127130626</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05402053498955333</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01858089026209425</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1049574679987355</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04136216747380872</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1041604752252117</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.05967957713965283</v>
+        <v>0.03615800760879476</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1037046099007266</v>
+        <v>0.1041989441256152</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01736778567016709</v>
+        <v>0.0637444664416385</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1049574679987355</v>
+        <v>0.1037756309084802</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01711844590948078</v>
+        <v>0.02939558481920428</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05402026646108932</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01840513411156827</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.105734930724652</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.0409067894962841</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.104932034300954</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05820025747386803</v>
+        <v>0.03513813761804635</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1044727921962875</v>
+        <v>0.1049707881561753</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01711844590948078</v>
+        <v>0.06267734663784852</v>
       </c>
       <c r="O201" t="n">
-        <v>0.105734930724652</v>
+        <v>0.10454433928558</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01687020496657227</v>
+        <v>0.02897530700738522</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0540199979326253</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01802566620207334</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1065123934505686</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04075139262003741</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1057035933766963</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05693053911377932</v>
+        <v>0.03471475778105609</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1052409744918485</v>
+        <v>0.1057426321867354</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01687020496657227</v>
+        <v>0.06097063855630264</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1065123934505686</v>
+        <v>0.1053130476626799</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0167241293234177</v>
+        <v>0.02856670793840127</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05401972940416128</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01754321166843205</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1072898561764851</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04029634644259208</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1064751524524386</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05478615489447142</v>
+        <v>0.03398873082081699</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1060091567874094</v>
+        <v>0.1065144762172956</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0167241293234177</v>
+        <v>0.05912944897455741</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1072898561764851</v>
+        <v>0.1060817560397797</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0163812854619933</v>
+        <v>0.02817026771478764</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05401946087569726</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01725849564546691</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1080673189024017</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03934202056147162</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1072467115281809</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05378283765102887</v>
+        <v>0.03376091946032184</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1067773390829703</v>
+        <v>0.1072863202478557</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0163812854619933</v>
+        <v>0.05775888467016937</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1080673189024017</v>
+        <v>0.1068504644168796</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01614273986427525</v>
+        <v>0.0277864664391311</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05401919234723324</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01707224326800048</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1088447816283183</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03858878457419943</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1080182706039232</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.05153632021853599</v>
+        <v>0.03323218642256365</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1075455213785313</v>
+        <v>0.1080581642784158</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01614273986427525</v>
+        <v>0.05666405242069505</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1088447816283183</v>
+        <v>0.1076191727939794</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01600955901223966</v>
+        <v>0.0274157842139663</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05401892381876923</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01668517967085531</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1096222443542348</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03833700807829904</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1087898296796656</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04966233543207743</v>
+        <v>0.03270339443053533</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1083137036740922</v>
+        <v>0.1088300083089759</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01600955901223966</v>
+        <v>0.05575005900369107</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1096222443542348</v>
+        <v>0.1083878811710793</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01598280938786283</v>
+        <v>0.02705870114184547</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05401865529030522</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01649802998885393</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1103997070801514</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0376870606712939</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1095613887554078</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04787661612673777</v>
+        <v>0.03217540620722983</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1090818859696532</v>
+        <v>0.109601852339536</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01598280938786283</v>
+        <v>0.05372201119671383</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1103997070801514</v>
+        <v>0.1091565895481792</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01556355747312083</v>
+        <v>0.02671569732530618</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05401838676184119</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0161115193568189</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.111177169806068</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03703931195070742</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1103329478311502</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04669489513760144</v>
+        <v>0.03194908447564002</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1098500682652141</v>
+        <v>0.1103736963700961</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01556355747312083</v>
+        <v>0.05208501577732016</v>
       </c>
       <c r="O208" t="n">
-        <v>0.111177169806068</v>
+        <v>0.109925297925279</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01555286974998993</v>
+        <v>0.02638725286693051</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05401811823337718</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01592637290957277</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1119546325319845</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03689413151406323</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1111045069068925</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.044632905299753</v>
+        <v>0.0311252919587589</v>
       </c>
       <c r="M209" t="n">
-        <v>0.110618250560775</v>
+        <v>0.1111455404006562</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01555286974998993</v>
+        <v>0.05154417952306639</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1119546325319845</v>
+        <v>0.1106940063023789</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01505181270044625</v>
+        <v>0.02607384786925544</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05401784970491316</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01574331578193809</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1127320952579011</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03625188895888462</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1118760659826348</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04250637944827701</v>
+        <v>0.03090489137957936</v>
       </c>
       <c r="M210" t="n">
-        <v>0.111386432856336</v>
+        <v>0.1119173844312163</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01505181270044625</v>
+        <v>0.04930460921150914</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1127320952579011</v>
+        <v>0.1114627146794787</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.014861452806466</v>
+        <v>0.02577596243483318</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05401758117644915</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.0153630731087374</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1135095579838176</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03571295388269519</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1126476250583771</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04103105041825805</v>
+        <v>0.02998874546109431</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1121546151518969</v>
+        <v>0.1126892284617765</v>
       </c>
       <c r="N211" t="n">
-        <v>0.014861452806466</v>
+        <v>0.04817141162020505</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1135095579838176</v>
+        <v>0.1122314230565786</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01468285655002534</v>
+        <v>0.02549407666620401</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05401731264798512</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01508637002479324</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1142870207097342</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03527769588301832</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1134191841341194</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03932265104478044</v>
+        <v>0.02977771692629677</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1129227974474579</v>
+        <v>0.1134610724923366</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01468285655002534</v>
+        <v>0.04664969352671056</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1142870207097342</v>
+        <v>0.1130001314336784</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01461709041310047</v>
+        <v>0.0252286706659447</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05401704411952111</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01501393166492818</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1150644834356507</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03484648455737752</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1141907432098617</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03779691416292885</v>
+        <v>0.02877266849817955</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1136909797430188</v>
+        <v>0.1142329165228967</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01461709041310047</v>
+        <v>0.04504456170858218</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1150644834356507</v>
+        <v>0.1137688398107783</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01446522087766756</v>
+        <v>0.02498022453659481</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05401677559105709</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01474648316396475</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1158419461615673</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03391968950329621</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.114962302285604</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03626957260778774</v>
+        <v>0.02847446289973563</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1144591620385797</v>
+        <v>0.1150047605534568</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01446522087766756</v>
+        <v>0.04436112294337669</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1158419461615673</v>
+        <v>0.1145375481878781</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01442831442570283</v>
+        <v>0.02498022453659481</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05401677559105709</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01448474965672547</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1166194088874839</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03369768031829801</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1157338613613463</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03535635921444169</v>
+        <v>0.02798396285395796</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1152273443341407</v>
+        <v>0.1157766045840169</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01442831442570283</v>
+        <v>0.04230448400865044</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1166194088874839</v>
+        <v>0.115306256564978</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0142074375391824</v>
+        <v>0.02434257961059433</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05394678438397604</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01412945627803293</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1173968716134004</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03288082659990621</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1165054204370886</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03387300681797517</v>
+        <v>0.02740203108383948</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1159955266297016</v>
+        <v>0.116548448614577</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0142074375391824</v>
+        <v>0.04117975168196003</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1173968716134004</v>
+        <v>0.1160749649420778</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0142036567000825</v>
+        <v>0.02371206738366825</v>
       </c>
       <c r="G217" t="n">
+        <v>0.053876793176895</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01368132816270967</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.118174334339317</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03276949794564435</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1172769795128309</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03333524825347284</v>
+        <v>0.02692953031237302</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1167637089252626</v>
+        <v>0.1173202926451371</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0142036567000825</v>
+        <v>0.03979203274086207</v>
       </c>
       <c r="O217" t="n">
-        <v>0.118174334339317</v>
+        <v>0.1168436733191777</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01421141087082288</v>
+        <v>0.0230890215391729</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05380680196981396</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01364109044557822</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1189517970652335</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03166406395303598</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1180485385885733</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03195881635601899</v>
+        <v>0.02686732326255165</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1175318912208235</v>
+        <v>0.1180921366756972</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01421141087082288</v>
+        <v>0.03854643396291307</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1189517970652335</v>
+        <v>0.1176123816962776</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01392009298047553</v>
+        <v>0.02247377576046491</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05373681076273292</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01330946826146114</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1197292597911501</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03136489421960442</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1188200976643156</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03145944396069833</v>
+        <v>0.02601627265736817</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1183000735163844</v>
+        <v>0.1188639807062574</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01392009298047553</v>
+        <v>0.0373480621256696</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1197292597911501</v>
+        <v>0.1183810900733774</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01372958662076994</v>
+        <v>0.02186666373090063</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05366681955565187</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01308718674518097</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1205067225170667</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03067235834287324</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1195916567400579</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03105286390259537</v>
+        <v>0.02607724121981558</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1190682558119454</v>
+        <v>0.1196358247368175</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01372958662076994</v>
+        <v>0.03630202400668819</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1205067225170667</v>
+        <v>0.1191497984504773</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01373994552227523</v>
+        <v>0.02126801913383661</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05359682834857082</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01287497103156027</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1212841852429832</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03038682592036585</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1203632158158002</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03035480901679455</v>
+        <v>0.02515109167288682</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1198364381075063</v>
+        <v>0.1204076687673776</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01373994552227523</v>
+        <v>0.03511342638352544</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1212841852429832</v>
+        <v>0.1199185068275771</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01385122341556054</v>
+        <v>0.02067817565262949</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05352683714148979</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01257354625542158</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1220616479688998</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02990866654960578</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1211347748915425</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03103738465092154</v>
+        <v>0.02473868673957474</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1206046204030672</v>
+        <v>0.1211795127979377</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01385122341556054</v>
+        <v>0.03418737603373795</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1220616479688998</v>
+        <v>0.120687215204677</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01346347403119499</v>
+        <v>0.02009746697063552</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05345684593440874</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01248363755158743</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1228391106948163</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02933811542849651</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1219063339672848</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0304393780324414</v>
+        <v>0.02424088914287234</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1213728026986282</v>
+        <v>0.1219513568284978</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01346347403119499</v>
+        <v>0.03382897973488208</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1228391106948163</v>
+        <v>0.1214559235817768</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0136767510997477</v>
+        <v>0.01952622677121136</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05338685472732769</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01220597005488038</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1236165734207329</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02917146948288743</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1226778930430271</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.0307440350663829</v>
+        <v>0.02435856160577254</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1221409849941891</v>
+        <v>0.1227232008590579</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0136767510997477</v>
+        <v>0.03214334426451465</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1236165734207329</v>
+        <v>0.1222246319588767</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01339110835178782</v>
+        <v>0.01896478873771354</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05331686352024665</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01234126890012299</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1243940361466495</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02890694467129962</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1234494521187694</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02995134083609746</v>
+        <v>0.02389256685126823</v>
       </c>
       <c r="M225" t="n">
-        <v>0.12290916728975</v>
+        <v>0.123495044889618</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01339110835178782</v>
+        <v>0.03163557640019204</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1243940361466495</v>
+        <v>0.1229933403359765</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01330659951788447</v>
+        <v>0.0184134865534984</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05324687231316561</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01209025922213777</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.125171498872566</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0278445814238068</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1242210111945117</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.0305612804249365</v>
+        <v>0.02314376760235243</v>
       </c>
       <c r="M226" t="n">
-        <v>0.123677349585311</v>
+        <v>0.1242668889201782</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01330659951788447</v>
+        <v>0.03101078291947074</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125171498872566</v>
+        <v>0.1237620487130764</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01342327832860676</v>
+        <v>0.01787265390192261</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05317688110608457</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01195366615574732</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1259489615984826</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02798442017048272</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.124992570270254</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02987383891625145</v>
+        <v>0.02341302658201797</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1244455318808719</v>
+        <v>0.1250387329507383</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01342327832860676</v>
+        <v>0.02997407059990748</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1259489615984826</v>
+        <v>0.1245307570901762</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01314119851452385</v>
+        <v>0.01734262446634249</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05310688989900352</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01183221483577414</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1267264243243991</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.0274265013414012</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1257641293459963</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.0296890013933937</v>
+        <v>0.02260120651325778</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1252137141764329</v>
+        <v>0.1258105769812984</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01314119851452385</v>
+        <v>0.02953054621905882</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1267264243243991</v>
+        <v>0.1252994654672761</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01326041380620485</v>
+        <v>0.0168237319301146</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05303689869192247</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0117266303970408</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1275038870503157</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02697086536663595</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1265356884217387</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03040675293971473</v>
+        <v>0.02220917011906487</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1259818964719938</v>
+        <v>0.1265824210118585</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01326041380620485</v>
+        <v>0.02918531655448114</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1275038870503157</v>
+        <v>0.1260681738443759</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01318097793421891</v>
+        <v>0.01631630997659558</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05296690748484143</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01153753787196413</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1282813497762322</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02621755267626077</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.127307247497481</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02982707863856593</v>
+        <v>0.02223763432453202</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1267500787675547</v>
+        <v>0.1273542650424186</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01318097793421891</v>
+        <v>0.02904289596623477</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1282813497762322</v>
+        <v>0.1268368822214758</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01300294462913511</v>
+        <v>0.01582069228914169</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05289691627776039</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01155566589888375</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1290588125021488</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02596660370034945</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1280788065732233</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02984996357329878</v>
+        <v>0.02217519160343798</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1275182610631157</v>
+        <v>0.1281261090729787</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01300294462913511</v>
+        <v>0.02854557083596726</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1290588125021488</v>
+        <v>0.1276055905985756</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01272636762152263</v>
+        <v>0.01533721255110964</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05282692507067935</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01127466166748778</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1298362752280654</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02561805886897575</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1288503656489656</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02947539282726463</v>
+        <v>0.02151444446146017</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1282864433586766</v>
+        <v>0.1288979531035388</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01272636762152263</v>
+        <v>0.02845282538009941</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1298362752280654</v>
+        <v>0.1283742989756755</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01295130064195055</v>
+        <v>0.01486620444585574</v>
       </c>
       <c r="G233" t="n">
+        <v>0.0527569338635983</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.0112946221819893</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1306137379539819</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02507195861221334</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1296219247247079</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.03010335148381493</v>
+        <v>0.021155669838471</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1290546256542375</v>
+        <v>0.1296697971340989</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01295130064195055</v>
+        <v>0.0280649239697971</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1306137379539819</v>
+        <v>0.1291430073527754</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01287779742098803</v>
+        <v>0.01440800165673657</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05268694265651725</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01141564444660138</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1313912006798985</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02462834336013608</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1303934838004502</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02903382462630122</v>
+        <v>0.02129914467434266</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1298228079497985</v>
+        <v>0.130441641164659</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01287779742098803</v>
+        <v>0.02788213097622594</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1313912006798985</v>
+        <v>0.1299117157298752</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0125059116892042</v>
+        <v>0.01396293786710871</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05261695144943621</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0111378254655371</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.132168663405815</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02378725354281774</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1311650428761925</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02936679733807468</v>
+        <v>0.02064514590894753</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1305909902453594</v>
+        <v>0.1312134851952191</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0125059116892042</v>
+        <v>0.02740471077055162</v>
       </c>
       <c r="O235" t="n">
-        <v>0.132168663405815</v>
+        <v>0.1306804241069751</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01273569717716817</v>
+        <v>0.01353134676032849</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05254696024235517</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01126126224300954</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1329461261317316</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02374872959033206</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1319366019519348</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02890225470248697</v>
+        <v>0.02039395048215786</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1313591725409204</v>
+        <v>0.1319853292257793</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01273569717716817</v>
+        <v>0.02763292772393994</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1329461261317316</v>
+        <v>0.1314491324840749</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01256720761544906</v>
+        <v>0.01311356201975254</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05247696903527412</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01108605178323178</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1337235888576482</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02311281193275275</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1327081610276771</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02964018180288946</v>
+        <v>0.02074583533384594</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1321273548364813</v>
+        <v>0.1327571732563394</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01256720761544906</v>
+        <v>0.0266670462075565</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1337235888576482</v>
+        <v>0.1322178408611748</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01240049673461604</v>
+        <v>0.0127099173287373</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05240697782819308</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.0108122910904169</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1345010515835647</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02277954100015367</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1334797201034194</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02898056372263352</v>
+        <v>0.02030107740388409</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1328955371320422</v>
+        <v>0.1335290172868995</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01240049673461604</v>
+        <v>0.02640733059256722</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1345010515835647</v>
+        <v>0.1329865492382746</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0125356182652382</v>
+        <v>0.01232074637063926</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05233698662111204</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01104007716877799</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1352785143094813</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02244895722260853</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1342512791791617</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0296233855450706</v>
+        <v>0.01995995363214462</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1336637194276032</v>
+        <v>0.1343008613174596</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0125356182652382</v>
+        <v>0.02685404525013774</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1352785143094813</v>
+        <v>0.1337552576153745</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01217262593788469</v>
+        <v>0.01194502028844256</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05226699541403099</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01096950702252811</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1360559770353978</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02222110103019118</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.135022838254904</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02966863235355216</v>
+        <v>0.01952274095849976</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1344319017231641</v>
+        <v>0.1350727053480197</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01217262593788469</v>
+        <v>0.02670745455143375</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1360559770353978</v>
+        <v>0.1345239659924743</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01241157348312463</v>
+        <v>0.01157489752326957</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05219700420694995</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01070067765588035</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1368334397613144</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02159601285297524</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1357943973306464</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0287162892314296</v>
+        <v>0.01928971632282195</v>
       </c>
       <c r="M241" t="n">
-        <v>0.135200084018725</v>
+        <v>0.1358445493785798</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01241157348312463</v>
+        <v>0.02656782286762094</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1368334397613144</v>
+        <v>0.1352926743695742</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01235251463152713</v>
+        <v>0.01120934921810443</v>
       </c>
       <c r="G242" t="n">
+        <v>0.0521270129998689</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01073368607304778</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.137610902487231</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02107373312103458</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1365659564063887</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02896634126205444</v>
+        <v>0.01936115666498334</v>
       </c>
       <c r="M242" t="n">
-        <v>0.135968266314286</v>
+        <v>0.1366163934091399</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01235251463152713</v>
+        <v>0.02613541456986518</v>
       </c>
       <c r="O242" t="n">
-        <v>0.137610902487231</v>
+        <v>0.136061382746674</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01229550311366135</v>
+        <v>0.01084870905630361</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05205702179278787</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01076862927824351</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1383883652131475</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02095430226444292</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.137337515482131</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.02851877352877796</v>
+        <v>0.01893733892485627</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1367364486098469</v>
+        <v>0.1373882374397001</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01229550311366135</v>
+        <v>0.0254104940293321</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1383883652131475</v>
+        <v>0.1368300911237739</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0120405926600964</v>
+        <v>0.01049331072122357</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05198703058570681</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01040560427568057</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1391658279390641</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02053776071327409</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1381090745578733</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02907357111495157</v>
+        <v>0.01891854004231314</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1375046309054078</v>
+        <v>0.1381600814702602</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0120405926600964</v>
+        <v>0.02489332561718743</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1391658279390641</v>
+        <v>0.1375987995008737</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0120878370014014</v>
+        <v>0.01014348789622088</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05191703937862577</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01034470806957208</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1399432906649806</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01982414889760181</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1388806336336156</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02843071910392686</v>
+        <v>0.0188050369572261</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1382728132009688</v>
+        <v>0.1389319255008203</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0120878370014014</v>
+        <v>0.02558417370459698</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1399432906649806</v>
+        <v>0.1383675078779736</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01213728986814551</v>
+        <v>0.009799574264652007</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05184704817154473</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.0103860376641311</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1407207533908972</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.01931350724749981</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1396521927093579</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02869020257905519</v>
+        <v>0.01869710660946752</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1390409954965297</v>
+        <v>0.1397037695313804</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01213728986814551</v>
+        <v>0.0244833026627263</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1407207533908972</v>
+        <v>0.1391362162550734</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01188900499089782</v>
+        <v>0.009461903509873443</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05177705696446368</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01022969006357071</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1414982161168138</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01890587619304188</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1404237517851002</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.0285520066236879</v>
+        <v>0.01819502593890973</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1398091777920907</v>
+        <v>0.1404756135619405</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01188900499089782</v>
+        <v>0.02439097686274128</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1414982161168138</v>
+        <v>0.1399049246321733</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01204303610022748</v>
+        <v>0.009130809315241691</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05170706575738265</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.010375762272104</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1422756788427303</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01860129616430184</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1411953108608425</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.02901611632117651</v>
+        <v>0.01819907188542497</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1405773600876516</v>
+        <v>0.1412474575925006</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01204303610022748</v>
+        <v>0.02460746067580766</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1422756788427303</v>
+        <v>0.1406736330092731</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01189943692670361</v>
+        <v>0.008806625364113217</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05163707455030159</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01012435129394404</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1430531415686469</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01839980759135343</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1419668699365848</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.02828251675487248</v>
+        <v>0.01810952138888552</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1413455423832126</v>
+        <v>0.1420193016230607</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01189943692670361</v>
+        <v>0.02453301847309097</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1430531415686469</v>
+        <v>0.141442341386373</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01165826120089535</v>
+        <v>0.008489685339844566</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05156708334322056</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01017555413330391</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1438306042945634</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01750145090427038</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1427384290123271</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.02845119300812715</v>
+        <v>0.01762665138916378</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1421137246787735</v>
+        <v>0.1427911456536208</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01165826120089535</v>
+        <v>0.02466791462575718</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1438306042945634</v>
+        <v>0.1422110497634728</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01191956265337181</v>
+        <v>0.008180322925792204</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05149709213613951</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01022946779439669</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.14460806702048</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01740626653312646</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1435099880880694</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.028522130164292</v>
+        <v>0.01735073882613192</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1428819069743344</v>
+        <v>0.143562989684181</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01191956265337181</v>
+        <v>0.02451241350497185</v>
       </c>
       <c r="O251" t="n">
-        <v>0.14460806702048</v>
+        <v>0.1429797581405727</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01188339501470213</v>
+        <v>0.007878871805312639</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05142710092905847</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01028618928143545</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1453855297463965</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01731429490799546</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1442815471638118</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.02869531330671837</v>
+        <v>0.01758206063966236</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1436500892698954</v>
+        <v>0.1443348337147411</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01188339501470213</v>
+        <v>0.02416677948190077</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1453855297463965</v>
+        <v>0.1437484665176726</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01154981201545544</v>
+        <v>0.007585665661762331</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05135710972197742</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.009945815598633299</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1461629924723131</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01672557645895115</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1450531062395541</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.02877072751875781</v>
+        <v>0.01682089376962734</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1444182715654563</v>
+        <v>0.1451066777453012</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01154981201545544</v>
+        <v>0.02413127692770972</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1461629924723131</v>
+        <v>0.1445171748947724</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01181886738620085</v>
+        <v>0.007301038178497837</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05128711851489638</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01010844375020329</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1469404551982297</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01644015161606729</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1458246653152964</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.02874835788376173</v>
+        <v>0.01716751515589915</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1451864538610173</v>
+        <v>0.1458785217758613</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01181886738620085</v>
+        <v>0.02400617021356433</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1469404551982297</v>
+        <v>0.1452858832718723</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01149061485750751</v>
+        <v>0.007025323038875618</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05121712730781534</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0100741707403585</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1477179179241462</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01565806080941762</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1465962243910387</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.02852818948508146</v>
+        <v>0.01712220173835005</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1459546361565782</v>
+        <v>0.1466503658064214</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01149061485750751</v>
+        <v>0.02379172371063032</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1477179179241462</v>
+        <v>0.1460545916489721</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01176510815994453</v>
+        <v>0.006758853926252174</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05114713610073429</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.009843093573312027</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1484953806500628</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01567934446907593</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.147367783466781</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.0282102074060685</v>
+        <v>0.01668523045685247</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1467228184521391</v>
+        <v>0.1474222098369815</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01176510815994453</v>
+        <v>0.02348820179007355</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1484953806500628</v>
+        <v>0.146823300026072</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01174240102408107</v>
+        <v>0.006501964523984001</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05107714489365325</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.009915309253276945</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1492728433759793</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01480404302511601</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1481393425425233</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.02909439673007425</v>
+        <v>0.01675687825127861</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1474910007477001</v>
+        <v>0.1481940538675416</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01174240102408107</v>
+        <v>0.02329586882305967</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1492728433759793</v>
+        <v>0.1475920084031718</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01172254718048622</v>
+        <v>0.006254988515427572</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0510071536865722</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01009091478446632</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1500503061018959</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01443219690761158</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1489109016182656</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.02898074254045024</v>
+        <v>0.01663742206150079</v>
       </c>
       <c r="M258" t="n">
-        <v>0.148259183043261</v>
+        <v>0.1489658978981017</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01172254718048622</v>
+        <v>0.0229149891807543</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1500503061018959</v>
+        <v>0.1483607167802717</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01170560035972912</v>
+        <v>0.00601825958393943</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05093716247949116</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.009870007171093244</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1508277688278125</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01466384654663644</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1496824606940079</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.02896922992054779</v>
+        <v>0.01662713882739125</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1490273653388219</v>
+        <v>0.1497377419286618</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01170560035972912</v>
+        <v>0.02284582723432327</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1508277688278125</v>
+        <v>0.1491294251573715</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01169161429237891</v>
+        <v>0.005792111412876041</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05086717127241012</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01005268341737078</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.151605231553729</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01389903237226428</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1504540197697502</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.02905984395371825</v>
+        <v>0.01612630548882238</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1497955476343829</v>
+        <v>0.150509585959222</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01169161429237891</v>
+        <v>0.02368864735493231</v>
       </c>
       <c r="O260" t="n">
-        <v>0.151605231553729</v>
+        <v>0.1498981335344714</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01138064270900471</v>
+        <v>0.005576877685593916</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05079718006532907</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.009939040527512037</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1523826942796456</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.013437794814569</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1512255788454925</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.02835256972331324</v>
+        <v>0.01613519898566645</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1505637299299438</v>
+        <v>0.1512814299897821</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01138064270900471</v>
+        <v>0.02334371391374723</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1523826942796456</v>
+        <v>0.1506668419115712</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01157273934017564</v>
+        <v>0.005372892085449513</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05072718885824803</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.009829175505730071</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1531601570055622</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01338017430362426</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1519971379212348</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.02884739231268407</v>
+        <v>0.0159540962577957</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1513319122255047</v>
+        <v>0.1520532740203422</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01157273934017564</v>
+        <v>0.02351129128193358</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1531601570055622</v>
+        <v>0.1514355502886711</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01146795791646085</v>
+        <v>0.005180488295799389</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05065719765116698</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.009923185356237964</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1539376197314787</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01292621126950388</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1527686969969771</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.02864429680518216</v>
+        <v>0.01628327424508255</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1521000945210657</v>
+        <v>0.1528251180509023</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01146795791646085</v>
+        <v>0.02269164383065725</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1539376197314787</v>
+        <v>0.1522042586657709</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01136635216842943</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05058720644408594</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.0100211670832488</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1547150824573953</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01277594614228161</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1535402560727195</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.02874326828415902</v>
+        <v>0.0156230098873992</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1528682768166266</v>
+        <v>0.1535969620814624</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01136635216842943</v>
+        <v>0.02298503593108386</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1547150824573953</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1529729670428708</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0505740485493491</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005669024598414271</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05057431707781311</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006334285800016652</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05057458560627713</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006995739958634874</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05057485413474114</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007653343428154408</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05057512266320516</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008307052562403321</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05057539119166918</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008956823715266758</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05057565972013321</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009602613240573113</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05057592824859722</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01024437749220719</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05057619677706124</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01088207282399772</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05057646530552525</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01151565558982918</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05057673383398927</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01214508214353067</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05057700236245329</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01277030883898624</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05057727089091731</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01339129203002541</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05057753941938132</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01400798807053186</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05057780794784534</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01462035331433545</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05057807647630935</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01522834411531952</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05057834500477337</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01583191682731429</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05057861353323739</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01643102780418972</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05057888206170141</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01702563339981539</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05057915059016543</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01761568996802212</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05057941911862944</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01820115386269228</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05057968764709346</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01878198143765706</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05057995617555747</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01935812904679843</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05058022470402149</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01992955304394799</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05058049323248551</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02049638800473917</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05058076176094953</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02105965961351516</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05058103028941354</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02161950244590904</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05058129881787756</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02217587285575312</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05058156734634158</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02272872719692828</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0505818358748056</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0232780218232672</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05058210440326961</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02382371308865043</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05058237293173364</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02436575734691092</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05058264146019765</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02490411095191726</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05058290998866166</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02543873025753775</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05058317851712568</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0259695716176058</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0505834470455897</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02649659138600119</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05058371557405372</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02701974591655767</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05058398410251773</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02753899156315472</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05058425263098175</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0280542846796264</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05058452115944576</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02856558161985184</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05058478968790978</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02907283873766546</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0505850582163738</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02957601238694604</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05058532674483782</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03007505892152834</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05058559527330184</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03056993469529079</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05058586380176586</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03106059606206853</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05058613233022987</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03154699937573961</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05058640085869389</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03202910099013953</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0505866693871579</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03250685725914597</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05058693791562192</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03298022453659481</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05058720644408594</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03298022453659481</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0505740485493491</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03348225305285768</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05064457681335818</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03397959520881168</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05071510507736725</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03447212246341873</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05078563334137633</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03495970627564055</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05085616160538541</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03544221810443908</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05092668986939449</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03591952940877616</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05099721813340357</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03639151164761364</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05106774639741265</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03685803627991339</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05113827466142172</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0373189747646373</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05120880292543081</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03777419856074712</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05127933118943988</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.0382235791272048</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05134985945344896</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03866698792297214</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05142038771745804</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03910429640701102</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05149091598146711</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03953537603828332</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0515614442454762</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03996009827575084</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05163197250948528</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04037833457837546</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05170250077349435</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04078995640511902</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05177302903750343</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04119483521494342</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05184355730151251</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04159284246681048</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05191408556552159</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04198384961968207</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05198461382953067</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04236772813252002</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05205514209353974</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04274434946428619</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05212567035754882</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04311358507394246</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0521961986215579</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04347530642045067</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05226672688556697</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04382990983867846</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05233725514957606</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04418041604302217</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05240778341358514</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04452722136834947</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05247831167759422</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04487019727362219</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05254883994160329</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0452092152178022</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05261936820561237</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04554414665985138</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05268989646962145</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04587486305873154</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05276042473363052</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04620123587340454</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0528309529976396</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04652313656283232</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05290148126164869</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04684043658597659</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05297200952565777</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04715300740179929</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05304253778966685</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04746072046926225</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05311306605367592</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04776344724732735</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.053183594317685</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04806105919495643</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05325412258169408</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04835342777111133</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05332465084570315</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04864042443475394</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05339517910971223</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0489219206448461</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05346570737372131</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04919778786034965</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05353623563773038</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04946789754022646</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05360676390173946</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04973212114343843</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05367729216574855</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04999033012894732</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05374782042975763</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05024239595571502</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05381834869376671</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05048819008270339</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05388887695777578</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05072758396887431</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05395940522178486</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05096044907318961</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05402993348579394</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04530696604879307</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05402993348579394</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05117298407071079</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05558669655424714</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05136990206163991</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05714345962270036</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05155179898564076</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05870022269115356</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05171927078237704</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06025698575960677</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05187291339151252</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06181374882805998</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05201332275271096</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06337051189651319</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0521410948056361</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06492727496496639</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05225682548995166</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06648403803341961</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05236111074532139</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06804080110187281</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05245454651140906</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06959756417032602</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0525377287278784</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07115432723877924</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05261125333439315</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07271109030723244</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05267571627061707</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07426785337568564</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0527317134762139</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07582461644413885</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05277984089084738</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07738137951259205</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05282069445418126</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07893814258104526</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0528548701058793</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08049490564949847</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05288296378560524</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08205166871795168</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05290557143302278</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0836084317864049</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05292328898779573</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0851651948548581</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05293671238958779</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0867219579233113</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05294643757806275</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08827872099176451</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0529530604928843</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08983548406021773</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05295717707371624</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09139224712867093</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05295938326022229</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09294901019712415</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05296027499206617</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09450577326557735</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05296044820891167</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09606253633403056</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05292998318781382</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09761929940248376</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0528088522263752</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09917606247093698</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05260216627630709</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1007328255393902</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05231712903271109</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1022895886078434</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05196094419068888</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1038463516762966</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05154081544534209</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1054031147447498</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05106394649177236</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.106959877813203</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05053754102508137</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1085166408816562</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04996880274037073</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1100734039501094</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04936493533274212</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1116301670185626</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04873314249729715</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1131869300870158</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.0480806279291375</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.114743693155469</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04741459532336481</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1163004562239223</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0467422483750807</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1178572192923755</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04607079077938687</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1194139823608287</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04540742623138491</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1209707454292819</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04475935842617651</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1225275084977351</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04413379105886328</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1240842715661883</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04353792782454689</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1256410346346415</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04297897241832901</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1271977977030947</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04246412853531123</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1287545607715479</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04200059987059525</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1303113238400011</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04159559011928265</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1318680869084543</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04125296512353006</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1334248499769076</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04093516975079727</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1349816130453607</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04062920106297775</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.136538376113814</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.040334330500227</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1380951391822672</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0400498295027005</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1396519022507204</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0397749695105537</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1412086653191736</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.0395090219639421</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1427654283876268</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03925125830302115</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.14432219145608</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03900094996794633</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1458789545245332</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03875736839887307</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1474357175929864</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03851978503595689</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1489924806614396</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03828747131935324</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03805969868921756</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1521060067983461</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03783573858570538</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1536627698667992</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03761486244897214</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1552195329352525</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0373963417191733</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1567762960037057</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03717944783646435</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1583330590721589</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03696345224100073</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1598898221406121</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03674762637293792</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1614465852090653</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03653124167243142</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1630033482775185</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03631356957963668</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1645601113459717</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03609388153470915</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1661168744144249</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03587144897780431</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1676736374828781</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03564554334907766</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1692304005513313</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03541543608868464</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1707871636197845</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03518039863678071</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1723439266882378</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0349423822118517</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.173900689756691</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03470481136095876</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1754574528251442</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03446770803868041</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1770142158935974</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03423107152316682</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1785709789620506</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03399490109256824</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1801277420305038</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0337591960250348</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.181684505098957</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03352395559871675</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1832412681674102</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03328917909176425</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1847980312358634</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03305486578232752</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1863547943043166</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03282101494855677</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1879115573727698</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03258762586860217</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1894683204412231</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03235469782061393</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1910250835096762</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0321222300827422</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1925818465781295</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03189022193313729</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1941386096465826</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03165867264994927</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1956953727150359</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03142758151132842</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1972521357834891</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03119694779542491</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1988088988519423</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03096677078038894</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2003656619203955</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03073704974437072</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2019224249888487</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03050778396552041</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2034791880573019</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03027897272198825</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2050359511257552</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0300506152919244</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2065927141942083</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0298227109534791</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2081494772626615</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08530696604879308</v>
+        <v>0.06328615717561636</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03530696604879308</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01405993348579394</v>
+        <v>0.008246082333996676</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0008732880278876712</v>
+        <v>0.003072080997301808</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005457569038969085</v>
+        <v>0.001623659753021342</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001870908265004655</v>
+        <v>0.004090460021332433</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007774627259165591</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006173289276060034</v>
+        <v>0.01169164054665633</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007718440305601128</v>
+        <v>0.001633929488656537</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009000000000000008</v>
+        <v>0.02275407528999102</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007742789496340945</v>
+        <v>0.001626878488387876</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00179942374975095</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001091513807793817</v>
+        <v>0.002748694111332225</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003931490246596996</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001554925451833118</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01254089781103546</v>
+        <v>0.01750886842406352</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001543688061120226</v>
+        <v>0.002669067394774289</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01635969103279561</v>
+        <v>0.03132920168328174</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001537416754199707</v>
+        <v>0.002474759271305872</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002776282697374698</v>
+        <v>0.00759602607877314</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001637270711690725</v>
+        <v>0.004870979259064028</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005818793684953694</v>
+        <v>0.009627946902031274</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002332388177749677</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01825825640961934</v>
+        <v>0.02389492568444171</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002315532091680338</v>
+        <v>0.004901788465969612</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02347485897598717</v>
+        <v>0.04123611960225754</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00230612513129956</v>
+        <v>0.004880635465163627</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003801740402543746</v>
+        <v>0.009625472828569154</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002183027615587634</v>
+        <v>0.00649463901208537</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008</v>
+        <v>0.01197367470185734</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003475652173913043</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02238079587650466</v>
+        <v>0.02745703863591525</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003087376122240451</v>
+        <v>0.00653571795462615</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03005939758815745</v>
+        <v>0.04607277374271662</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003074833508399413</v>
+        <v>0.006507513953551502</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01099477644532891</v>
+        <v>0.002748694111332225</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004873672397042943</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002728784519484542</v>
+        <v>0.008246082333996676</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008558841530073087</v>
+        <v>0.01339349020762312</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003887313629582795</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02576394701638451</v>
+        <v>0.02978550771201624</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003859220152800563</v>
+        <v>0.008169647443282687</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03678145298276947</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003843541885499266</v>
+        <v>0.008886610671936754</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005989954212657134</v>
+        <v>0.01442271807566471</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003274541423381451</v>
+        <v>0.009741958518128056</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009543731595868563</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004664776355499355</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02799999999999997</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004360137135733203</v>
+        <v>0.01028975972540045</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04250917127328585</v>
+        <v>0.05414545627319323</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00461225026259912</v>
+        <v>0.009761270930327253</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007148461381171159</v>
+        <v>0.01459122263402571</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003820298327278359</v>
+        <v>0.0113656182711494</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01074713581200836</v>
+        <v>0.01623962764198275</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005442239081415914</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03032615071071357</v>
+        <v>0.03495488472602765</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005402908213920789</v>
+        <v>0.01143750642059576</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04741069857316954</v>
+        <v>0.05826969921916458</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005380958639698973</v>
+        <v>0.01138814941871513</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008347069434369858</v>
+        <v>0.0166909923835302</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004366055231175268</v>
+        <v>0.01298927802417074</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01166452608172872</v>
+        <v>0.01749814913309149</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006219701807332473</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03128714017292544</v>
+        <v>0.03781854273026192</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006174752244480902</v>
+        <v>0.0130714359092523</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.0626346671245549</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006417338987356099</v>
+        <v>0.013015027907103</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009583653904038078</v>
+        <v>0.01672108204291996</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.004911812135072176</v>
+        <v>0.01461293777719208</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01279137430826585</v>
+        <v>0.01870686704988289</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006997164533249031</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03242758878200022</v>
+        <v>0.04024079901494801</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006946596275041014</v>
+        <v>0.01470536539790884</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05314190962881227</v>
+        <v>0.0660068927471219</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006918375393898679</v>
+        <v>0.01464190639549088</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01085609032196065</v>
+        <v>0.01868054633093685</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005457569038969085</v>
+        <v>0.01623659753021342</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.013423152394856</v>
+        <v>0.01996024177138946</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007774627259165591</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.04329965936730953</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007490293114249014</v>
+        <v>0.01633929488656537</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05499106598418024</v>
+        <v>0.06975290884462282</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007687083770998532</v>
+        <v>0.01626878488387876</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01216225421992244</v>
+        <v>0.01856843996632271</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006003325942865993</v>
+        <v>0.01786025728323477</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01425533224473534</v>
+        <v>0.02105273367664356</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00855208998508215</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03442943151980077</v>
+        <v>0.04547312957457031</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008490284336161238</v>
+        <v>0.01797322437522191</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05759242003919185</v>
+        <v>0.07393924817481529</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008455792148098386</v>
+        <v>0.01789566337226663</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01350002112970827</v>
+        <v>0.01938381766781935</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006549082846762901</v>
+        <v>0.01948391703625611</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.02207880314467774</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03588028122266665</v>
+        <v>0.04793921542395413</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009262128366721353</v>
+        <v>0.01960715386387845</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05944606107843003</v>
+        <v>0.07733244349545682</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009224500525198239</v>
+        <v>0.01952254186065451</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01486726658310299</v>
+        <v>0.02112573415416859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00709483975065981</v>
+        <v>0.02110757678927745</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01554803880928653</v>
+        <v>0.0228329105545244</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01010701543691527</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03683188822243322</v>
+        <v>0.05027592270268469</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01003397239728147</v>
+        <v>0.02124108335253498</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0619520783864777</v>
+        <v>0.080399027564305</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009993208902298092</v>
+        <v>0.02114942034904238</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01626186611189145</v>
+        <v>0.02079324414411229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007640596654556718</v>
+        <v>0.02273123654229879</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01590766158498012</v>
+        <v>0.02400951628521598</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01088447816283183</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0380831441993198</v>
+        <v>0.05196125719798572</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01080581642784158</v>
+        <v>0.02287501284119152</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0633105612479179</v>
+        <v>0.08390553313911725</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01076191727939795</v>
+        <v>0.02277629883743026</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01768169524785847</v>
+        <v>0.02138540235639227</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008186353558453627</v>
+        <v>0.02435489629532014</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01676216064193314</v>
+        <v>0.02460308071578496</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01166194088874839</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03873294083354556</v>
+        <v>0.053873224697081</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01157766045840169</v>
+        <v>0.02450894232984806</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06482159894733358</v>
+        <v>0.08591849297765114</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0115306256564978</v>
+        <v>0.02440317732581813</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01912462952278893</v>
+        <v>0.02090126350975036</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008732110462350536</v>
+        <v>0.02597855604834148</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01731114440379143</v>
+        <v>0.02530806422526378</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01243940361466495</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04028016980532989</v>
+        <v>0.05568983098719427</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0123495044889618</v>
+        <v>0.0261428718185046</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06668528076930763</v>
+        <v>0.08880443983766417</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01229933403359765</v>
+        <v>0.02603005581420601</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02058854446846764</v>
+        <v>0.0223398823229284</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009277867366247444</v>
+        <v>0.02760221580136282</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01785422129420088</v>
+        <v>0.02581892719268494</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0132168663405815</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04092372279489195</v>
+        <v>0.05738908185554922</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01312134851952192</v>
+        <v>0.02777680130716113</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06940169599842316</v>
+        <v>0.09012990647691377</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01306804241069751</v>
+        <v>0.02765693430259389</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02207131561667947</v>
+        <v>0.0227003135146682</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009823624270144353</v>
+        <v>0.02922587555438417</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01839099973680733</v>
+        <v>0.02643012999708083</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01399432906649806</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04216249148245108</v>
+        <v>0.05854898308936968</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01389319255008203</v>
+        <v>0.02941073079581768</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07077093391926298</v>
+        <v>0.0922614256531577</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01383675078779736</v>
+        <v>0.02928381279098176</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02357081849920922</v>
+        <v>0.02401531488495935</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01036938117404126</v>
+        <v>0.0308495353074055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01862108815525665</v>
+        <v>0.0270368185083885</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01477179179241462</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04289536754822648</v>
+        <v>0.05974754047587935</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01466503658064214</v>
+        <v>0.03104466028447421</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07209308381641022</v>
+        <v>0.09334341410489305</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01460545916489721</v>
+        <v>0.03091069127936964</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.02432140656844443</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01099477644532891</v>
+        <v>0.03247319506042685</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01914409497319472</v>
+        <v>0.02719572736773099</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01554925451833118</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04392124267243747</v>
+        <v>0.06045730510033775</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01543688061120225</v>
+        <v>0.03267858977313075</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07446823497444771</v>
+        <v>0.09456210367318202</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01537416754199706</v>
+        <v>0.03253756976775751</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02676862697362861</v>
+        <v>0.0226165969178464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01146089498183508</v>
+        <v>0.03409685481344819</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01975962861426739</v>
+        <v>0.02764408187015668</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01632671724424774</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04483900853530332</v>
+        <v>0.06104114255681758</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01620872464176237</v>
+        <v>0.03431251926178729</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07589647667795846</v>
+        <v>0.09604061998491553</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01614287591909692</v>
+        <v>0.03416444825614538</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02876358514776003</v>
+        <v>0.02489885778994305</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01200665188573199</v>
+        <v>0.03572051456646954</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02026729750212053</v>
+        <v>0.02777954000770962</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0171041799701643</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04614755681704322</v>
+        <v>0.06219765745570274</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01698056867232248</v>
+        <v>0.03594644875044382</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07777789821152548</v>
+        <v>0.09687094482714709</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01691158429619677</v>
+        <v>0.03579132674453326</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03085440483597023</v>
+        <v>0.02516616104151218</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01255240878962889</v>
+        <v>0.03734417431949088</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0207667100604</v>
+        <v>0.02829975977243381</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01788164269608086</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04684577919787652</v>
+        <v>0.06282161175680873</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01775241270288259</v>
+        <v>0.03758037823910036</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07891258885973162</v>
+        <v>0.09804505998692986</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01768029267329662</v>
+        <v>0.03741820523292114</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0328203256904188</v>
+        <v>0.02341647852933156</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0130981656935258</v>
+        <v>0.03896783407251223</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02115747471275169</v>
+        <v>0.02870239915637329</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01865910542199742</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04823256735802242</v>
+        <v>0.0632077674199511</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01852425673344271</v>
+        <v>0.03921430772775689</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08050063790715994</v>
+        <v>0.09935494725131705</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01844900105039648</v>
+        <v>0.03904508372130901</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03444058736326536</v>
+        <v>0.02464778211017897</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01364392259742271</v>
+        <v>0.04059149382553356</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02193919988282143</v>
+        <v>0.02898511615157209</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01943656814791398</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0494068129777003</v>
+        <v>0.06425088640494545</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01929610076400282</v>
+        <v>0.04084823721641343</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08164213463839348</v>
+        <v>0.1002925884073619</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01921770942749633</v>
+        <v>0.04067196220969689</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03530696604879308</v>
+        <v>0.02585804364083222</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01405993348579394</v>
+        <v>0.0422151535785549</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02241149399425509</v>
+        <v>0.02894556875007424</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02021403087383054</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05026740773712932</v>
+        <v>0.06444573067160728</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02006794479456293</v>
+        <v>0.04248216670506997</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08273716833801503</v>
+        <v>0.1011499652421177</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01998641780459618</v>
+        <v>0.04229884069808477</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03635889724351234</v>
+        <v>0.02504523497806906</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01473543640521653</v>
+        <v>0.04383881333157625</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02287396547069853</v>
+        <v>0.02938141494392375</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0209914935997471</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05071324331652877</v>
+        <v>0.06498706217975217</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02083978882512304</v>
+        <v>0.04411609619372651</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08458582829060773</v>
+        <v>0.1016190595426377</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02075512618169604</v>
+        <v>0.04392571918647264</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03715925412028179</v>
+        <v>0.0262073279786673</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01528119330911344</v>
+        <v>0.04546247308459759</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02302622273579767</v>
+        <v>0.02959031272516464</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02176895632566365</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05184321139611789</v>
+        <v>0.06596964288919566</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02161163285568315</v>
+        <v>0.04575002568238305</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08568820378075442</v>
+        <v>0.1024918530959752</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02152383455879589</v>
+        <v>0.04555259767486051</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03791691382073564</v>
+        <v>0.02434229449940473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01582695021301035</v>
+        <v>0.04708613283761894</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02356787421319829</v>
+        <v>0.02966992008584096</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02254641905158021</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05255620365611605</v>
+        <v>0.06588823475975328</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02238347688624327</v>
+        <v>0.04738395517103958</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08704438409303805</v>
+        <v>0.1027603276891835</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02229254293589574</v>
+        <v>0.04717947616324839</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03863332890316794</v>
+        <v>0.02444810639705911</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01637270711690725</v>
+        <v>0.04870979259064027</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02399852832654634</v>
+        <v>0.03001789501799675</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02332388177749677</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0538511117767424</v>
+        <v>0.06673759975124058</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02315532091680338</v>
+        <v>0.04901788465969612</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08845445851204176</v>
+        <v>0.1032164651093155</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0230612513129956</v>
+        <v>0.04880635465163627</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03930995192587265</v>
+        <v>0.02652273552840823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01691846402080417</v>
+        <v>0.05033345234366162</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02441779349948761</v>
+        <v>0.03003189551367597</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02410134450341333</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05442682743821628</v>
+        <v>0.06651249982347315</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02392716494736349</v>
+        <v>0.05065181414835266</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08951851632234831</v>
+        <v>0.103652247143425</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02382995969009545</v>
+        <v>0.05043323314002415</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03994823544714382</v>
+        <v>0.02657231435123272</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01746422092470107</v>
+        <v>0.05195711209668296</v>
       </c>
       <c r="J97" t="n">
-        <v>0.024725278155668</v>
+        <v>0.03000957956492271</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02487880722932989</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05518224232075697</v>
+        <v>0.06680769693626654</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02469900897792361</v>
+        <v>0.0522857436370092</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09103664680854084</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02459866806719531</v>
+        <v>0.05206011162841202</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04054963202527542</v>
+        <v>0.02657135532582561</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01800997782859798</v>
+        <v>0.0535807718497043</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02512059071873336</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02565626995524645</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0566162481045836</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02547085300848372</v>
+        <v>0.05391967312566574</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0920089392552022</v>
+        <v>0.1042306722017884</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02536737644429516</v>
+        <v>0.0536869901167999</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04111559421856152</v>
+        <v>0.02455691128505701</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01855573473249489</v>
+        <v>0.05520443160272565</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02560333961232958</v>
+        <v>0.03004990693597301</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02643373268116301</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05732773646991562</v>
+        <v>0.06673997314046384</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02624269703904383</v>
+        <v>0.05555360261432227</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09233548294691535</v>
+        <v>0.1038960548918527</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02613608482139501</v>
+        <v>0.05531386860518777</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04164757458529605</v>
+        <v>0.02552594702987394</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0191014916363918</v>
+        <v>0.05682809135574698</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02587313326010253</v>
+        <v>0.03012909434898865</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02721119540707957</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05791559909697216</v>
+        <v>0.06730490026882591</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02701454106960395</v>
+        <v>0.05718753210297881</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0938163671682633</v>
+        <v>0.1038948749979732</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02690479319849486</v>
+        <v>0.05694074709357565</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0421470256837731</v>
+        <v>0.02647953145024294</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01964724854028871</v>
+        <v>0.05845175110876834</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02652958008569803</v>
+        <v>0.02988956979968577</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02798865813299612</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05837872766597257</v>
+        <v>0.06712732683213909</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02778638510016406</v>
+        <v>0.05882146159163535</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09415168120382911</v>
+        <v>0.1040313583882609</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02767350157559472</v>
+        <v>0.05856762558196352</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0426154000722866</v>
+        <v>0.0244187334361305</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02019300544418561</v>
+        <v>0.06007541086178967</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02657228851276197</v>
+        <v>0.02983256759379686</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02876612085891268</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0592160138571361</v>
+        <v>0.06711001342863732</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02855822913072417</v>
+        <v>0.06045539108029187</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0953415143381956</v>
+        <v>0.103609730892171</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02844220995269457</v>
+        <v>0.0601945040703514</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04305415030913062</v>
+        <v>0.02534462187750315</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02073876234808252</v>
+        <v>0.06169907061481101</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0270008669649402</v>
+        <v>0.02985932203705452</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02954358358482925</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06012634935068198</v>
+        <v>0.06635572065655451</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02933007316128429</v>
+        <v>0.06208932056894842</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09588595585594578</v>
+        <v>0.1031342183391589</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02921091832979442</v>
+        <v>0.06182138255873927</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04346472895259915</v>
+        <v>0.0262582656643274</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02128451925197943</v>
+        <v>0.06332273036783236</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02751492386587862</v>
+        <v>0.02997106743519133</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03032104631074581</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0608086258268295</v>
+        <v>0.06636720911412453</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0301019171918444</v>
+        <v>0.06372325005760496</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09678509504166266</v>
+        <v>0.1031090465586801</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02997962670689427</v>
+        <v>0.06344826104712716</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0438485885609862</v>
+        <v>0.02616073368656976</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02183027615587634</v>
+        <v>0.06494639012085369</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02771406763922307</v>
+        <v>0.02966903809393984</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03109850903666236</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06176173496579793</v>
+        <v>0.06604723939958138</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03087376122240451</v>
+        <v>0.0653571795462615</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09793902117992914</v>
+        <v>0.1029384413801898</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03074833508399413</v>
+        <v>0.06507513953551503</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04420718169258575</v>
+        <v>0.02405309483419676</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02237603305977325</v>
+        <v>0.06657004987387505</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02799790670861942</v>
+        <v>0.02965446831903261</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03187597176257893</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06188456844780649</v>
+        <v>0.0661985721111589</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03164560525296462</v>
+        <v>0.06699110903491803</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0991478235553282</v>
+        <v>0.1025266286331434</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03151704346109398</v>
+        <v>0.0667020180239029</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04454196090569186</v>
+        <v>0.0239364179971749</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02292178996367016</v>
+        <v>0.06819370962689639</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02826604949771352</v>
+        <v>0.02952859241620219</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03265343448849548</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06257601795307452</v>
+        <v>0.06552396784709097</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03241744928352473</v>
+        <v>0.06862503852357457</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09901159145244282</v>
+        <v>0.1016778341469964</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03228575183819384</v>
+        <v>0.06832889651229077</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0448543787585985</v>
+        <v>0.02581177206547072</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02346754686756707</v>
+        <v>0.06981736937991773</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02841810443015125</v>
+        <v>0.02929264469118117</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03343089721441204</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06313497516182129</v>
+        <v>0.06552618720561157</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03318929331408484</v>
+        <v>0.07025896801223111</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09983041415585608</v>
+        <v>0.1008962837512042</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03305446021529369</v>
+        <v>0.06995577500067865</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04514588780959972</v>
+        <v>0.0246802259290507</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02401330377146397</v>
+        <v>0.07144102913293908</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02885367992957848</v>
+        <v>0.02934785944970213</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0342083599403286</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06406033175426604</v>
+        <v>0.06500799078495456</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03396113734464495</v>
+        <v>0.07189289750088763</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1005043809501508</v>
+        <v>0.1000862032752218</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03382316859239354</v>
+        <v>0.07158265348906652</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04541794061698949</v>
+        <v>0.02354284847788138</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02455906067536088</v>
+        <v>0.0730646888859604</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02907238441964108</v>
+        <v>0.02919547099749757</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03498582266624516</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06405097941062798</v>
+        <v>0.06497213918335393</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03473298137520507</v>
+        <v>0.07352682698954419</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1015335811199099</v>
+        <v>0.1002518185485051</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0345918769694934</v>
+        <v>0.0732095319774544</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04567198973906182</v>
+        <v>0.02540070860192928</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02510481757925779</v>
+        <v>0.07468834863898176</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02897382632398487</v>
+        <v>0.02883671364030009</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03576328539216172</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0647058098111265</v>
+        <v>0.06452139299904344</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03550482540576518</v>
+        <v>0.07516075647820072</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1020181039497165</v>
+        <v>0.09929735540050916</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03536058534659325</v>
+        <v>0.07483641046584227</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04590978763686505</v>
+        <v>0.02425487519116087</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0256505744831547</v>
+        <v>0.0763120083920031</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02915761406625578</v>
+        <v>0.02867282168384226</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03654074811807827</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06502371463598072</v>
+        <v>0.06395851283025711</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03627666943632529</v>
+        <v>0.07679468596685725</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1023580387241535</v>
+        <v>0.09842703966068939</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0361292937236931</v>
+        <v>0.07646328895423016</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04614114938003601</v>
+        <v>0.02410641713554272</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02619633138705161</v>
+        <v>0.07793566814502445</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02952335607009961</v>
+        <v>0.02840502943385663</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03731821084399484</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06570358556541001</v>
+        <v>0.06358625927522885</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03704851346688541</v>
+        <v>0.07842861545551379</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1023534747278039</v>
+        <v>0.0978450971585012</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03689800210079296</v>
+        <v>0.07809016744261803</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04637018596009811</v>
+        <v>0.02295640332504136</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02674208829094851</v>
+        <v>0.07955932789804579</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02977066075916227</v>
+        <v>0.02823457119607578</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0380956735699114</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06554431427963359</v>
+        <v>0.06330739293219254</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03782035749744552</v>
+        <v>0.08006254494417034</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1025045012452506</v>
+        <v>0.09795575372339999</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03766671047789281</v>
+        <v>0.0797170459310059</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04659681154071983</v>
+        <v>0.02480590264962322</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02728784519484542</v>
+        <v>0.08118298765106713</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02989913655708959</v>
+        <v>0.02826268127623223</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03887313629582795</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06584479245887079</v>
+        <v>0.0629246743993821</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03859220152800563</v>
+        <v>0.08169647443282686</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1033112075610766</v>
+        <v>0.09756323518484111</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03843541885499267</v>
+        <v>0.08134392441939378</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04682094028556971</v>
+        <v>0.02465598399925489</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02783360209874233</v>
+        <v>0.08280664740408847</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02990839188752749</v>
+        <v>0.0280905939800586</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03965059902174452</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06630391178334077</v>
+        <v>0.0624408642750314</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03936404555856574</v>
+        <v>0.0833304039214834</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1027736829598648</v>
+        <v>0.09647176737227997</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03920412723209252</v>
+        <v>0.08297080290778165</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04704248635831625</v>
+        <v>0.02250771626390285</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02837935900263924</v>
+        <v>0.08443030715710981</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02979803517412177</v>
+        <v>0.02771954361328743</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04042806174766107</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06652056393326289</v>
+        <v>0.06185872315737442</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04013588958912586</v>
+        <v>0.08496433341013994</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1039920167261983</v>
+        <v>0.09558557611517177</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03997283560919237</v>
+        <v>0.08459768139616954</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04726136392262791</v>
+        <v>0.02435013281597979</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02892511590653615</v>
+        <v>0.08605396691013116</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03006767484051834</v>
+        <v>0.02774975225578132</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04120552447357764</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06689364058885638</v>
+        <v>0.06188099492060431</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04090773361968597</v>
+        <v>0.08659826289879648</v>
       </c>
       <c r="N118" t="n">
-        <v>0.10326629814466</v>
+        <v>0.09528592069923675</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04074154398629222</v>
+        <v>0.08622455988455741</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0474774871421732</v>
+        <v>0.02417096292250973</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02947087281043306</v>
+        <v>0.0876776266631525</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03021691931036302</v>
+        <v>0.02736141051451414</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04198298719949419</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06692203343034053</v>
+        <v>0.06127449613617655</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04167957765024608</v>
+        <v>0.08823219238745302</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1042966164998329</v>
+        <v>0.09520353771359119</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04151025236339207</v>
+        <v>0.08785143837294529</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0476907701806206</v>
+        <v>0.02197364764146095</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03001662971432997</v>
+        <v>0.08930128641617384</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.02744946724374243</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04276044992541075</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.06061323104257069</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0424514216808062</v>
+        <v>0.08986612187610955</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.0937456095088679</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04227896074049193</v>
+        <v>0.08947831686133316</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04790112720163865</v>
+        <v>0.02276166954411436</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03056238661822687</v>
+        <v>0.09092494616919518</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02995285259160725</v>
+        <v>0.0271179439590859</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04353791265132731</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06714033439185776</v>
+        <v>0.06060619399882136</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04322326571136631</v>
+        <v>0.09150005136476609</v>
       </c>
       <c r="N121" t="n">
-        <v>0.103925721158644</v>
+        <v>0.09362590434256796</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04304766911759178</v>
+        <v>0.09110519534972103</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04810847236889583</v>
+        <v>0.02253851120175089</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03110814352212378</v>
+        <v>0.09254860592221652</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03004883798505635</v>
+        <v>0.02697086217616426</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04431537537724387</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06723252528473733</v>
+        <v>0.05966237936396349</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04399510974192642</v>
+        <v>0.09313398085342263</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1042254737391784</v>
+        <v>0.09265819047219259</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04381637749469164</v>
+        <v>0.0927320738381089</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04831271984606059</v>
+        <v>0.02130765518565143</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0316539004260207</v>
+        <v>0.09417226567523787</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02993887350373915</v>
+        <v>0.02641224341059722</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04509283810316043</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0666921882026105</v>
+        <v>0.05929078149703187</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04476695377248654</v>
+        <v>0.09476791034207917</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1042872346729847</v>
+        <v>0.09125623615524275</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04458508587179149</v>
+        <v>0.09435895232649678</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04851378379680149</v>
+        <v>0.02307258406709692</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0321996573299176</v>
+        <v>0.09579592542825921</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03022313569341199</v>
+        <v>0.02644610917800445</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04587030082907699</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06722103807183419</v>
+        <v>0.0589003947570613</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04553879780304665</v>
+        <v>0.09640183983073571</v>
       </c>
       <c r="N124" t="n">
-        <v>0.103613045387583</v>
+        <v>0.09073380964921951</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04535379424889134</v>
+        <v>0.09598583081488465</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04871157838478701</v>
+        <v>0.02283678041736824</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03274541423381451</v>
+        <v>0.09741958518128055</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02990180109983129</v>
+        <v>0.02597648099400569</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04664776355499355</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06702033091316181</v>
+        <v>0.05810021350308658</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04631064183360676</v>
+        <v>0.09803576931939224</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1032043473609615</v>
+        <v>0.08910467921162402</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04612250262599119</v>
+        <v>0.09761270930327254</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04890601777368561</v>
+        <v>0.02260372680774628</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03329117113771142</v>
+        <v>0.0990432449343019</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03017504626875338</v>
+        <v>0.02570738037422064</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04742522628091011</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06639132274734674</v>
+        <v>0.05739923209414249</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04708248586416688</v>
+        <v>0.09966969880804878</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1033625820711082</v>
+        <v>0.08828261309995722</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04689121100309105</v>
+        <v>0.09923958779166041</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04909701612716583</v>
+        <v>0.021376905809512</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03383692804160833</v>
+        <v>0.1006669046873232</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02994304774593465</v>
+        <v>0.02544282883426899</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04820268900682666</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06653526959514244</v>
+        <v>0.05700644488926387</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04785432989472699</v>
+        <v>0.1013036282967053</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1034891909960112</v>
+        <v>0.08758137957172046</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0476599193801909</v>
+        <v>0.1008664662800483</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04928448760889614</v>
+        <v>0.02215979999394627</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03438268494550523</v>
+        <v>0.1022905644403446</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02990598207713147</v>
+        <v>0.02538684788977044</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04898015173274323</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06625342747730231</v>
+        <v>0.05663084624748552</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0486261739252871</v>
+        <v>0.1029375577853618</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1033856156136586</v>
+        <v>0.08651474688441463</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04842862775729075</v>
+        <v>0.1024933447684361</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04946834638254505</v>
+        <v>0.01994386924048762</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03492844184940214</v>
+        <v>0.1039142241933659</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02976402580810021</v>
+        <v>0.02514294466862423</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04975761445865978</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06634705241457986</v>
+        <v>0.05588143052784225</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04939801795584722</v>
+        <v>0.1045714872740184</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1026532974020387</v>
+        <v>0.08557570428900735</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04919733613439061</v>
+        <v>0.104120223256824</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04964850661178107</v>
+        <v>0.01970789866018377</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03547419875329905</v>
+        <v>0.1055378839463873</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02981735548459723</v>
+        <v>0.02468756564859649</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05053507718457634</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06621740042772836</v>
+        <v>0.05502394740485927</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05016986198640733</v>
+        <v>0.1062054167626749</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1021936778391394</v>
+        <v>0.08496649767223408</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04996604451149046</v>
+        <v>0.1057471017452119</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04982488246027265</v>
+        <v>0.01945603117082526</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03601995565719596</v>
+        <v>0.1071615436994086</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02996614765237891</v>
+        <v>0.02441028237149312</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0513125399104929</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06556572753750137</v>
+        <v>0.05451501124811509</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05094170601696744</v>
+        <v>0.1078393462513315</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1024081984029489</v>
+        <v>0.08458934214105096</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05073475288859031</v>
+        <v>0.1073739802335998</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04999738809168833</v>
+        <v>0.01919325207422093</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03656571256109287</v>
+        <v>0.10878520345243</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02961057885720164</v>
+        <v>0.02421685163810181</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05209000263640946</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06539328976465225</v>
+        <v>0.05406730790760131</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05171355004752756</v>
+        <v>0.109473275739988</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1025983005714554</v>
+        <v>0.08356394696010444</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05150346126569016</v>
+        <v>0.1090008587219877</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0501659376696966</v>
+        <v>0.02092454667217963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03711146946498978</v>
+        <v>0.1104088632054513</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02955082564482177</v>
+        <v>0.02381303024921028</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05286746536232602</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06500134312993441</v>
+        <v>0.05339371281091115</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05248539407808767</v>
+        <v>0.1111072052286445</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1022654258226468</v>
+        <v>0.08151002139404068</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05227216964279002</v>
+        <v>0.1106277372103755</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05033044535796592</v>
+        <v>0.01965490026651022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03765722636888669</v>
+        <v>0.1120325229584726</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02968706456099567</v>
+        <v>0.02340457500560625</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05364492808824257</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06499114365410133</v>
+        <v>0.05290710138563784</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05325723810864778</v>
+        <v>0.1127411347173011</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1017110156345115</v>
+        <v>0.0804472747075059</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05304087801988987</v>
+        <v>0.1122546156987634</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05049082532016484</v>
+        <v>0.02038929815902152</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03820298327278359</v>
+        <v>0.113656182711494</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02961947215147971</v>
+        <v>0.02309724270807742</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05442239081415914</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06436394735790635</v>
+        <v>0.05162034905937465</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05402908213920789</v>
+        <v>0.1143750642059576</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1008365114850373</v>
+        <v>0.07959541616514632</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05380958639698972</v>
+        <v>0.1138814941871513</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05064699171996181</v>
+        <v>0.01813272565152239</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0387487401766805</v>
+        <v>0.1152798424645153</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02934822496203028</v>
+        <v>0.02289679015741151</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05519985354007569</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.064021010262103</v>
+        <v>0.05094633125971479</v>
       </c>
       <c r="M136" t="n">
-        <v>0.054800926169768</v>
+        <v>0.1160089936946141</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1006433548522125</v>
+        <v>0.07887415503160827</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05457829477408958</v>
+        <v>0.1155083726755392</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05079885872102537</v>
+        <v>0.01789016804582166</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03929449708057741</v>
+        <v>0.1169035022175367</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02947349953840372</v>
+        <v>0.02250897415439625</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05597731626599225</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0638635883874446</v>
+        <v>0.05029792341425146</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05557277020032812</v>
+        <v>0.1176429231832707</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09973298721402524</v>
+        <v>0.07790320057153793</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05534700315118943</v>
+        <v>0.117135251163927</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05094634048702398</v>
+        <v>0.0176666106437282</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03984025398447431</v>
+        <v>0.118527161970558</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02919547242635644</v>
+        <v>0.02223955149981933</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05675477899190881</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06359293775468464</v>
+        <v>0.04978800095057792</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05634461423088823</v>
+        <v>0.1192768526719272</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09970685004846352</v>
+        <v>0.07720226204958136</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05611571152828929</v>
+        <v>0.1187621296523149</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05108935118162616</v>
+        <v>0.01746703874705084</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04038601088837122</v>
+        <v>0.1201508217235793</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02921432017164477</v>
+        <v>0.02219427899446848</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05753224171782537</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0629103143845765</v>
+        <v>0.04952943929628739</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05711645826144834</v>
+        <v>0.1209107821605837</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09976638483351558</v>
+        <v>0.07659104873038508</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05688441990538914</v>
+        <v>0.1203890081407028</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05122780496850041</v>
+        <v>0.01729643765759842</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04093176779226813</v>
+        <v>0.1217744814766007</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02923021932002511</v>
+        <v>0.02187891343913138</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05830970444374194</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06241697429787366</v>
+        <v>0.0488351138789731</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05788830229200845</v>
+        <v>0.1225447116492403</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09871303304716944</v>
+        <v>0.07548926987859517</v>
       </c>
       <c r="O140" t="n">
-        <v>0.057653128282489</v>
+        <v>0.1220158866290907</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05136161601131518</v>
+        <v>0.01915979267717981</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04147752469616504</v>
+        <v>0.123398141229622</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02904334641725383</v>
+        <v>0.02179921163459581</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0590871671696585</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06221417351532946</v>
+        <v>0.04881790012622836</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05866014632256857</v>
+        <v>0.1241786411378968</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09804823616741332</v>
+        <v>0.07471663475885787</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05842183665958885</v>
+        <v>0.1236427651174785</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05149069847373901</v>
+        <v>0.01706208910760382</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04202328160006195</v>
+        <v>0.1250218009826434</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02905387800908726</v>
+        <v>0.02146093038164942</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05986462989557505</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06210316805769739</v>
+        <v>0.04789067346564627</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05943199035312868</v>
+        <v>0.1258125706265534</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0980734356722352</v>
+        <v>0.07419285263581937</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0591905450366887</v>
+        <v>0.1252696436058664</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05161496651944039</v>
+        <v>0.01700831225067932</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04256903850395886</v>
+        <v>0.1266454607356647</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02876199064128185</v>
+        <v>0.02156982648107995</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06064209262149162</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06138521394573088</v>
+        <v>0.04766630932482013</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06020383438368879</v>
+        <v>0.1274465001152099</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09759007303962325</v>
+        <v>0.07393763277412602</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05995925341378855</v>
+        <v>0.1268965220942543</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05173433431208781</v>
+        <v>0.01799981160277125</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04311479540785577</v>
+        <v>0.1282691204886861</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02886786085959389</v>
+        <v>0.02143165673367511</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06141955534740817</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06096156720018328</v>
+        <v>0.04775768313134318</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06097567841424891</v>
+        <v>0.1290804296038665</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09699958974756567</v>
+        <v>0.07376832907718373</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06072796179088841</v>
+        <v>0.1285234005826422</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05184871601534978</v>
+        <v>0.01900647139993823</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04366055231175268</v>
+        <v>0.1298927802417074</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02857166520977981</v>
+        <v>0.02133383397594055</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06219701807332473</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06083348384180806</v>
+        <v>0.04785338595877048</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06174752244480902</v>
+        <v>0.130714359092523</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09640342727405043</v>
+        <v>0.07468776264395993</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06149667016798826</v>
+        <v>0.1301502790710301</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05195802579289477</v>
+        <v>0.01902018489018931</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04420630921564959</v>
+        <v>0.1315164399947287</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02877358023759595</v>
+        <v>0.02154504710718244</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06297448079924128</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06000221989135865</v>
+        <v>0.04797496367134088</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06251936647536913</v>
+        <v>0.1323482885811795</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09560302709706575</v>
+        <v>0.07373536860382046</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06226537854508811</v>
+        <v>0.1317771575594179</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0520621778083913</v>
+        <v>0.01904058575536355</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0447520661195465</v>
+        <v>0.1331400997477501</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02857378248879869</v>
+        <v>0.02146418126251072</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06375194352515785</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0594690313695885</v>
+        <v>0.04781440583819715</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06329121050592924</v>
+        <v>0.1339822180698361</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09509983069459965</v>
+        <v>0.07450969872717855</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06303408692218797</v>
+        <v>0.1334040360478058</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05216108622550786</v>
+        <v>0.01806730767730005</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04529782302344341</v>
+        <v>0.1347637595007714</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0284724485091444</v>
+        <v>0.02149081343430058</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06452940625107441</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05933517429725099</v>
+        <v>0.04827076637760983</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06406305453648935</v>
+        <v>0.1356161475584926</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09449527954464043</v>
+        <v>0.07400930478444762</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06380279529928781</v>
+        <v>0.1350309145361937</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05225466520791291</v>
+        <v>0.01809998433783785</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04584357992734031</v>
+        <v>0.1363874192537928</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02846975484438945</v>
+        <v>0.0216245206149271</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06530686897699096</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05850190469509953</v>
+        <v>0.04784309920784946</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06483489856704946</v>
+        <v>0.1372500770471491</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09409081512517598</v>
+        <v>0.07463273854604074</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06457150367638768</v>
+        <v>0.1366577930245815</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05234282891927503</v>
+        <v>0.01713824941881605</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04638933683123722</v>
+        <v>0.1380110790068141</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0283658780402902</v>
+        <v>0.02166487979676546</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06608433170290752</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05827047858388756</v>
+        <v>0.0483304582471866</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06560674259760957</v>
+        <v>0.1388840065358057</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09388787891419453</v>
+        <v>0.07517855178237121</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06534021205348753</v>
+        <v>0.1382846715129694</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05242549152326266</v>
+        <v>0.0171817366020737</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04693509373513413</v>
+        <v>0.1396347387598355</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02806099464260305</v>
+        <v>0.02171146797219077</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06686179442882408</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05804215198436852</v>
+        <v>0.04823189741389181</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06637858662816969</v>
+        <v>0.1405179360244622</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09398791238968424</v>
+        <v>0.07484529626385228</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06610892043058739</v>
+        <v>0.1399115500013573</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05250256718354428</v>
+        <v>0.01923007956944989</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04748085063903104</v>
+        <v>0.1412583985128568</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02805528119708435</v>
+        <v>0.02176386213357817</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06763925715474065</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05771818091729583</v>
+        <v>0.04854647062623563</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0671504306587298</v>
+        <v>0.1421518655131187</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09279235702963312</v>
+        <v>0.07473152376089726</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06687762880768723</v>
+        <v>0.1415384284897452</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05257397006378842</v>
+        <v>0.01828291200278368</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04802660754292794</v>
+        <v>0.1428820582658782</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02794891424949046</v>
+        <v>0.0219216392733028</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0684167198806572</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05679982140342288</v>
+        <v>0.04867323180248867</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06792227468928991</v>
+        <v>0.1437857950017753</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09240265431202938</v>
+        <v>0.07553578604391942</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06764633718478709</v>
+        <v>0.143165306978133</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05263961432766356</v>
+        <v>0.01933986758391416</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04857236444682485</v>
+        <v>0.1445057180188995</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02764207034557779</v>
+        <v>0.02178437638373981</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06919418260657376</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0567883294635031</v>
+        <v>0.04861123486092142</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06869411871985003</v>
+        <v>0.1454197244904318</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09242024571486102</v>
+        <v>0.07525663488333184</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06841504556188693</v>
+        <v>0.1447921854665209</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05269941413883822</v>
+        <v>0.01940057999468037</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04911812135072176</v>
+        <v>0.1461293777719208</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02783492603110267</v>
+        <v>0.02205165045726434</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06997164533249031</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05658496111828998</v>
+        <v>0.04895953371980447</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06946596275041014</v>
+        <v>0.1470536539790884</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09134657271611624</v>
+        <v>0.07559262204954786</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06918375393898679</v>
+        <v>0.1464190639549088</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05275328366098087</v>
+        <v>0.01946745156220763</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04966387825461867</v>
+        <v>0.1477530375249421</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0276276578518215</v>
+        <v>0.02192303848625152</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07074910805840688</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05589097238853688</v>
+        <v>0.04871718229740837</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07023780678097025</v>
+        <v>0.1486875834677449</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09118307679378312</v>
+        <v>0.07554308658653253</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06995246231608665</v>
+        <v>0.1480459424432967</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05280113705776002</v>
+        <v>0.01958296541387134</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05020963515851558</v>
+        <v>0.1493766972779635</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02752044235349063</v>
+        <v>0.02222029028118239</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07152657078432344</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0558076192949972</v>
+        <v>0.04941380042816548</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07100965081153036</v>
+        <v>0.1503215129564014</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09043119942584982</v>
+        <v>0.07684641144135529</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07072117069318649</v>
+        <v>0.1496728209316845</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05284288849284416</v>
+        <v>0.01875319308033976</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05075539206241249</v>
+        <v>0.1510003570309849</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02730989834047184</v>
+        <v>0.02228504375773976</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07230403351023999</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05502850095242345</v>
+        <v>0.04965702476001646</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07178149484209048</v>
+        <v>0.151955442445058</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09048701177709684</v>
+        <v>0.07727487308733982</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07148987907028635</v>
+        <v>0.1512996994200724</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05287845212990178</v>
+        <v>0.01796707630047488</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0513011489663094</v>
+        <v>0.1526240167840062</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02719017603520896</v>
+        <v>0.022606347182635</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07308149623615655</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05454179796558348</v>
+        <v>0.05023131647119078</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07255333887265059</v>
+        <v>0.1535893719337145</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09014184825309707</v>
+        <v>0.07808475296868883</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0722585874473862</v>
+        <v>0.1529265779084603</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0529077421326014</v>
+        <v>0.01821355681313871</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0518469058702063</v>
+        <v>0.1542476765370275</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0272615395783664</v>
+        <v>0.0226714309766388</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0738589589620731</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0542476629234587</v>
+        <v>0.05080811563772619</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0733251829032107</v>
+        <v>0.155223301422371</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08969514580534876</v>
+        <v>0.07903233252960506</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07302729582448605</v>
+        <v>0.1545534563968482</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05293067266461149</v>
+        <v>0.02048157635719325</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05239266277410321</v>
+        <v>0.1558713362900489</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02712436126587545</v>
+        <v>0.02296752556052184</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07463642168798967</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05404642602100271</v>
+        <v>0.05085886233566048</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07409702693377082</v>
+        <v>0.1568572309110276</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08864647920114366</v>
+        <v>0.07957389321429137</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07379600420158591</v>
+        <v>0.1561803348852361</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05294715788960055</v>
+        <v>0.0197600766715005</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05293841967800011</v>
+        <v>0.1574949960430702</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02687901339366737</v>
+        <v>0.02338186135505486</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07541388441390624</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05373841745316899</v>
+        <v>0.05205499664103141</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07486887096433092</v>
+        <v>0.1584911603996841</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08819542320777346</v>
+        <v>0.08096571646695044</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07456471257868577</v>
+        <v>0.1578072133736239</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05295711197123709</v>
+        <v>0.01903799949492245</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05348417658189702</v>
+        <v>0.1591186557960916</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0265258682576735</v>
+        <v>0.02360166878100857</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0761913471398228</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05332396741491097</v>
+        <v>0.05236795862987678</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07564071499489104</v>
+        <v>0.1601250898883407</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08754155259252977</v>
+        <v>0.0819640837317851</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07533342095578562</v>
+        <v>0.1594340918620118</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0529604490731896</v>
+        <v>0.02030428656632111</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05402993348579394</v>
+        <v>0.1607423155491129</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02636529815382509</v>
+        <v>0.02401417825915365</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07696880986573935</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05260340610118219</v>
+        <v>0.05356918837823435</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07641255902545115</v>
+        <v>0.1617590193769972</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0879844421227044</v>
+        <v>0.08262527645299805</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07610212933288547</v>
+        <v>0.1610609703503997</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05296044907318961</v>
+        <v>0.02054787962455844</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05402993348579394</v>
+        <v>0.1623659753021343</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02629767537805343</v>
+        <v>0.02430662021026082</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07774627259165591</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05247706370693622</v>
+        <v>0.05403012596214185</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07718440305601126</v>
+        <v>0.1633929488656537</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08712366656558906</v>
+        <v>0.08440557607479227</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07687083770998533</v>
+        <v>0.1626878488387876</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0520630844181405</v>
+        <v>0.02175853870705868</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05402966495732992</v>
+        <v>0.1639896350551556</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02602337222628986</v>
+        <v>0.02446622505510081</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07852373531757247</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05154527042712645</v>
+        <v>0.05472221145763712</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07795624708657138</v>
+        <v>0.1650268783543103</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08675880068847547</v>
+        <v>0.08476127634791492</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07763954608708518</v>
+        <v>0.1643147273271754</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0511757981640858</v>
+        <v>0.0199532948935613</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05402939642886591</v>
+        <v>0.1656132948081769</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02584276099446561</v>
+        <v>0.02479302256445561</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07930119804348904</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05130835645670648</v>
+        <v>0.05483456390700525</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07872809111713149</v>
+        <v>0.1666608078429668</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08638941925865534</v>
+        <v>0.08523198636782914</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07840825446418503</v>
+        <v>0.1659416058155633</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05029907041353977</v>
+        <v>0.02014328111663072</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05402912790040188</v>
+        <v>0.1672369545611983</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02575621397851199</v>
+        <v>0.02511279044342953</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08007866076940559</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05096665199062975</v>
+        <v>0.05552640756393082</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0794999351476916</v>
+        <v>0.1682947373316233</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08511509704342018</v>
+        <v>0.08598360960826057</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07917696284128488</v>
+        <v>0.1675684843039512</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04943338126913097</v>
+        <v>0.02132884817759319</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05402885937193787</v>
+        <v>0.1688606143142196</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02566410347436029</v>
+        <v>0.02522729612891769</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08085612349532215</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05022048722384972</v>
+        <v>0.05630636301119524</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08027177917825172</v>
+        <v>0.1699286668202799</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08563540881006204</v>
+        <v>0.08691753295338228</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07994567121838474</v>
+        <v>0.1691953627923391</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04857921083337322</v>
+        <v>0.02151034687777498</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05402859084347385</v>
+        <v>0.170484274067241</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02536680177794182</v>
+        <v>0.02543694471040696</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0816335862212387</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05027019235131999</v>
+        <v>0.05647533625554585</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08104362320881182</v>
+        <v>0.1715625963089364</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08504992932587246</v>
+        <v>0.08763514328736771</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08071437959548459</v>
+        <v>0.1708222412807269</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04773703920881869</v>
+        <v>0.02068812801850238</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05402832231500984</v>
+        <v>0.1721079338202623</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02526468118518785</v>
+        <v>0.02574214127738414</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08241104894715527</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04951609756799397</v>
+        <v>0.05673423330372984</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08181546723937194</v>
+        <v>0.173196525797593</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08455823335814305</v>
+        <v>0.08833782749438995</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08148308797258444</v>
+        <v>0.1724491197691148</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0469073464979838</v>
+        <v>0.02286254240110165</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05402805378654581</v>
+        <v>0.1737315935732837</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02485811399202968</v>
+        <v>0.02594329091933606</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08318851167307183</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04935853306882521</v>
+        <v>0.05748396016249452</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08258731126993206</v>
+        <v>0.1748304552862495</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08335989567416563</v>
+        <v>0.08972697245862243</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0822517963496843</v>
+        <v>0.1740759982575027</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04609061280349297</v>
+        <v>0.02303394082689905</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0540277852580818</v>
+        <v>0.175355253326305</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02494747249439856</v>
+        <v>0.02584079872574957</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08396597439898838</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04859782904876717</v>
+        <v>0.05782542283858719</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08335915530049216</v>
+        <v>0.176464384774906</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0836544910412319</v>
+        <v>0.09030396506423838</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08302050472678414</v>
+        <v>0.1757028767458906</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04528731822786203</v>
+        <v>0.02120267409722087</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05402751672961779</v>
+        <v>0.1769789130793263</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02443312898822583</v>
+        <v>0.02633506978611143</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08474343712490494</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04853431570277342</v>
+        <v>0.05795952733875515</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08413099933105228</v>
+        <v>0.1780983142635626</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08224159422663357</v>
+        <v>0.09077019219541105</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08378921310388401</v>
+        <v>0.1773297552342784</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0444979428736432</v>
+        <v>0.0223690930133934</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05402724820115377</v>
+        <v>0.1786025728323477</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02421545576944277</v>
+        <v>0.02642650918990851</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08552089985082149</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04766832322579742</v>
+        <v>0.05888717966974558</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0849028433616124</v>
+        <v>0.1797322437522191</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08162077999766237</v>
+        <v>0.09172704073631377</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08455792148098386</v>
+        <v>0.1789566337226663</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04372296684335523</v>
+        <v>0.02353354837674287</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05402697967268975</v>
+        <v>0.180226232585369</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02399482513398064</v>
+        <v>0.02661552202662765</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08629836257673806</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0470001818127927</v>
+        <v>0.05920928583830579</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0856746873921725</v>
+        <v>0.1813661732408756</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08149162312161001</v>
+        <v>0.09227589757111981</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08532662985808372</v>
+        <v>0.1805835122110542</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04296287023961788</v>
+        <v>0.02169639098859553</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05402671114422573</v>
+        <v>0.1818498923383904</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02397160937777076</v>
+        <v>0.02660251338575564</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08707582530265462</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04713022165871264</v>
+        <v>0.0596267518511831</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08644653142273262</v>
+        <v>0.1830001027295322</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08075369836576801</v>
+        <v>0.09271814958400243</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08609533823518356</v>
+        <v>0.1822103906994421</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04221813316494924</v>
+        <v>0.02286299816303337</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05402644261576171</v>
+        <v>0.1834735520914117</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02364618079674441</v>
+        <v>0.02708952982686474</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08785328802857117</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0463587729585109</v>
+        <v>0.05974225284864204</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08721837545329274</v>
+        <v>0.1846340322181887</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08100658049742837</v>
+        <v>0.09316811616577036</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08686404661228342</v>
+        <v>0.1838372691878299</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04148923572190157</v>
+        <v>0.02303890020567091</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0540261740872977</v>
+        <v>0.185097211844433</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0235189116868329</v>
+        <v>0.02708718286169549</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08863075075448773</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0455861659071409</v>
+        <v>0.06037968048261569</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08799021948385284</v>
+        <v>0.1862679617068453</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07994984428388269</v>
+        <v>0.094256128745003</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08763275498938328</v>
+        <v>0.1854641476762178</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04077665801299638</v>
+        <v>0.0222182584405121</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05402590555883367</v>
+        <v>0.1867208715974544</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02319017434396747</v>
+        <v>0.02719159434343392</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08940821348040429</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04521273069955611</v>
+        <v>0.06103429310182168</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08876206351441296</v>
+        <v>0.1879018911955018</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07938306449242266</v>
+        <v>0.09466178478381565</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08840146336648312</v>
+        <v>0.1870910261646057</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04008088014084793</v>
+        <v>0.0223950467194898</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05402563703036966</v>
+        <v>0.1883445313504757</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02286034106407946</v>
+        <v>0.02759580554916413</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09018567620632086</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04473879753071011</v>
+        <v>0.06119052710829148</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08953390754497308</v>
+        <v>0.1895358206841583</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0784058158903399</v>
+        <v>0.09486126005819839</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08917017174358298</v>
+        <v>0.1887179046529936</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03940238220797709</v>
+        <v>0.02456323889453697</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05402536850190565</v>
+        <v>0.1899681911034971</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02272978414310013</v>
+        <v>0.0276928577559703</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09096313893223741</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04436469659555634</v>
+        <v>0.06143281890405677</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09030575157553318</v>
+        <v>0.1911697501728149</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0781176732449263</v>
+        <v>0.09583073034414091</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08993888012068282</v>
+        <v>0.1903447831413815</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03874164431693605</v>
+        <v>0.02371680881758642</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05402509997344163</v>
+        <v>0.1915918508565184</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02269887587696078</v>
+        <v>0.0279757922409366</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09174060165815398</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04399075808904834</v>
+        <v>0.06224560489114905</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0910775956060933</v>
+        <v>0.1928036796614714</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07761821132347341</v>
+        <v>0.09624637141763315</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09070758849778268</v>
+        <v>0.1919716616297693</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03809914657024945</v>
+        <v>0.0248497303405711</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05402483144497761</v>
+        <v>0.1932155106095398</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02236798856159271</v>
+        <v>0.0279376502811472</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09251806438407054</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04381731220613955</v>
+        <v>0.06241332147159995</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09184943963665342</v>
+        <v>0.1944376091501279</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07740700489327301</v>
+        <v>0.09658435905466495</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09147629687488253</v>
+        <v>0.1935985401181572</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03747536907052544</v>
+        <v>0.02495597731542386</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05402456291651359</v>
+        <v>0.1948391703625611</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02193749449292719</v>
+        <v>0.02837147315368618</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09329552710998709</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04324468914178356</v>
+        <v>0.06252040504744097</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09262128366721352</v>
+        <v>0.1960715386387845</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07668362872161688</v>
+        <v>0.09702086903122625</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09224500525198238</v>
+        <v>0.1952254186065451</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03687079192028786</v>
+        <v>0.02503095192013215</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05402429438804958</v>
+        <v>0.1964628301155825</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02200776596689551</v>
+        <v>0.02847030213563778</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09407298983590366</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0426732190909338</v>
+        <v>0.06275129202070373</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09339312769777364</v>
+        <v>0.197705468127441</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07534765757579648</v>
+        <v>0.09803320123877318</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09301371362908224</v>
+        <v>0.196852297094933</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03628589522208893</v>
+        <v>0.02309569356383066</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05402402585958557</v>
+        <v>0.1980864898686038</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02147917527942897</v>
+        <v>0.02844510167598563</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09485045256182022</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04200323224854374</v>
+        <v>0.06322015785998164</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09416497172833375</v>
+        <v>0.1993393976160976</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07529866622310383</v>
+        <v>0.09828898737885711</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0937824220061821</v>
+        <v>0.1984791755833208</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03572115907845673</v>
+        <v>0.02515902818681645</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05402375733112154</v>
+        <v>0.1997101496216251</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02135209472645887</v>
+        <v>0.02841813589139486</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09562791528773677</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04173505880956699</v>
+        <v>0.06368342434086743</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09493681575889386</v>
+        <v>0.2009733271047541</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07423622943083052</v>
+        <v>0.09883923526045707</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09455113038328196</v>
+        <v>0.2001060540717087</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0351770635919926</v>
+        <v>0.0232209336120492</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05402348880265753</v>
+        <v>0.2013338093746465</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02132689660391648</v>
+        <v>0.02838953667585085</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09640537801365333</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04116902896895702</v>
+        <v>0.0637430502245025</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09570865978945398</v>
+        <v>0.2026072565934106</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07375992196626818</v>
+        <v>0.09858385720720486</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0953198387603818</v>
+        <v>0.2017329325600966</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03465212844646877</v>
+        <v>0.02328138766248856</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0540232202741935</v>
+        <v>0.2029574691276678</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02110395320773309</v>
+        <v>0.02845927842031161</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09718284073956988</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04100547292166729</v>
+        <v>0.06349897823474035</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09648050382001409</v>
+        <v>0.2042411860820671</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07256931859670862</v>
+        <v>0.09862276554273242</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09608854713748166</v>
+        <v>0.2033598110484844</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03413507123190819</v>
+        <v>0.02434036816109422</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05402295174572949</v>
+        <v>0.2045811288806892</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02078363683383999</v>
+        <v>0.02852733551573521</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09796030346548645</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04004472086265126</v>
+        <v>0.06405115109543438</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0972523478505742</v>
+        <v>0.2058751155707237</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07206399408944342</v>
+        <v>0.0994558725906714</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09685725551458151</v>
+        <v>0.2049866895368723</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03362441163208632</v>
+        <v>0.02339785293082583</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05402268321726546</v>
+        <v>0.2062047886337105</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0204663197781685</v>
+        <v>0.02879368235307966</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09873776619140301</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03988710298686249</v>
+        <v>0.06419951153043812</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09802419188113431</v>
+        <v>0.2075090450593803</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07154352321176449</v>
+        <v>0.09958309067465376</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09762596389168136</v>
+        <v>0.2066135680252602</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03312062974959987</v>
+        <v>0.02345381979464309</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05402241468880145</v>
+        <v>0.2078284483867318</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02034634273955209</v>
+        <v>0.02865829332330301</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09951522891731956</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03922635311785597</v>
+        <v>0.06424400226360494</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09879603591169443</v>
+        <v>0.2091429745480368</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07107686397625201</v>
+        <v>0.09940433211831123</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09839467226878122</v>
+        <v>0.2082404465136481</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0326242056869786</v>
+        <v>0.02350824657550565</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05402214616033744</v>
+        <v>0.2094521081397532</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02001687267683995</v>
+        <v>0.02872114281736329</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1002926916432361</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.03915520829460245</v>
+        <v>0.06408456601878837</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09956787994225454</v>
+        <v>0.2107769040366933</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07002985188833705</v>
+        <v>0.09931950924527566</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09916338064588107</v>
+        <v>0.2098673250020359</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03213561954677477</v>
+        <v>0.02356111109637321</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05402187763187342</v>
+        <v>0.2110757678927745</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01987861491140104</v>
+        <v>0.02888220522621854</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1010701543691527</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03847451456415663</v>
+        <v>0.06422114551984182</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1003397239728147</v>
+        <v>0.2124108335253499</v>
       </c>
       <c r="N195" t="n">
-        <v>0.06870750407977017</v>
+        <v>0.1004285343791789</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09993208902298092</v>
+        <v>0.2114942034904238</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03165535143151989</v>
+        <v>0.02561239118020542</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0540216091034094</v>
+        <v>0.2126994276457959</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01963229457805793</v>
+        <v>0.02914145494082679</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1018476170950692</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03758513464951135</v>
+        <v>0.06465368349061879</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1011115680033748</v>
+        <v>0.2140447630140064</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06761492732810814</v>
+        <v>0.1004313198436527</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1007007974000808</v>
+        <v>0.2131210819788117</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03118388144380792</v>
+        <v>0.02466206464996196</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05402134057494538</v>
+        <v>0.2143230873988172</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01947863681163314</v>
+        <v>0.02899886635214609</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1026250798209858</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03728793127365959</v>
+        <v>0.06478212265497266</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1018834120339349</v>
+        <v>0.2156786925026629</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0669572284109074</v>
+        <v>0.100127777962329</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1014695057771806</v>
+        <v>0.2147479604671996</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03072168968617003</v>
+        <v>0.02471010932860249</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05402107204648137</v>
+        <v>0.2159467471518386</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01921836674694923</v>
+        <v>0.02915441385113446</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1034025425469024</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0367837671595943</v>
+        <v>0.06510640573675697</v>
       </c>
       <c r="M198" t="n">
-        <v>0.102655256064495</v>
+        <v>0.2173126219913195</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06613951410572444</v>
+        <v>0.1001178210588394</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1022382141542805</v>
+        <v>0.2163748389555875</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03026925626115842</v>
+        <v>0.02575650303908671</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05402080351801736</v>
+        <v>0.2175704069048599</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01865220951882875</v>
+        <v>0.02900807182874995</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1041800052728189</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0363735050303084</v>
+        <v>0.06522647545982518</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1034271000950551</v>
+        <v>0.218946551479976</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06516689119011604</v>
+        <v>0.100801361456816</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1030069225313803</v>
+        <v>0.2180017174439753</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02982706127130626</v>
+        <v>0.02580122360437426</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05402053498955333</v>
+        <v>0.2191940666578812</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01858089026209425</v>
+        <v>0.02915981467595057</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1049574679987355</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03615800760879476</v>
+        <v>0.06484227454803065</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1041989441256152</v>
+        <v>0.2205804809686326</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0637444664416385</v>
+        <v>0.1003783114798904</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1037756309084802</v>
+        <v>0.2196285959323632</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02939558481920428</v>
+        <v>0.02584424884742482</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05402026646108932</v>
+        <v>0.2208177264109026</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01840513411156827</v>
+        <v>0.0294096167836944</v>
       </c>
       <c r="K201" t="n">
-        <v>0.105734930724652</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03513813761804635</v>
+        <v>0.06545374572522691</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1049707881561753</v>
+        <v>0.2222144104572891</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06267734663784852</v>
+        <v>0.1008485834516946</v>
       </c>
       <c r="O201" t="n">
-        <v>0.10454433928558</v>
+        <v>0.2212554744207511</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02897530700738522</v>
+        <v>0.02488555659119809</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0540199979326253</v>
+        <v>0.2224413861639239</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01802566620207334</v>
+        <v>0.02945745254293942</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1065123934505686</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03471475778105609</v>
+        <v>0.06556083171526741</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1057426321867354</v>
+        <v>0.2238483399459456</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06097063855630264</v>
+        <v>0.1016120896958602</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1053130476626799</v>
+        <v>0.2228823529091389</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02856670793840127</v>
+        <v>0.02492512465865371</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05401972940416128</v>
+        <v>0.2240650459169453</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01754321166843205</v>
+        <v>0.02950329634464373</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1072898561764851</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03398873082081699</v>
+        <v>0.06506347524200559</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1065144762172956</v>
+        <v>0.2254822694346021</v>
       </c>
       <c r="N203" t="n">
-        <v>0.05912944897455741</v>
+        <v>0.1017687425360193</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1060817560397797</v>
+        <v>0.2245092313975268</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02817026771478764</v>
+        <v>0.02396293087275138</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05401946087569726</v>
+        <v>0.2256887056699666</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01725849564546691</v>
+        <v>0.02934712257976529</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1080673189024017</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03376091946032184</v>
+        <v>0.06516161902929493</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1072863202478557</v>
+        <v>0.2271161989232587</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05775888467016937</v>
+        <v>0.1020184542958034</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1068504644168796</v>
+        <v>0.2261361098859147</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0277864664391311</v>
+        <v>0.02499895305645077</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05401919234723324</v>
+        <v>0.2273123654229879</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01707224326800048</v>
+        <v>0.02938890563926222</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1088447816283183</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03323218642256365</v>
+        <v>0.06565520580098885</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1080581642784158</v>
+        <v>0.2287501284119152</v>
       </c>
       <c r="N205" t="n">
-        <v>0.05666405242069505</v>
+        <v>0.1015611372988445</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1076191727939794</v>
+        <v>0.2277629883743026</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0274157842139663</v>
+        <v>0.02603316903271152</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05401892381876923</v>
+        <v>0.2289360251760093</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01668517967085531</v>
+        <v>0.02952861991409247</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1096222443542348</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03270339443053533</v>
+        <v>0.06534417828094083</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1088300083089759</v>
+        <v>0.2303840579005717</v>
       </c>
       <c r="N206" t="n">
-        <v>0.05575005900369107</v>
+        <v>0.1016967038687744</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1083878811710793</v>
+        <v>0.2293898668626904</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02705870114184547</v>
+        <v>0.02506555662449333</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05401865529030522</v>
+        <v>0.2305596849290306</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01649802998885393</v>
+        <v>0.02956623979521415</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1103997070801514</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03217540620722983</v>
+        <v>0.06542847919300435</v>
       </c>
       <c r="M207" t="n">
-        <v>0.109601852339536</v>
+        <v>0.2320179873892283</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05372201119671383</v>
+        <v>0.102325066329225</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1091565895481792</v>
+        <v>0.2310167453510783</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02671569732530618</v>
+        <v>0.02609609365475588</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05401838676184119</v>
+        <v>0.232183344682052</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0161115193568189</v>
+        <v>0.02940173967358528</v>
       </c>
       <c r="K208" t="n">
-        <v>0.111177169806068</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03194908447564002</v>
+        <v>0.06580805126103279</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1103736963700961</v>
+        <v>0.2336519168778848</v>
       </c>
       <c r="N208" t="n">
-        <v>0.05208501577732016</v>
+        <v>0.102546137003828</v>
       </c>
       <c r="O208" t="n">
-        <v>0.109925297925279</v>
+        <v>0.2326436238394662</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02638725286693051</v>
+        <v>0.0241247579464588</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05401811823337718</v>
+        <v>0.2338070044350734</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01592637290957277</v>
+        <v>0.02973509394016387</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1119546325319845</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0311252919587589</v>
+        <v>0.06608283720887972</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1111455404006562</v>
+        <v>0.2352858463665414</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05154417952306639</v>
+        <v>0.1024598282162152</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1106940063023789</v>
+        <v>0.2342705023278541</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02607384786925544</v>
+        <v>0.0251515273225618</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05401784970491316</v>
+        <v>0.2354306641880947</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01574331578193809</v>
+        <v>0.02946627698590795</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1127320952579011</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03090489137957936</v>
+        <v>0.06585277976039847</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1119173844312163</v>
+        <v>0.2369197758551979</v>
       </c>
       <c r="N210" t="n">
-        <v>0.04930460921150914</v>
+        <v>0.1021660522900186</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1114627146794787</v>
+        <v>0.235897380816242</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02577596243483318</v>
+        <v>0.02617637960602456</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05401758117644915</v>
+        <v>0.237054323941116</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0153630731087374</v>
+        <v>0.0294952632017756</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1135095579838176</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02998874546109431</v>
+        <v>0.06571782163944262</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1126892284617765</v>
+        <v>0.2385537053438545</v>
       </c>
       <c r="N211" t="n">
-        <v>0.04817141162020505</v>
+        <v>0.1021647215488698</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1122314230565786</v>
+        <v>0.2375242593046298</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02549407666620401</v>
+        <v>0.02519929261980675</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05401731264798512</v>
+        <v>0.2386779836941374</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01508637002479324</v>
+        <v>0.02972202697872481</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1142870207097342</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02977771692629677</v>
+        <v>0.06637790556986553</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1134610724923366</v>
+        <v>0.240187634832511</v>
       </c>
       <c r="N212" t="n">
-        <v>0.04664969352671056</v>
+        <v>0.1021557483164007</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1130001314336784</v>
+        <v>0.2391511377930177</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0252286706659447</v>
+        <v>0.02422024418686801</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05401704411952111</v>
+        <v>0.2403016434471587</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01501393166492818</v>
+        <v>0.02984654270771364</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1150644834356507</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02877266849817955</v>
+        <v>0.0664329742755207</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1142329165228967</v>
+        <v>0.2418215643211675</v>
       </c>
       <c r="N213" t="n">
-        <v>0.04504456170858218</v>
+        <v>0.1029390449162433</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1137688398107783</v>
+        <v>0.2407780162814056</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02498022453659481</v>
+        <v>0.02523921213016804</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05401677559105709</v>
+        <v>0.24192530320018</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01474648316396475</v>
+        <v>0.02956878477970012</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1158419461615673</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02847446289973563</v>
+        <v>0.06638297048026157</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1150047605534568</v>
+        <v>0.2434554938098241</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04436112294337669</v>
+        <v>0.1029145236720291</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1145375481878781</v>
+        <v>0.2424048947697935</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02498022453659481</v>
+        <v>0.02425617427266648</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05401677559105709</v>
+        <v>0.2435489629532014</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01448474965672547</v>
+        <v>0.02968872758564231</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1166194088874839</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02798396285395796</v>
+        <v>0.06652783690794162</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1157766045840169</v>
+        <v>0.2450894232984806</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04230448400865044</v>
+        <v>0.1030820969073901</v>
       </c>
       <c r="O215" t="n">
-        <v>0.115306256564978</v>
+        <v>0.2440317732581813</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02434257961059433</v>
+        <v>0.02527110843732305</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05394678438397604</v>
+        <v>0.2451726227062227</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01412945627803293</v>
+        <v>0.02990634551649821</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1173968716134004</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02740203108383948</v>
+        <v>0.06596751628241429</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116548448614577</v>
+        <v>0.2467233527871372</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04117975168196003</v>
+        <v>0.1025416769459582</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1160749649420778</v>
+        <v>0.2456586517465692</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02371206738366825</v>
+        <v>0.02628399244709742</v>
       </c>
       <c r="G217" t="n">
-        <v>0.053876793176895</v>
+        <v>0.246796282459244</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01368132816270967</v>
+        <v>0.02982161296322586</v>
       </c>
       <c r="K217" t="n">
-        <v>0.118174334339317</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02692953031237302</v>
+        <v>0.066501951327533</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1173202926451371</v>
+        <v>0.2483572822757937</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03979203274086207</v>
+        <v>0.1029931761113649</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1168436733191777</v>
+        <v>0.2472855302349571</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0230890215391729</v>
+        <v>0.02529480412494921</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05380680196981396</v>
+        <v>0.2484199422122654</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01364109044557822</v>
+        <v>0.02963450431678333</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1189517970652335</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02686732326255165</v>
+        <v>0.06603108476715128</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1180921366756972</v>
+        <v>0.2499912117644502</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03854643396291307</v>
+        <v>0.1031365067272424</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1176123816962776</v>
+        <v>0.248912408723345</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02247377576046491</v>
+        <v>0.02530352129383814</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05373681076273292</v>
+        <v>0.2500436019652867</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01330946826146114</v>
+        <v>0.02974499396812862</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1197292597911501</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02601627265736817</v>
+        <v>0.06625485932512254</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1188639807062574</v>
+        <v>0.2516251412531068</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0373480621256696</v>
+        <v>0.1029715811172223</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1183810900733774</v>
+        <v>0.2505392872117329</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02186666373090063</v>
+        <v>0.02531012177672386</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05366681955565187</v>
+        <v>0.2516672617183081</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01308718674518097</v>
+        <v>0.02995305630821976</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1205067225170667</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02607724121981558</v>
+        <v>0.06627321772530026</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1196358247368175</v>
+        <v>0.2532590707417633</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03630202400668819</v>
+        <v>0.1033983116049365</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1191497984504773</v>
+        <v>0.2521661657001207</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02126801913383661</v>
+        <v>0.02531458339656607</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05359682834857082</v>
+        <v>0.2532909214713294</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01287497103156027</v>
+        <v>0.02975866572801482</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1212841852429832</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02515109167288682</v>
+        <v>0.06618610269153788</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1204076687673776</v>
+        <v>0.2548930002304198</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03511342638352544</v>
+        <v>0.1032166105140168</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1199185068275771</v>
+        <v>0.2537930441885086</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02067817565262949</v>
+        <v>0.02531688397632441</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05352683714148979</v>
+        <v>0.2549145812243508</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01257354625542158</v>
+        <v>0.02996179661847181</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1220616479688998</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02473868673957474</v>
+        <v>0.06629345694768882</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1211795127979377</v>
+        <v>0.2565269297190764</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03418737603373795</v>
+        <v>0.103326390168095</v>
       </c>
       <c r="O222" t="n">
-        <v>0.120687215204677</v>
+        <v>0.2554199226768964</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02009746697063552</v>
+        <v>0.02631040912523781</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05345684593440874</v>
+        <v>0.2565382409773721</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01248363755158743</v>
+        <v>0.0296600109805287</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1228391106948163</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02424088914287234</v>
+        <v>0.06619226803117695</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1219513568284978</v>
+        <v>0.2581608592077329</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03382897973488208</v>
+        <v>0.1030101864496556</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1214559235817768</v>
+        <v>0.2570468011652843</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01952622677121136</v>
+        <v>0.02424805957439499</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05338685472732769</v>
+        <v>0.2581619007303935</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01220597005488038</v>
+        <v>0.02960263669572824</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1236165734207329</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02435856160577254</v>
+        <v>0.06657496041933345</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1227232008590579</v>
+        <v>0.2597947886963894</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03214334426451465</v>
+        <v>0.1027846531493583</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1222246319588767</v>
+        <v>0.2586736796536722</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01896478873771354</v>
+        <v>0.02412623174616324</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05331686352024665</v>
+        <v>0.2597855604834148</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01234126890012299</v>
+        <v>0.02957539889028202</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1243940361466495</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02389256685126823</v>
+        <v>0.06630051601823189</v>
       </c>
       <c r="M225" t="n">
-        <v>0.123495044889618</v>
+        <v>0.261428718185046</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03163557640019204</v>
+        <v>0.1025222761462576</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1229933403359765</v>
+        <v>0.2603005581420601</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0184134865534984</v>
+        <v>0.0249518391861082</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05324687231316561</v>
+        <v>0.2614092202364361</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01209025922213777</v>
+        <v>0.02958628101355468</v>
       </c>
       <c r="K226" t="n">
-        <v>0.125171498872566</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02314376760235243</v>
+        <v>0.0652867902875327</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1242668889201782</v>
+        <v>0.2630626476737025</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03101078291947074</v>
+        <v>0.1011503879679362</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1237620487130764</v>
+        <v>0.261927436630448</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01787265390192261</v>
+        <v>0.02473179543979558</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05317688110608457</v>
+        <v>0.2630328799894575</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01195366615574732</v>
+        <v>0.02924326651491083</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1259489615984826</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02341302658201797</v>
+        <v>0.0647516386868964</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1250387329507383</v>
+        <v>0.2646965771623591</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02997407059990748</v>
+        <v>0.1009963211419767</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1245307570901762</v>
+        <v>0.2635543151188358</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01734262446634249</v>
+        <v>0.02547301405279098</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05310688989900352</v>
+        <v>0.2646565397424789</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01183221483577414</v>
+        <v>0.02885433884371508</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1267264243243991</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02260120651325778</v>
+        <v>0.0646129166759834</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1258105769812984</v>
+        <v>0.2663305066510156</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02953054621905882</v>
+        <v>0.1001874081959612</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1252994654672761</v>
+        <v>0.2651811936072237</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0168237319301146</v>
+        <v>0.02418240857066008</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05303689869192247</v>
+        <v>0.2662801994955002</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0117266303970408</v>
+        <v>0.02862748144933207</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1275038870503157</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02220917011906487</v>
+        <v>0.06338847971445427</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1265824210118585</v>
+        <v>0.2679644361396721</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02918531655448114</v>
+        <v>0.0986509816574726</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1260681738443759</v>
+        <v>0.2668080720956116</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01631630997659558</v>
+        <v>0.02486689253896855</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05296690748484143</v>
+        <v>0.2679038592485215</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01153753787196413</v>
+        <v>0.02817067778112642</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1282813497762322</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02223763432453202</v>
+        <v>0.06269618326196938</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1273542650424186</v>
+        <v>0.2695983656283287</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02904289596623477</v>
+        <v>0.09761437405409318</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1268368822214758</v>
+        <v>0.2684349505839995</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01582069228914169</v>
+        <v>0.02353337950328203</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05289691627776039</v>
+        <v>0.2695275190015429</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01155566589888375</v>
+        <v>0.02799191128846272</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1290588125021488</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02217519160343798</v>
+        <v>0.06205388277818932</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1281261090729787</v>
+        <v>0.2712322951169852</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02854557083596726</v>
+        <v>0.09550491791340554</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1276055905985756</v>
+        <v>0.2700618290723873</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01533721255110964</v>
+        <v>0.0241887830091662</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05282692507067935</v>
+        <v>0.2711511787545642</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01127466166748778</v>
+        <v>0.02749916542070564</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1298362752280654</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02151444446146017</v>
+        <v>0.06137943372277452</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1288979531035388</v>
+        <v>0.2728662246056417</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02845282538009941</v>
+        <v>0.09424994576299206</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1283742989756755</v>
+        <v>0.2716887075607752</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01486620444585574</v>
+        <v>0.02384001660218671</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0527569338635983</v>
+        <v>0.2727748385075855</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0112946221819893</v>
+        <v>0.02720042362721981</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1306137379539819</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.021155669838471</v>
+        <v>0.06029069155538541</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1296697971340989</v>
+        <v>0.2745001540942983</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0280649239697971</v>
+        <v>0.09357679013043552</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1291430073527754</v>
+        <v>0.2733155860491631</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01440800165673657</v>
+        <v>0.02249399382790919</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05268694265651725</v>
+        <v>0.2743984982606069</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01141564444660138</v>
+        <v>0.02650366935736982</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1313912006798985</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02129914467434266</v>
+        <v>0.05950551173568255</v>
       </c>
       <c r="M234" t="n">
-        <v>0.130441641164659</v>
+        <v>0.2761340835829548</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02788213097622594</v>
+        <v>0.09211278354331798</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1299117157298752</v>
+        <v>0.274942464537551</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01396293786710871</v>
+        <v>0.02215762823189935</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05261695144943621</v>
+        <v>0.2760221580136282</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0111378254655371</v>
+        <v>0.02631688606052027</v>
       </c>
       <c r="K235" t="n">
-        <v>0.132168663405815</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02064514590894753</v>
+        <v>0.05874174972332638</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1312134851952191</v>
+        <v>0.2777680130716114</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02740471077055162</v>
+        <v>0.09028525852922231</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1306804241069751</v>
+        <v>0.2765693430259388</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01353134676032849</v>
+        <v>0.02183783335972279</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05254696024235517</v>
+        <v>0.2776458177666495</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01126126224300954</v>
+        <v>0.02594805718603582</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1329461261317316</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02039395048215786</v>
+        <v>0.05741726097797736</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1319853292257793</v>
+        <v>0.2794019425602679</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02763292772393994</v>
+        <v>0.08922154761573098</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1314491324840749</v>
+        <v>0.2781962215143267</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01311356201975254</v>
+        <v>0.02054152275694522</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05247696903527412</v>
+        <v>0.2792694775196709</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01108605178323178</v>
+        <v>0.02560516618328108</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1337235888576482</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02074583533384594</v>
+        <v>0.05714990095929598</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1327571732563394</v>
+        <v>0.2810358720489244</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0266670462075565</v>
+        <v>0.08764898333042626</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1322178408611748</v>
+        <v>0.2798231000027146</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0127099173287373</v>
+        <v>0.02026672206011378</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05240697782819308</v>
+        <v>0.2808931372726923</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0108122910904169</v>
+        <v>0.02508932819082643</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1345010515835647</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02030107740388409</v>
+        <v>0.05634434604794886</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1335290172868995</v>
+        <v>0.282669801537581</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02640733059256722</v>
+        <v>0.08696494310883734</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1329865492382746</v>
+        <v>0.2814499784911025</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01232074637063926</v>
+        <v>0.01999225423273035</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05233698662111204</v>
+        <v>0.2825167970257136</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01104007716877799</v>
+        <v>0.02497550619437253</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1352785143094813</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01995995363214462</v>
+        <v>0.0555447903931236</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1343008613174596</v>
+        <v>0.2843037310262375</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02685404525013774</v>
+        <v>0.08558433604199994</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1337552576153745</v>
+        <v>0.2830768569794904</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01194502028844256</v>
+        <v>0.0197167473810619</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05226699541403099</v>
+        <v>0.284140456778735</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01096950702252811</v>
+        <v>0.02456049225863918</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1360559770353978</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01952274095849976</v>
+        <v>0.05454257478661423</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1350727053480197</v>
+        <v>0.2859376605148941</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02670745455143375</v>
+        <v>0.08479963254875011</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1345239659924743</v>
+        <v>0.2847037354678782</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01157489752326957</v>
+        <v>0.0204401851266626</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05219700420694995</v>
+        <v>0.2857641165317563</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01070067765588035</v>
+        <v>0.02414426747053884</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1368334397613144</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01928971632282195</v>
+        <v>0.05413765692817477</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1358445493785798</v>
+        <v>0.2875715900035505</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02656782286762094</v>
+        <v>0.08371076787731652</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1352926743695742</v>
+        <v>0.2863306139562661</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01120934921810443</v>
+        <v>0.01916255109108662</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0521270129998689</v>
+        <v>0.2873877762847776</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01073368607304778</v>
+        <v>0.02392681291698383</v>
       </c>
       <c r="K242" t="n">
-        <v>0.137610902487231</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01936115666498334</v>
+        <v>0.05342999451755912</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1366163934091399</v>
+        <v>0.2892055194922071</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02613541456986518</v>
+        <v>0.08301767727592746</v>
       </c>
       <c r="O242" t="n">
-        <v>0.136061382746674</v>
+        <v>0.287957492444654</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01084870905630361</v>
+        <v>0.02088382889588813</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05205702179278787</v>
+        <v>0.2890114360377989</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01076862927824351</v>
+        <v>0.0238081096848866</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1383883652131475</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01893733892485627</v>
+        <v>0.05301954525452121</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1373882374397001</v>
+        <v>0.2908394489808637</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0254104940293321</v>
+        <v>0.0819202959928117</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1368300911237739</v>
+        <v>0.2895843709330418</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01049331072122357</v>
+        <v>0.01860400216262133</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05198703058570681</v>
+        <v>0.2906350957908203</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01040560427568057</v>
+        <v>0.02318813886115957</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1391658279390641</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01891854004231314</v>
+        <v>0.05230626683881492</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1381600814702602</v>
+        <v>0.2924733784695202</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02489332561718743</v>
+        <v>0.08071855927619764</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1375987995008737</v>
+        <v>0.2912112494214297</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01014348789622088</v>
+        <v>0.01932305451284037</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05191703937862577</v>
+        <v>0.2922587555438416</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01034470806957208</v>
+        <v>0.02296688153271507</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1399432906649806</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0188050369572261</v>
+        <v>0.05129011697019423</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1389319255008203</v>
+        <v>0.2941073079581767</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02558417370459698</v>
+        <v>0.07891240237431413</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1383675078779736</v>
+        <v>0.2928381279098176</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009799574264652007</v>
+        <v>0.01804096956809946</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05184704817154473</v>
+        <v>0.293882415296863</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0103860376641311</v>
+        <v>0.02284431878646559</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1407207533908972</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01869710660946752</v>
+        <v>0.05037105334841305</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1397037695313804</v>
+        <v>0.2957412374468332</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0244833026627263</v>
+        <v>0.07790176053538939</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1391362162550734</v>
+        <v>0.2944650063982054</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009461903509873443</v>
+        <v>0.01775773094995274</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05177705696446368</v>
+        <v>0.2955060750498843</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01022969006357071</v>
+        <v>0.02222043170932347</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1414982161168138</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01819502593890973</v>
+        <v>0.04964903367322521</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1404756135619405</v>
+        <v>0.2973751669354898</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02439097686274128</v>
+        <v>0.07768656900765231</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1399049246321733</v>
+        <v>0.2960918848865934</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009130809315241691</v>
+        <v>0.0174733222799544</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05170706575738265</v>
+        <v>0.2971297348029057</v>
       </c>
       <c r="J248" t="n">
-        <v>0.010375762272104</v>
+        <v>0.02209520138820112</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1422756788427303</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01819907188542497</v>
+        <v>0.04892401564438478</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1412474575925006</v>
+        <v>0.2990090964241463</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02460746067580766</v>
+        <v>0.07576676303933128</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1406736330092731</v>
+        <v>0.2977187633749812</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008806625364113217</v>
+        <v>0.01818772717965863</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05163707455030159</v>
+        <v>0.298753394555927</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01012435129394404</v>
+        <v>0.02176860891001092</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1430531415686469</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01810952138888552</v>
+        <v>0.04829595696164554</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1420193016230607</v>
+        <v>0.3006430259128029</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02453301847309097</v>
+        <v>0.07504227787865497</v>
       </c>
       <c r="O249" t="n">
-        <v>0.141442341386373</v>
+        <v>0.2993456418633691</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008489685339844566</v>
+        <v>0.01790092927061959</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05156708334322056</v>
+        <v>0.3003770543089484</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01017555413330391</v>
+        <v>0.02154063536166534</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1438306042945634</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01762665138916378</v>
+        <v>0.04756481532476159</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1427911456536208</v>
+        <v>0.3022769554014594</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02466791462575718</v>
+        <v>0.07431304877385186</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1422110497634728</v>
+        <v>0.300972520351757</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008180322925792204</v>
+        <v>0.01761291217439147</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05149709213613951</v>
+        <v>0.3020007140619697</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01022946779439669</v>
+        <v>0.02121126183007671</v>
       </c>
       <c r="K251" t="n">
-        <v>0.14460806702048</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01735073882613192</v>
+        <v>0.04703054843348667</v>
       </c>
       <c r="M251" t="n">
-        <v>0.143562989684181</v>
+        <v>0.3039108848901159</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02451241350497185</v>
+        <v>0.07287901097315058</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1429797581405727</v>
+        <v>0.3025993988401449</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007878871805312639</v>
+        <v>0.01732365951252843</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05142710092905847</v>
+        <v>0.3036243738149911</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01028618928143545</v>
+        <v>0.02068046940215748</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1453855297463965</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01758206063966236</v>
+        <v>0.04639311398757481</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1443348337147411</v>
+        <v>0.3055448143787725</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02416677948190077</v>
+        <v>0.07154009972477965</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1437484665176726</v>
+        <v>0.3042262773285327</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007585665661762331</v>
+        <v>0.01603315490658467</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05135710972197742</v>
+        <v>0.3052480335680124</v>
       </c>
       <c r="J253" t="n">
-        <v>0.009945815598633299</v>
+        <v>0.02024823916482003</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1461629924723131</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01682089376962734</v>
+        <v>0.04555246968677987</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1451066777453012</v>
+        <v>0.307178743867429</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02413127692770972</v>
+        <v>0.07079625027696768</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1445171748947724</v>
+        <v>0.3058531558169206</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007301038178497837</v>
+        <v>0.01674138197811435</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05128711851489638</v>
+        <v>0.3068716933210338</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01010844375020329</v>
+        <v>0.01991455220497676</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1469404551982297</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01716751515589915</v>
+        <v>0.04490857323085581</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1458785217758613</v>
+        <v>0.3088126733560856</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02400617021356433</v>
+        <v>0.06914739787794327</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1452858832718723</v>
+        <v>0.3074800343053085</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007025323038875618</v>
+        <v>0.01744832434867164</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05121712730781534</v>
+        <v>0.3084953530740551</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0100741707403585</v>
+        <v>0.01957938960954007</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1477179179241462</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01712220173835005</v>
+        <v>0.04396138231955654</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1466503658064214</v>
+        <v>0.3104466028447421</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02379172371063032</v>
+        <v>0.06859347777593494</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1460545916489721</v>
+        <v>0.3091069127936963</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006758853926252174</v>
+        <v>0.01515396563981073</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05114713610073429</v>
+        <v>0.3101190128270764</v>
       </c>
       <c r="J256" t="n">
-        <v>0.009843093573312027</v>
+        <v>0.01934273246542235</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1484953806500628</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01668523045685247</v>
+        <v>0.04341085465263597</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1474222098369815</v>
+        <v>0.3120805323333987</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02348820179007355</v>
+        <v>0.06683442521917132</v>
       </c>
       <c r="O256" t="n">
-        <v>0.146823300026072</v>
+        <v>0.3107337912820842</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006501964523984001</v>
+        <v>0.01485828947308578</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05107714489365325</v>
+        <v>0.3117426725800978</v>
       </c>
       <c r="J257" t="n">
-        <v>0.009915309253276945</v>
+        <v>0.01920456185953606</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1492728433759793</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01675687825127861</v>
+        <v>0.04255694792984802</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1481940538675416</v>
+        <v>0.3137144618220551</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02329586882305967</v>
+        <v>0.06627017545588088</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1475920084031718</v>
+        <v>0.3123606697704721</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006254988515427572</v>
+        <v>0.01456127947005099</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0510071536865722</v>
+        <v>0.3133663323331191</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01009091478446632</v>
+        <v>0.01876485887879353</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1500503061018959</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01663742206150079</v>
+        <v>0.04159961985094662</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1489658978981017</v>
+        <v>0.3153483913107117</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0229149891807543</v>
+        <v>0.06420066373429234</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1483607167802717</v>
+        <v>0.31398754825886</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00601825958393943</v>
+        <v>0.01526291925226053</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05093716247949116</v>
+        <v>0.3149899920861405</v>
       </c>
       <c r="J259" t="n">
-        <v>0.009870007171093244</v>
+        <v>0.01822360461010719</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1508277688278125</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01662713882739125</v>
+        <v>0.04093882811568575</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1497377419286618</v>
+        <v>0.3169823207993683</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02284582723432327</v>
+        <v>0.06392582530263413</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1491294251573715</v>
+        <v>0.3156144267472478</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005792111412876041</v>
+        <v>0.01396319244126857</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05086717127241012</v>
+        <v>0.3166136518391618</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01005268341737078</v>
+        <v>0.01798078014038942</v>
       </c>
       <c r="K260" t="n">
-        <v>0.151605231553729</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01612630548882238</v>
+        <v>0.03997453042381924</v>
       </c>
       <c r="M260" t="n">
-        <v>0.150509585959222</v>
+        <v>0.3186162502880248</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02368864735493231</v>
+        <v>0.06264559540913484</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1498981335344714</v>
+        <v>0.3172413052356358</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005576877685593916</v>
+        <v>0.01366208265862929</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05079718006532907</v>
+        <v>0.3182373115921832</v>
       </c>
       <c r="J261" t="n">
-        <v>0.009939040527512037</v>
+        <v>0.01763636655655268</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1523826942796456</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01613519898566645</v>
+        <v>0.03920668447510103</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1512814299897821</v>
+        <v>0.3202501797766814</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02334371391374723</v>
+        <v>0.06085990930202323</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1506668419115712</v>
+        <v>0.3188681837240236</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005372892085449513</v>
+        <v>0.01335957352589687</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05072718885824803</v>
+        <v>0.3198609713452045</v>
       </c>
       <c r="J262" t="n">
-        <v>0.009829175505730071</v>
+        <v>0.01739034494550928</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1531601570055622</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0159540962577957</v>
+        <v>0.03883524796928511</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1520532740203422</v>
+        <v>0.3218841092653378</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02351129128193358</v>
+        <v>0.05986870222952761</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1514355502886711</v>
+        <v>0.3204950622124115</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005180488295799389</v>
+        <v>0.01405564866462548</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05065719765116698</v>
+        <v>0.3214846310982258</v>
       </c>
       <c r="J263" t="n">
-        <v>0.009923185356237964</v>
+        <v>0.01704269639417173</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1539376197314787</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01628327424508255</v>
+        <v>0.03786017860612534</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1528251180509023</v>
+        <v>0.3235180387539944</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02269164383065725</v>
+        <v>0.05837190943987658</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1522042586657709</v>
+        <v>0.3221219407007994</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01375029169636929</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05058720644408594</v>
+        <v>0.3231082908512471</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0100211670832488</v>
+        <v>0.01679340198945235</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1547150824573953</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0156230098873992</v>
+        <v>0.03688143408537564</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1535969620814624</v>
+        <v>0.3251519682426509</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02298503593108386</v>
+        <v>0.05706946618129893</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1529729670428708</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.0505740485493491</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005669024598414271</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05057431707781311</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006334285800016652</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05057458560627713</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006995739958634874</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05057485413474114</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007653343428154408</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05057512266320516</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008307052562403321</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05057539119166918</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008956823715266758</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05057565972013321</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009602613240573113</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05057592824859722</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01024437749220719</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05057619677706124</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01088207282399772</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05057646530552525</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01151565558982918</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05057673383398927</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01214508214353067</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05057700236245329</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01277030883898624</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05057727089091731</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01339129203002541</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05057753941938132</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01400798807053186</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05057780794784534</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01462035331433545</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05057807647630935</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01522834411531952</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05057834500477337</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01583191682731429</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05057861353323739</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01643102780418972</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05057888206170141</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01702563339981539</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05057915059016543</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01761568996802212</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05057941911862944</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01820115386269228</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05057968764709346</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01878198143765706</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05057995617555747</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01935812904679843</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05058022470402149</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01992955304394799</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05058049323248551</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02049638800473917</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05058076176094953</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02105965961351516</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05058103028941354</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02161950244590904</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05058129881787756</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02217587285575312</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05058156734634158</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02272872719692828</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.0505818358748056</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0232780218232672</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05058210440326961</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02382371308865043</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05058237293173364</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02436575734691092</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05058264146019765</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02490411095191726</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05058290998866166</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02543873025753775</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05058317851712568</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0259695716176058</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.0505834470455897</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02649659138600119</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05058371557405372</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02701974591655767</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05058398410251773</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02753899156315472</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05058425263098175</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.0280542846796264</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05058452115944576</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02856558161985184</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05058478968790978</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02907283873766546</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.0505850582163738</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02957601238694604</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05058532674483782</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03007505892152834</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05058559527330184</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03056993469529079</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05058586380176586</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03106059606206853</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05058613233022987</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03154699937573961</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05058640085869389</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03202910099013953</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0505866693871579</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03250685725914597</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05058693791562192</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03298022453659481</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05058720644408594</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03298022453659481</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.0505740485493491</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03348225305285768</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05064457681335818</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03397959520881168</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05071510507736725</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03447212246341873</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05078563334137633</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03495970627564055</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05085616160538541</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03544221810443908</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05092668986939449</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03591952940877616</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05099721813340357</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03639151164761364</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05106774639741265</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03685803627991339</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05113827466142172</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.0373189747646373</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05120880292543081</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03777419856074712</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05127933118943988</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.0382235791272048</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05134985945344896</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03866698792297214</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05142038771745804</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03910429640701102</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05149091598146711</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03953537603828332</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0515614442454762</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03996009827575084</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05163197250948528</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04037833457837546</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05170250077349435</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04078995640511902</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05177302903750343</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04119483521494342</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05184355730151251</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04159284246681048</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05191408556552159</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04198384961968207</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05198461382953067</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04236772813252002</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05205514209353974</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04274434946428619</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05212567035754882</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04311358507394246</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0521961986215579</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04347530642045067</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05226672688556697</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04382990983867846</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05233725514957606</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04418041604302217</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05240778341358514</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04452722136834947</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05247831167759422</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04487019727362219</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05254883994160329</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0452092152178022</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05261936820561237</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04554414665985138</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05268989646962145</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04587486305873154</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05276042473363052</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04620123587340454</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0528309529976396</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04652313656283232</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05290148126164869</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04684043658597659</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05297200952565777</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04715300740179929</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05304253778966685</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04746072046926225</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05311306605367592</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04776344724732735</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.053183594317685</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04806105919495643</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05325412258169408</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04835342777111133</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05332465084570315</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04864042443475394</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05339517910971223</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0489219206448461</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05346570737372131</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04919778786034965</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05353623563773038</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04946789754022646</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05360676390173946</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04973212114343843</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05367729216574855</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04999033012894732</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05374782042975763</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05024239595571502</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05381834869376671</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05048819008270339</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05388887695777578</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05072758396887431</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05395940522178486</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05096044907318961</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05402993348579394</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04530696604879307</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05402993348579394</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05117298407071079</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05558669655424714</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05136990206163991</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.05714345962270036</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05155179898564076</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.05870022269115356</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05171927078237704</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06025698575960677</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05187291339151252</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06181374882805998</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05201332275271096</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06337051189651319</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.0521410948056361</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06492727496496639</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05225682548995166</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06648403803341961</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05236111074532139</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.06804080110187281</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05245454651140906</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.06959756417032602</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0525377287278784</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07115432723877924</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05261125333439315</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07271109030723244</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05267571627061707</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07426785337568564</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.0527317134762139</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07582461644413885</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05277984089084738</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07738137951259205</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05282069445418126</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.07893814258104526</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0528548701058793</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08049490564949847</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05288296378560524</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08205166871795168</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05290557143302278</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.0836084317864049</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05292328898779573</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.0851651948548581</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05293671238958779</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0867219579233113</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05294643757806275</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.08827872099176451</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0529530604928843</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.08983548406021773</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05295717707371624</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09139224712867093</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05295938326022229</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09294901019712415</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05296027499206617</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09450577326557735</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05296044820891167</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09606253633403056</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05292998318781382</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.09761929940248376</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.0528088522263752</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.09917606247093698</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05260216627630709</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1007328255393902</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05231712903271109</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1022895886078434</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05196094419068888</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1038463516762966</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05154081544534209</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1054031147447498</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05106394649177236</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.106959877813203</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05053754102508137</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1085166408816562</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04996880274037073</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1100734039501094</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04936493533274212</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1116301670185626</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04873314249729715</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1131869300870158</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.0480806279291375</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.114743693155469</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04741459532336481</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1163004562239223</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.0467422483750807</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1178572192923755</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04607079077938687</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1194139823608287</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04540742623138491</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1209707454292819</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04475935842617651</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1225275084977351</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04413379105886328</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1240842715661883</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04353792782454689</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1256410346346415</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04297897241832901</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1271977977030947</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04246412853531123</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1287545607715479</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04200059987059525</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1303113238400011</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04159559011928265</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1318680869084543</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04125296512353006</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1334248499769076</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04093516975079727</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1349816130453607</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04062920106297775</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.136538376113814</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.040334330500227</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1380951391822672</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0400498295027005</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1396519022507204</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.0397749695105537</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1412086653191736</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.0395090219639421</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1427654283876268</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03925125830302115</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.14432219145608</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03900094996794633</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1458789545245332</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03875736839887307</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1474357175929864</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03851978503595689</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1489924806614396</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03828747131935324</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03805969868921756</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1521060067983461</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03783573858570538</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1536627698667992</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03761486244897214</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1552195329352525</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0373963417191733</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1567762960037057</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03717944783646435</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1583330590721589</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03696345224100073</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1598898221406121</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03674762637293792</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1614465852090653</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03653124167243142</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1630033482775185</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03631356957963668</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1645601113459717</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03609388153470915</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1661168744144249</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03587144897780431</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1676736374828781</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03564554334907766</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1692304005513313</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03541543608868464</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1707871636197845</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03518039863678071</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1723439266882378</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0349423822118517</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.173900689756691</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03470481136095876</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1754574528251442</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03446770803868041</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1770142158935974</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03423107152316682</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1785709789620506</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03399490109256824</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1801277420305038</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0337591960250348</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.181684505098957</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03352395559871675</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1832412681674102</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03328917909176425</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1847980312358634</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03305486578232752</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1863547943043166</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03282101494855677</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1879115573727698</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03258762586860217</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1894683204412231</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03235469782061393</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1910250835096762</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.0321222300827422</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1925818465781295</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03189022193313729</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1941386096465826</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03165867264994927</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1956953727150359</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03142758151132842</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1972521357834891</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03119694779542491</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.1988088988519423</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03096677078038894</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2003656619203955</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03073704974437072</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2019224249888487</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03050778396552041</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2034791880573019</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03027897272198825</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2050359511257552</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0300506152919244</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2065927141942083</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0298227109534791</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2081494772626615</v>
-      </c>
-    </row>
+        <v>0.3237488191891872</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1189.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003072080997301808</v>
+        <v>0.001539461911318485</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001623659753021342</v>
+        <v>0.0005879654781211786</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004090460021332433</v>
+        <v>0.001891061407963482</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.0008343737653964002</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01169164054665633</v>
+        <v>0.006513564349323986</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001633929488656537</v>
+        <v>0.0008202199893624981</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02275407528999102</v>
+        <v>0.0106032625537601</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001626878488387876</v>
+        <v>0.0008170776243869766</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.003016278072704333</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.001175930956242357</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004151899469111084</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.0016687475307928</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01750886842406352</v>
+        <v>0.01230395369634574</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002669067394774289</v>
+        <v>0.001640439978724996</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03132920168328174</v>
+        <v>0.02297474790107323</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002474759271305872</v>
+        <v>0.001831473222189663</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00759602607877314</v>
+        <v>0.004387101950063296</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004870979259064028</v>
+        <v>0.001763896434363536</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009627946902031274</v>
+        <v>0.005994281495573628</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.002503121296189201</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02389492568444171</v>
+        <v>0.01717215941590847</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004901788465969612</v>
+        <v>0.00234608699703945</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04123611960225754</v>
+        <v>0.0277435203195307</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004880635465163627</v>
+        <v>0.00245123287316093</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009625472828569154</v>
+        <v>0.005608587009301093</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00649463901208537</v>
+        <v>0.002351861912484714</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01197367470185734</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02745703863591525</v>
+        <v>0.02150762414478946</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00653571795462615</v>
+        <v>0.003280879957449993</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04607277374271662</v>
+        <v>0.03455823112128764</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006507513953551502</v>
+        <v>0.003268310497547906</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.002748694111332225</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01339349020762312</v>
+        <v>0.008848568029514711</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004171868826982002</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02978550771201624</v>
+        <v>0.02532609970896735</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008169647443282687</v>
+        <v>0.004101099946812491</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.04151615551106935</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008886610671936754</v>
+        <v>0.004085388121934883</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01442271807566471</v>
+        <v>0.00764608926539069</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009741958518128056</v>
+        <v>0.003527792868727072</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.01015314366851675</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.005006242592378402</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.02821299823660994</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01028975972540045</v>
+        <v>0.004921319936174989</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05414545627319323</v>
+        <v>0.04668552450818569</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009761270930327253</v>
+        <v>0.00490246574632186</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01459122263402571</v>
+        <v>0.008627916938137338</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0113656182711494</v>
+        <v>0.00411575834684825</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01623962764198275</v>
+        <v>0.01125746921072411</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.005840616357774801</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03495488472602765</v>
+        <v>0.03085681930619513</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01143750642059576</v>
+        <v>0.005741539925537486</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05826969921916458</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01138814941871513</v>
+        <v>0.005946341630485926</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0166909923835302</v>
+        <v>0.009573819774597619</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01298927802417074</v>
+        <v>0.004703723824969429</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01749814913309149</v>
+        <v>0.01227413059236377</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006674990123171202</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03781854273026192</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0130714359092523</v>
+        <v>0.006571672260614701</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0626346671245549</v>
+        <v>0.05363626633071833</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.013015027907103</v>
+        <v>0.006536620995095813</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01672108204291996</v>
+        <v>0.01046213368222195</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01461293777719208</v>
+        <v>0.005291689303090608</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01870686704988289</v>
+        <v>0.01321571374966272</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007509363888567602</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04024079901494801</v>
+        <v>0.03509136803005064</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01470536539790884</v>
+        <v>0.007381979904262483</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0660068927471219</v>
+        <v>0.05723903281939768</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01464190639549088</v>
+        <v>0.00735369861948279</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01868054633093685</v>
+        <v>0.01127119456846074</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01623659753021342</v>
+        <v>0.005879654781211785</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01996024177138946</v>
+        <v>0.01409480461884796</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.008343737653964003</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04329965936730953</v>
+        <v>0.03721841680176693</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01633929488656537</v>
+        <v>0.008202199893624982</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06975290884462282</v>
+        <v>0.06078004910113832</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01626878488387876</v>
+        <v>0.008170776243869766</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01856843996632271</v>
+        <v>0.01197933834076437</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01786025728323477</v>
+        <v>0.006467620259332964</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02105273367664356</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04547312957457031</v>
+        <v>0.03932202387924411</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01797322437522191</v>
+        <v>0.009022419882987479</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07393924817481529</v>
+        <v>0.06365311961179088</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01789566337226663</v>
+        <v>0.008987853868256743</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01938381766781935</v>
+        <v>0.01256490090658328</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01948391703625611</v>
+        <v>0.007055585737454143</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02207880314467774</v>
+        <v>0.01562871765073563</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.0100124851847568</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04793921542395413</v>
+        <v>0.04129697124176479</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01960715386387845</v>
+        <v>0.009842639872349977</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07733244349545682</v>
+        <v>0.06655204878720566</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01952254186065451</v>
+        <v>0.00980493149264372</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02112573415416859</v>
+        <v>0.01300621817336788</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02110757678927745</v>
+        <v>0.007643551215575323</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0228329105545244</v>
+        <v>0.01634489098118307</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.0108468589501532</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05027592270268469</v>
+        <v>0.04303804086861157</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02124108335253498</v>
+        <v>0.01066285986171248</v>
       </c>
       <c r="N78" t="n">
-        <v>0.080399027564305</v>
+        <v>0.0702706410632335</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02114942034904238</v>
+        <v>0.0106220091170307</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02079324414411229</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02273123654229879</v>
+        <v>0.008246082333996676</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02400951628521598</v>
+        <v>0.01707036573377355</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.0116812327155496</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05196125719798572</v>
+        <v>0.04544001473906703</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02287501284119152</v>
+        <v>0.01148307985107497</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08390553313911725</v>
+        <v>0.07270270087572478</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02277629883743026</v>
+        <v>0.01143908674141767</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02138540235639227</v>
+        <v>0.01346084800021789</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02435489629532014</v>
+        <v>0.008819482171817678</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02460308071578496</v>
+        <v>0.01810136725550035</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.012515606480946</v>
       </c>
       <c r="L80" t="n">
-        <v>0.053873224697081</v>
+        <v>0.04709767483241376</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02450894232984806</v>
+        <v>0.01230329984043747</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08591849297765114</v>
+        <v>0.07624203266053009</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02440317732581813</v>
+        <v>0.01225616436580465</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02090126350975036</v>
+        <v>0.01363705250583164</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02597855604834148</v>
+        <v>0.009407447649938857</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02530806422526378</v>
+        <v>0.01873412089335677</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.0133499802463424</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05568983098719427</v>
+        <v>0.04910580312793442</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0261428718185046</v>
+        <v>0.01312351982979997</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08880443983766417</v>
+        <v>0.0787824408535</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02603005581420601</v>
+        <v>0.01307324199019163</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0223398823229284</v>
+        <v>0.01381031644695394</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02760221580136282</v>
+        <v>0.009995413128060036</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02581892719268494</v>
+        <v>0.01986485199433612</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.0141843540117388</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05738908185554922</v>
+        <v>0.05045918160491158</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02777680130716113</v>
+        <v>0.01394373981916247</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09012990647691377</v>
+        <v>0.081017729890485</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02765693430259389</v>
+        <v>0.0138903196145786</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0227003135146682</v>
+        <v>0.01398065995306205</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02922587555438417</v>
+        <v>0.01058337860618122</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02643012999708083</v>
+        <v>0.02048978590543167</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.0150187277771352</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05854898308936968</v>
+        <v>0.05265259224262789</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02941073079581768</v>
+        <v>0.01476395980852497</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0922614256531577</v>
+        <v>0.08314170420733569</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02928381279098176</v>
+        <v>0.01470739723896558</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02401531488495935</v>
+        <v>0.01414810315363317</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0308495353074055</v>
+        <v>0.01117134408430239</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0270368185083885</v>
+        <v>0.02130514797363675</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.0158531015425316</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05974754047587935</v>
+        <v>0.054280817020366</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03104466028447421</v>
+        <v>0.01558417979788747</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09334341410489305</v>
+        <v>0.08634816823990277</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03091069127936964</v>
+        <v>0.01552447486335255</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02432140656844443</v>
+        <v>0.01431266617814455</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03247319506042685</v>
+        <v>0.01175930956242357</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02719572736773099</v>
+        <v>0.02220716354594468</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.01668747530792801</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06045730510033775</v>
+        <v>0.05563863791740839</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03267858977313075</v>
+        <v>0.01640439978724996</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09456210367318202</v>
+        <v>0.08793092642403644</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03253756976775751</v>
+        <v>0.01634155248773953</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0226165969178464</v>
+        <v>0.01447436915607343</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03409685481344819</v>
+        <v>0.01234727504054475</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02764408187015668</v>
+        <v>0.02309205796934873</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.0175218490733244</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06104114255681758</v>
+        <v>0.0570208369130378</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03431251926178729</v>
+        <v>0.01722461977661246</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09604061998491553</v>
+        <v>0.09008378319558752</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03416444825614538</v>
+        <v>0.01715863011212651</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02489885778994305</v>
+        <v>0.01463323221689704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03572051456646954</v>
+        <v>0.01293524051866593</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02777954000770962</v>
+        <v>0.02385605659084217</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.0183562228387208</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06219765745570274</v>
+        <v>0.05862219598653681</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03594644875044382</v>
+        <v>0.01804483976597496</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09687094482714709</v>
+        <v>0.09240054299040651</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03579132674453326</v>
+        <v>0.01797570773651349</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02516616104151218</v>
+        <v>0.01478927549009261</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03734417431949088</v>
+        <v>0.01352320599678711</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02829975977243381</v>
+        <v>0.02449538475741836</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.0191905966041172</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06282161175680873</v>
+        <v>0.05973749711718798</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03758037823910036</v>
+        <v>0.01886505975533746</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09804505998692986</v>
+        <v>0.09387501024434397</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03741820523292114</v>
+        <v>0.01879278536090047</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02341647852933156</v>
+        <v>0.01494251910513739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03896783407251223</v>
+        <v>0.01411117147490829</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02870239915637329</v>
+        <v>0.02530626781607058</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.02002497036951361</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0632077674199511</v>
+        <v>0.06126152228427392</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03921430772775689</v>
+        <v>0.01968527974469995</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09935494725131705</v>
+        <v>0.09580098939325032</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03904508372130901</v>
+        <v>0.01960986298528744</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02464778211017897</v>
+        <v>0.01509298319150859</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04059149382553356</v>
+        <v>0.01469913695302946</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02898511615157209</v>
+        <v>0.0259849311137921</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.02085934413491001</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06425088640494545</v>
+        <v>0.06218905346707734</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04084823721641343</v>
+        <v>0.02050549973406245</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1002925884073619</v>
+        <v>0.0971722848729763</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04067196220969689</v>
+        <v>0.02042694060967442</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02585804364083222</v>
+        <v>0.01524068787868347</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0422151535785549</v>
+        <v>0.01528710243115065</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02894556875007424</v>
+        <v>0.02632759999757628</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.02169371790030641</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06444573067160728</v>
+        <v>0.06311487264488078</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04248216670506997</v>
+        <v>0.02132571972342495</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1011499652421177</v>
+        <v>0.09938270111937242</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04229884069808477</v>
+        <v>0.02124401823406139</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02504523497806906</v>
+        <v>0.01538565329613924</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04383881333157625</v>
+        <v>0.01587506790927182</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02938141494392375</v>
+        <v>0.02723049981441636</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02252809166570281</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06498706217975217</v>
+        <v>0.06423376179696688</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04411609619372651</v>
+        <v>0.02214593971278745</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1016190595426377</v>
+        <v>0.1002260425682892</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04392571918647264</v>
+        <v>0.02206109585844837</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0262073279786673</v>
+        <v>0.01552789957335315</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04546247308459759</v>
+        <v>0.016463033387393</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02959031272516464</v>
+        <v>0.02748985591130568</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.0233624654310992</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06596964288919566</v>
+        <v>0.0648405029026182</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04575002568238305</v>
+        <v>0.02296615970214995</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1024918530959752</v>
+        <v>0.101596113655577</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04555259767486051</v>
+        <v>0.02287817348283535</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02434229449940473</v>
+        <v>0.01566744683980244</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04708613283761894</v>
+        <v>0.01705099886551418</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02966992008584096</v>
+        <v>0.02800189363523752</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02419683919649561</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06588823475975328</v>
+        <v>0.06522987794111737</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04738395517103958</v>
+        <v>0.02378637969151244</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1027603276891835</v>
+        <v>0.1019867188170866</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04717947616324839</v>
+        <v>0.02369525110722233</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02444810639705911</v>
+        <v>0.01580431522496433</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04870979259064027</v>
+        <v>0.01763896434363536</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03001789501799675</v>
+        <v>0.02846283833320518</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.02503121296189201</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06673759975124058</v>
+        <v>0.06589666889174703</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04901788465969612</v>
+        <v>0.02460659968087495</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1032164651093155</v>
+        <v>0.1034916624886686</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04880635465163627</v>
+        <v>0.0245123287316093</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02652273552840823</v>
+        <v>0.01593852485831607</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05033345234366162</v>
+        <v>0.01822692982175654</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03003189551367597</v>
+        <v>0.02886891535220198</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02586558672728841</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06651249982347315</v>
+        <v>0.06663565773378979</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05065181414835266</v>
+        <v>0.02542681967023744</v>
       </c>
       <c r="N96" t="n">
-        <v>0.103652247143425</v>
+        <v>0.1034047491061734</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05043323314002415</v>
+        <v>0.02532940635599628</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.01607009586933487</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05195711209668296</v>
+        <v>0.01881489529987771</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03000957956492271</v>
+        <v>0.02931635003922119</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02669996049268481</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06680769693626654</v>
+        <v>0.06714162644652824</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0522857436370092</v>
+        <v>0.02624703965959994</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.1043197831054516</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05206011162841202</v>
+        <v>0.02614648398038325</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02657135532582561</v>
+        <v>0.01619904838749799</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0535807718497043</v>
+        <v>0.01940286077799889</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.02980136774125614</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02753433425808121</v>
       </c>
       <c r="L98" t="n">
         <v>0.06734180163101358</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05391967312566574</v>
+        <v>0.02706725964896244</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1042306722017884</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0536869901167999</v>
+        <v>0.02696356160477023</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02455691128505701</v>
+        <v>0.01632540254228266</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05520443160272565</v>
+        <v>0.01999082625612007</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03004990693597301</v>
+        <v>0.02972019380530012</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.02836870802347761</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06673997314046384</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05555360261432227</v>
+        <v>0.02788747963832493</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1038960548918527</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05531386860518777</v>
+        <v>0.02778063922915721</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02552594702987394</v>
+        <v>0.0164491784631661</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05682809135574698</v>
+        <v>0.02057879173424125</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03012909434898865</v>
+        <v>0.02996905357834644</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.02920308178887401</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06730490026882591</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05718753210297881</v>
+        <v>0.02870769962768744</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1038948749979732</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05694074709357565</v>
+        <v>0.02859771685354418</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02647953145024294</v>
+        <v>0.01657039627962556</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05845175110876834</v>
+        <v>0.02116675721236243</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02988956979968577</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.03003745555427041</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06712732683213909</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05882146159163535</v>
+        <v>0.02952791961704993</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1040313583882609</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05856762558196352</v>
+        <v>0.02941479447793116</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0244187334361305</v>
+        <v>0.01668907612113827</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06007541086178967</v>
+        <v>0.02175472269048361</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02983256759379686</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.03087182931966681</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06711001342863732</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06045539108029187</v>
+        <v>0.03034813960641243</v>
       </c>
       <c r="N102" t="n">
-        <v>0.103609730892171</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0601945040703514</v>
+        <v>0.03023187210231814</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02534462187750315</v>
+        <v>0.01680523811718146</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06169907061481101</v>
+        <v>0.02234268816860479</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02985932203705452</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.03170620308506321</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06635572065655451</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06208932056894842</v>
+        <v>0.03116835959577493</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1031342183391589</v>
+        <v>0.1034306722776057</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06182138255873927</v>
+        <v>0.03104894972670511</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0262582656643274</v>
+        <v>0.01691890239723237</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06332273036783236</v>
+        <v>0.02293065364672596</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02997106743519133</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.03254057685045961</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06636720911412453</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06372325005760496</v>
+        <v>0.03198857958513743</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1031090465586801</v>
+        <v>0.1039306722776057</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06344826104712716</v>
+        <v>0.03186602735109209</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02616073368656976</v>
+        <v>0.01703008909076823</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06494639012085369</v>
+        <v>0.02351861912484714</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02966903809393984</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.03337495061585601</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06604723939958138</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0653571795462615</v>
+        <v>0.03280879957449993</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1029384413801898</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06507513953551503</v>
+        <v>0.03268310497547906</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02405309483419676</v>
+        <v>0.01713881832726628</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06657004987387505</v>
+        <v>0.02410658460296832</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02965446831903261</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.0342093243812524</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0661985721111589</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06699110903491803</v>
+        <v>0.03362901956386242</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1025266286331434</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0667020180239029</v>
+        <v>0.03350018259986604</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0239364179971749</v>
+        <v>0.01724511023620376</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06819370962689639</v>
+        <v>0.0246945500810895</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02952859241620219</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.03504369814664881</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06552396784709097</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06862503852357457</v>
+        <v>0.03444923955322492</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1016778341469964</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06832889651229077</v>
+        <v>0.03431726022425302</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02581177206547072</v>
+        <v>0.01734898494705787</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06981736937991773</v>
+        <v>0.02528251555921068</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02929264469118117</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03587807191204521</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06552618720561157</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07025896801223111</v>
+        <v>0.03526945954258742</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1008962837512042</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06995577500067865</v>
+        <v>0.03513433784863999</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0246802259290507</v>
+        <v>0.0174504625893059</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07144102913293908</v>
+        <v>0.02587048103733186</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02934785944970213</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03671244567744161</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06500799078495456</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07189289750088763</v>
+        <v>0.03608967953194991</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1000862032752218</v>
+        <v>0.1043306722776057</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07158265348906652</v>
+        <v>0.03595141547302697</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02354284847788138</v>
+        <v>0.01754956329242505</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0730646888859604</v>
+        <v>0.02645844651545304</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02919547099749757</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03754681944283801</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06497213918335393</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07352682698954419</v>
+        <v>0.03690989952131242</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1002518185485051</v>
+        <v>0.1040306722776057</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0732095319774544</v>
+        <v>0.03676849309741394</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02540070860192928</v>
+        <v>0.01764630718589255</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07468834863898176</v>
+        <v>0.02704641199357421</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02883671364030009</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03838119320823441</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06452139299904344</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07516075647820072</v>
+        <v>0.03773011951067491</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09929735540050916</v>
+        <v>0.1034306722776057</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07483641046584227</v>
+        <v>0.03758557072180093</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02425487519116087</v>
+        <v>0.01774071439918564</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0763120083920031</v>
+        <v>0.02763437747169539</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02867282168384226</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.03921556697363081</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06395851283025711</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07679468596685725</v>
+        <v>0.03855033950003741</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09842703966068939</v>
+        <v>0.1034306722776057</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07646328895423016</v>
+        <v>0.0384026483461879</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02410641713554272</v>
+        <v>0.01783280506178158</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07793566814502445</v>
+        <v>0.02822234294981657</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02840502943385663</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.04004994073902721</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06358625927522885</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07842861545551379</v>
+        <v>0.03937055948939991</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0978450971585012</v>
+        <v>0.1038306722776057</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07809016744261803</v>
+        <v>0.03921972597057488</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02295640332504136</v>
+        <v>0.01792259930315757</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07955932789804579</v>
+        <v>0.02881030842793775</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02823457119607578</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04088431450442361</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06330739293219254</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08006254494417034</v>
+        <v>0.04019077947876241</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09795575372339999</v>
+        <v>0.1037306722776057</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0797170459310059</v>
+        <v>0.04003680359496185</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02480590264962322</v>
+        <v>0.01801011725279087</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08118298765106713</v>
+        <v>0.02939827390605893</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02826268127623223</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.04171868826982001</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0629246743993821</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08169647443282686</v>
+        <v>0.04101099946812491</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09756323518484111</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08134392441939378</v>
+        <v>0.04085388121934883</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02465598399925489</v>
+        <v>0.01809537904015869</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08280664740408847</v>
+        <v>0.02998623938418011</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0280905939800586</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04255306203521642</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0624408642750314</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0833304039214834</v>
+        <v>0.0418312194574874</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09647176737227997</v>
+        <v>0.1042306722776057</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08297080290778165</v>
+        <v>0.04167095884373581</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02250771626390285</v>
+        <v>0.01817840479473828</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08443030715710981</v>
+        <v>0.03057420486230129</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02771954361328743</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.04338743580061281</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06185872315737442</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08496433341013994</v>
+        <v>0.0426514394468499</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09558557611517177</v>
+        <v>0.1041306722776057</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08459768139616954</v>
+        <v>0.04248803646812278</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02435013281597979</v>
+        <v>0.01825921464600689</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08605396691013116</v>
+        <v>0.03116217034042246</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02774975225578132</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.04422180956600921</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06188099492060431</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08659826289879648</v>
+        <v>0.0434716594362124</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09528592069923675</v>
+        <v>0.1043306722776057</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08622455988455741</v>
+        <v>0.04330511409250976</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02417096292250973</v>
+        <v>0.01833782872344172</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0876776266631525</v>
+        <v>0.03175013581854364</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02736141051451414</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04505618333140562</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06127449613617655</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08823219238745302</v>
+        <v>0.0442918794255749</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09520353771359119</v>
+        <v>0.1037306722776057</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08785143837294529</v>
+        <v>0.04412219171689674</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02197364764146095</v>
+        <v>0.01841426715652002</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08930128641617384</v>
+        <v>0.03233810129666483</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02744946724374243</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04589055709680202</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06061323104257069</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08986612187610955</v>
+        <v>0.0451120994149374</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0937456095088679</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08947831686133316</v>
+        <v>0.04493926934128371</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02276166954411436</v>
+        <v>0.01848855007471905</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09092494616919518</v>
+        <v>0.032926066774786</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0271179439590859</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.04672493086219841</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06060619399882136</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09150005136476609</v>
+        <v>0.04593231940429989</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09362590434256796</v>
+        <v>0.1039306722776057</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09110519534972103</v>
+        <v>0.04575634696567069</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02253851120175089</v>
+        <v>0.018560697607516</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09254860592221652</v>
+        <v>0.03351403225290718</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02697086217616426</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.04755930462759481</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05966237936396349</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09313398085342263</v>
+        <v>0.0467525393936624</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09265819047219259</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0927320738381089</v>
+        <v>0.04657342459005766</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02130765518565143</v>
+        <v>0.01863072988438813</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09417226567523787</v>
+        <v>0.03410199773102836</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02641224341059722</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.04839367839299121</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05929078149703187</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09476791034207917</v>
+        <v>0.04757275938302489</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09125623615524275</v>
+        <v>0.1038306722776057</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09435895232649678</v>
+        <v>0.04739050221444465</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02307258406709692</v>
+        <v>0.01869866703481268</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09579592542825921</v>
+        <v>0.03468996320914954</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02644610917800445</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.04922805215838761</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0589003947570613</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09640183983073571</v>
+        <v>0.04839297937238739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09073380964921951</v>
+        <v>0.1037306722776057</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09598583081488465</v>
+        <v>0.04820757983883162</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02283678041736824</v>
+        <v>0.01876452918826687</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09741958518128055</v>
+        <v>0.03527792868727071</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02597648099400569</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.05006242592378402</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05810021350308658</v>
+        <v>0.06684180163101358</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09803576931939224</v>
+        <v>0.04921319936174989</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08910467921162402</v>
+        <v>0.1042306722776057</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09761270930327254</v>
+        <v>0.04902465746321859</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02260372680774628</v>
+        <v>0.01882833647422792</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0990432449343019</v>
+        <v>0.0358658941653919</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02570738037422064</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.05089679968918041</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05739923209414249</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09966969880804878</v>
+        <v>0.05003341935111238</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08828261309995722</v>
+        <v>0.1041306722776057</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09923958779166041</v>
+        <v>0.04984173508760557</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.021376905809512</v>
+        <v>0.01889010902217311</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1006669046873232</v>
+        <v>0.03645385964351307</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02544282883426899</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05173117345457681</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05700644488926387</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1013036282967053</v>
+        <v>0.05085363934047488</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08758137957172046</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1008664662800483</v>
+        <v>0.05065881271199255</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02215979999394627</v>
+        <v>0.01894986696157965</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1022905644403446</v>
+        <v>0.03704182512163425</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02538684788977044</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.05256554721997322</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05663084624748552</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1029375577853618</v>
+        <v>0.05167385932983738</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08651474688441463</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1024933447684361</v>
+        <v>0.05147589033637953</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01994386924048762</v>
+        <v>0.01900763042192476</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1039142241933659</v>
+        <v>0.03762979059975543</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02514294466862423</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05339992098536962</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05588143052784225</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1045714872740184</v>
+        <v>0.05249407931919988</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08557570428900735</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O129" t="n">
-        <v>0.104120223256824</v>
+        <v>0.0522929679607665</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01970789866018377</v>
+        <v>0.01906341953268569</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1055378839463873</v>
+        <v>0.03821775607787661</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02468756564859649</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05423429475076601</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05502394740485927</v>
+        <v>0.06684180163101358</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1062054167626749</v>
+        <v>0.05331429930856238</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08496649767223408</v>
+        <v>0.1039306722776057</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1057471017452119</v>
+        <v>0.05311004558515348</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01945603117082526</v>
+        <v>0.01911725442333968</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071615436994086</v>
+        <v>0.03880572155599778</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02441028237149312</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05506866851616241</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05451501124811509</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1078393462513315</v>
+        <v>0.05413451929792488</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08458934214105096</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1073739802335998</v>
+        <v>0.05392712320954045</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01919325207422093</v>
+        <v>0.01916915522336395</v>
       </c>
       <c r="G132" t="n">
-        <v>0.10878520345243</v>
+        <v>0.03939368703411896</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02421685163810181</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.05590304228155882</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05406730790760131</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M132" t="n">
-        <v>0.109473275739988</v>
+        <v>0.05495473928728737</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08356394696010444</v>
+        <v>0.1042306722776057</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1090008587219877</v>
+        <v>0.05474420083392744</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02092454667217963</v>
+        <v>0.01921914206223575</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1104088632054513</v>
+        <v>0.03998165251224015</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02381303024921028</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05673741604695522</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05339371281091115</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1111072052286445</v>
+        <v>0.05577495927664987</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08151002139404068</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1106277372103755</v>
+        <v>0.05556127845831441</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01965490026651022</v>
+        <v>0.01926723506943231</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1120325229584726</v>
+        <v>0.04056961799036132</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02340457500560625</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05757178981235161</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05290710138563784</v>
+        <v>0.06724180163101359</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1127411347173011</v>
+        <v>0.05659517926601237</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0804472747075059</v>
+        <v>0.1043306722776057</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1122546156987634</v>
+        <v>0.05637835608270138</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02038929815902152</v>
+        <v>0.01931345437443086</v>
       </c>
       <c r="G135" t="n">
-        <v>0.113656182711494</v>
+        <v>0.0411575834684825</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02309724270807742</v>
+        <v>0.03005293098442144</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.05840616357774802</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05162034905937465</v>
+        <v>0.06684180163101358</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1143750642059576</v>
+        <v>0.05741539925537487</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07959541616514632</v>
+        <v>0.1040306722776057</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1138814941871513</v>
+        <v>0.05719543370708836</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01813272565152239</v>
+        <v>0.01935782010670861</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1152798424645153</v>
+        <v>0.04174554894660368</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02289679015741151</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.05924053734314442</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05094633125971479</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1160089936946141</v>
+        <v>0.05823561924473737</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07887415503160827</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1155083726755392</v>
+        <v>0.05801251133147534</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01789016804582166</v>
+        <v>0.01940035239574285</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1169035022175367</v>
+        <v>0.04233351442472486</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02250897415439625</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.06007491110854082</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05029792341425146</v>
+        <v>0.06684180163101358</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1176429231832707</v>
+        <v>0.05905583923409986</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07790320057153793</v>
+        <v>0.1040306722776057</v>
       </c>
       <c r="O137" t="n">
-        <v>0.117135251163927</v>
+        <v>0.05882958895586232</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0176666106437282</v>
+        <v>0.01944107137101077</v>
       </c>
       <c r="G138" t="n">
-        <v>0.118527161970558</v>
+        <v>0.04292147990284603</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02223955149981933</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.06090928487393722</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04978800095057792</v>
+        <v>0.06714180163101358</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1192768526719272</v>
+        <v>0.05987605922346236</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07720226204958136</v>
+        <v>0.1039306722776057</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1187621296523149</v>
+        <v>0.05964666658024929</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01746703874705084</v>
+        <v>0.01947999716198963</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1201508217235793</v>
+        <v>0.04350944538096722</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02219427899446848</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06174365863933362</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04952943929628739</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1209107821605837</v>
+        <v>0.06069627921282486</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07659104873038508</v>
+        <v>0.1035306722776057</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1203890081407028</v>
+        <v>0.06046374420463627</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01729643765759842</v>
+        <v>0.01951714989815665</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1217744814766007</v>
+        <v>0.04409741085908839</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02187891343913138</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06257803240473002</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0488351138789731</v>
+        <v>0.06674180163101359</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1225447116492403</v>
+        <v>0.06151649920218736</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07548926987859517</v>
+        <v>0.1039306722776057</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1220158866290907</v>
+        <v>0.06128082182902325</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01915979267717981</v>
+        <v>0.01955254970898908</v>
       </c>
       <c r="G141" t="n">
-        <v>0.123398141229622</v>
+        <v>0.04468537633720957</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02179921163459581</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.06341240617012642</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04881790012622836</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1241786411378968</v>
+        <v>0.06233671919154987</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07471663475885787</v>
+        <v>0.1036306722776057</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1236427651174785</v>
+        <v>0.06209789945341022</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01706208910760382</v>
+        <v>0.01958621672396412</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1250218009826434</v>
+        <v>0.04527334181533075</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02146093038164942</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.06424677993552282</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04789067346564627</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1258125706265534</v>
+        <v>0.06315693918091235</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07419285263581937</v>
+        <v>0.1043306722776057</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1252696436058664</v>
+        <v>0.06291497707779721</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01700831225067932</v>
+        <v>0.01961817107255905</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1266454607356647</v>
+        <v>0.04586130729345193</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02156982648107995</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06508115370091923</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04766630932482013</v>
+        <v>0.06694180163101357</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1274465001152099</v>
+        <v>0.06397715917027486</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07393763277412602</v>
+        <v>0.1038306722776057</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1268965220942543</v>
+        <v>0.06373205470218418</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01799981160277125</v>
+        <v>0.01964843288425108</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1282691204886861</v>
+        <v>0.04644927277157311</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02143165673367511</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06591552746631563</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04775768313134318</v>
+        <v>0.06704180163101359</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1290804296038665</v>
+        <v>0.06479737915963735</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07376832907718373</v>
+        <v>0.1035305179439089</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1285234005826422</v>
+        <v>0.06454913232657115</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01900647139993823</v>
+        <v>0.01967702228851743</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1298927802417074</v>
+        <v>0.04703723824969428</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02133383397594055</v>
+        <v>0.02995293098442145</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06674990123171202</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04785338595877048</v>
+        <v>0.0672406142963676</v>
       </c>
       <c r="M145" t="n">
-        <v>0.130714359092523</v>
+        <v>0.06561759914899985</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07468776264395993</v>
+        <v>0.1035259829084089</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1301502790710301</v>
+        <v>0.06536620995095813</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01902018489018931</v>
+        <v>0.01970395941483537</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1315164399947287</v>
+        <v>0.04762520372781547</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02154504710718244</v>
+        <v>0.03015293098442144</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.06758427499710841</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04797496367134088</v>
+        <v>0.06693550639917425</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1323482885811795</v>
+        <v>0.06643781913836236</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07373536860382046</v>
+        <v>0.1043153349785363</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1317771575594179</v>
+        <v>0.0661832875753451</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01904058575536355</v>
+        <v>0.01972926439268211</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1331400997477501</v>
+        <v>0.04821316920593664</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02146418126251072</v>
+        <v>0.03005242376651743</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.06841864876250481</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04781440583819715</v>
+        <v>0.06702650852813666</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1339822180698361</v>
+        <v>0.06725803912772484</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07450969872717855</v>
+        <v>0.103698805995533</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1334040360478058</v>
+        <v>0.06700036519973208</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01806730767730005</v>
+        <v>0.01975295735153489</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1347637595007714</v>
+        <v>0.04880113468405782</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02149081343430058</v>
+        <v>0.03005010830374931</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.06925302252790122</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04827076637760983</v>
+        <v>0.06721377191690903</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1356161475584926</v>
+        <v>0.06807825911708734</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07400930478444762</v>
+        <v>0.1034766278006407</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1350309145361937</v>
+        <v>0.06781744282411906</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01809998433783785</v>
+        <v>0.01977505842087095</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1363874192537928</v>
+        <v>0.049389100162179</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0216245206149271</v>
+        <v>0.03014598433992259</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.07008739629329762</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04784309920784946</v>
+        <v>0.06699744779914582</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1372500770471491</v>
+        <v>0.06889847910644985</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07463273854604074</v>
+        <v>0.1041490322351015</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1366577930245815</v>
+        <v>0.06863452044850604</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01713824941881605</v>
+        <v>0.01979558773016753</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1380110790068141</v>
+        <v>0.04997706564030018</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02166487979676546</v>
+        <v>0.03024012339413815</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.07092177005869402</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0483304582471866</v>
+        <v>0.06707768740850142</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1388840065358057</v>
+        <v>0.06971869909581234</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07517855178237121</v>
+        <v>0.1036162511401569</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1382846715129694</v>
+        <v>0.06945159807289301</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0171817366020737</v>
+        <v>0.01981456540890184</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1396347387598355</v>
+        <v>0.05056503111842135</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02171146797219077</v>
+        <v>0.03013259698549682</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07175614382409042</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04823189741389181</v>
+        <v>0.06665464197863025</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1405179360244622</v>
+        <v>0.07053891908517484</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07484529626385228</v>
+        <v>0.103578516357049</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1399115500013573</v>
+        <v>0.07026867569727999</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01923007956944989</v>
+        <v>0.01983201158655114</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1412583985128568</v>
+        <v>0.05115299659654254</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02176386213357817</v>
+        <v>0.03022347663309949</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.07259051758948681</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04854647062623563</v>
+        <v>0.06662846274318673</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1421518655131187</v>
+        <v>0.07135913907453734</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07473152376089726</v>
+        <v>0.1042360597270194</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1415384284897452</v>
+        <v>0.07108575332166697</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01828291200278368</v>
+        <v>0.01984794639259266</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1428820582658782</v>
+        <v>0.05174096207466371</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0219216392733028</v>
+        <v>0.03011283385604702</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07342489135488321</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04867323180248867</v>
+        <v>0.0670993009358252</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1437857950017753</v>
+        <v>0.07217935906389983</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07553578604391942</v>
+        <v>0.1037891130913101</v>
       </c>
       <c r="O153" t="n">
-        <v>0.143165306978133</v>
+        <v>0.07190283094605394</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01933986758391416</v>
+        <v>0.01986238995650361</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1445057180188995</v>
+        <v>0.0523289275527849</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02178437638373981</v>
+        <v>0.03010074017344026</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07425926512027962</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04861123486092142</v>
+        <v>0.06676730779020001</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1454197244904318</v>
+        <v>0.07299957905326233</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07525663488333184</v>
+        <v>0.1033379082911628</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1447921854665209</v>
+        <v>0.07271990857044092</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01940057999468037</v>
+        <v>0.01987536240776126</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1461293777719208</v>
+        <v>0.05291689303090608</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02205165045726434</v>
+        <v>0.03018726710438009</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07509363888567602</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04895953371980447</v>
+        <v>0.06653263453996575</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1470536539790884</v>
+        <v>0.07381979904262484</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07559262204954786</v>
+        <v>0.1035826771678194</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1464190639549088</v>
+        <v>0.07353698619482789</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01946745156220763</v>
+        <v>0.01988688387584282</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1477530375249421</v>
+        <v>0.05350485850902725</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02192303848625152</v>
+        <v>0.02997248616796734</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07592801265107242</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04871718229740837</v>
+        <v>0.0666954324187766</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1486875834677449</v>
+        <v>0.07464001903198733</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07554308658653253</v>
+        <v>0.1035236515625218</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1480459424432967</v>
+        <v>0.07435406381921487</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01958296541387134</v>
+        <v>0.01989697449022552</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1493766972779635</v>
+        <v>0.05409282398714842</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02222029028118239</v>
+        <v>0.03005646888330292</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.07676238641646882</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04941380042816548</v>
+        <v>0.06645585266028708</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1503215129564014</v>
+        <v>0.07546023902134982</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07684641144135529</v>
+        <v>0.1037610633165117</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1496728209316845</v>
+        <v>0.07517114144360186</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01875319308033976</v>
+        <v>0.01990565438038663</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1510003570309849</v>
+        <v>0.05468078946526961</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02228504375773976</v>
+        <v>0.03003928676948765</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.07759676018186522</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04965702476001646</v>
+        <v>0.06651404649815157</v>
       </c>
       <c r="M158" t="n">
-        <v>0.151955442445058</v>
+        <v>0.07628045901071233</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07727487308733982</v>
+        <v>0.1031951442710309</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1512996994200724</v>
+        <v>0.07598821906798883</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01796707630047488</v>
+        <v>0.01991294367580336</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1526240167840062</v>
+        <v>0.05526875494339079</v>
       </c>
       <c r="J159" t="n">
-        <v>0.022606347182635</v>
+        <v>0.02992101134562242</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.07843113394726162</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05023131647119078</v>
+        <v>0.06697016516602444</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1535893719337145</v>
+        <v>0.07710067900007482</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07808475296868883</v>
+        <v>0.1033261262673213</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1529265779084603</v>
+        <v>0.0768052966923758</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01821355681313871</v>
+        <v>0.01991886250595295</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1542476765370275</v>
+        <v>0.05585672042151196</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0226714309766388</v>
+        <v>0.02980171413080809</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.07926550771265801</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05080811563772619</v>
+        <v>0.06672435989756012</v>
       </c>
       <c r="M160" t="n">
-        <v>0.155223301422371</v>
+        <v>0.07792089898943733</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07903233252960506</v>
+        <v>0.1036542411466249</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1545534563968482</v>
+        <v>0.07762237431676278</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02048157635719325</v>
+        <v>0.01992343100031262</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1558713362900489</v>
+        <v>0.05644468589963315</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02296752556052184</v>
+        <v>0.0299814666441455</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.08009988147805443</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05085886233566048</v>
+        <v>0.06647678192641296</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1568572309110276</v>
+        <v>0.07874111897879982</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07957389321429137</v>
+        <v>0.1031797207501832</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1561803348852361</v>
+        <v>0.07843945194114976</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0197600766715005</v>
+        <v>0.01992666928835961</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1574949960430702</v>
+        <v>0.05703265137775432</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02338186135505486</v>
+        <v>0.02986034040473552</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.08093425524345083</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05205499664103141</v>
+        <v>0.06622758248623745</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1584911603996841</v>
+        <v>0.07956133896816231</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08096571646695044</v>
+        <v>0.1030027969192382</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1578072133736239</v>
+        <v>0.07925652956553673</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01903799949492245</v>
+        <v>0.01992859749957119</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1591186557960916</v>
+        <v>0.05762061685587549</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02360166878100857</v>
+        <v>0.02983840693167904</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08176862900884722</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05236795862987678</v>
+        <v>0.06637691281068789</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1601250898883407</v>
+        <v>0.08038155895752482</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0819640837317851</v>
+        <v>0.1035237014950317</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1594340918620118</v>
+        <v>0.08007360718992371</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02030428656632111</v>
+        <v>0.01992923576342454</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1607423155491129</v>
+        <v>0.05820858233399667</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02401417825915365</v>
+        <v>0.0299157377440769</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08260300277424362</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05356918837823435</v>
+        <v>0.06662492413341872</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1617590193769972</v>
+        <v>0.08120177894688732</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08262527645299805</v>
+        <v>0.1026426663188055</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1610609703503997</v>
+        <v>0.08089068481431068</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02054787962455844</v>
+        <v>0.01992923576342454</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1623659753021343</v>
+        <v>0.05820858233399667</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02430662021026082</v>
+        <v>0.02989240436102995</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.08343737653964002</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05403012596214185</v>
+        <v>0.06667176768808433</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1633929488656537</v>
+        <v>0.08202199893624981</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08440557607479227</v>
+        <v>0.1023599232318015</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1626878488387876</v>
+        <v>0.08170776243869766</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02175853870705868</v>
+        <v>0.01946764216420445</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1639896350551556</v>
+        <v>0.05820831380553266</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02446622505510081</v>
+        <v>0.02986847830163906</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.08427175030503642</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05472221145763712</v>
+        <v>0.06601759470833909</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1650268783543103</v>
+        <v>0.0828422189256123</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08476127634791492</v>
+        <v>0.1029757040752615</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1643147273271754</v>
+        <v>0.08252484006308465</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0199532948935613</v>
+        <v>0.01901138770310069</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1656132948081769</v>
+        <v>0.05820804527706865</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02479302256445561</v>
+        <v>0.02964403108500513</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.08510612407043283</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05483456390700525</v>
+        <v>0.06646255642783747</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1666608078429668</v>
+        <v>0.08366243891497481</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08523198636782914</v>
+        <v>0.1023902406904273</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1659416058155633</v>
+        <v>0.08334191768747162</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02014328111663072</v>
+        <v>0.01856103788927953</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1672369545611983</v>
+        <v>0.05820777674860462</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02511279044342953</v>
+        <v>0.02961913423022898</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08594049783582923</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05552640756393082</v>
+        <v>0.06650680408023379</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1682947373316233</v>
+        <v>0.0844826589043373</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08598360960826057</v>
+        <v>0.1025037649185408</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1675684843039512</v>
+        <v>0.08415899531185859</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02132884817759319</v>
+        <v>0.01811715823196593</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1688606143142196</v>
+        <v>0.05820750822014061</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02522729612891769</v>
+        <v>0.02959385925641148</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.08677487160122563</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05630636301119524</v>
+        <v>0.06595048889918248</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1699286668202799</v>
+        <v>0.08530287889369981</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08691753295338228</v>
+        <v>0.1027165086008436</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1691953627923391</v>
+        <v>0.08497607293624557</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02151034687777498</v>
+        <v>0.01768031424032588</v>
       </c>
       <c r="G170" t="n">
-        <v>0.170484274067241</v>
+        <v>0.05820723969167659</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02543694471040696</v>
+        <v>0.02966827768265348</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.08760924536662203</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05647533625554585</v>
+        <v>0.06609376211833795</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1715625963089364</v>
+        <v>0.08612309888306231</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08763514328736771</v>
+        <v>0.1019287035785778</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1708222412807269</v>
+        <v>0.08579315056063254</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02068812801850238</v>
+        <v>0.0172510714235451</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1721079338202623</v>
+        <v>0.05820697116321258</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02574214127738414</v>
+        <v>0.02964246102805587</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.08844361913201843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05673423330372984</v>
+        <v>0.06623677497135461</v>
       </c>
       <c r="M171" t="n">
-        <v>0.173196525797593</v>
+        <v>0.08694331887242479</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08833782749438995</v>
+        <v>0.1020397409362003</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1724491197691148</v>
+        <v>0.08661022818501952</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02286254240110165</v>
+        <v>0.01682999529079118</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1737315935732837</v>
+        <v>0.05820670263474855</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02594329091933606</v>
+        <v>0.02971648081171951</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.08927799289741482</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05748396016249452</v>
+        <v>0.06587349519708971</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1748304552862495</v>
+        <v>0.0877635388617873</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08972697245862243</v>
+        <v>0.1027341328185252</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1740759982575027</v>
+        <v>0.0874273058094065</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02303394082689905</v>
+        <v>0.01641765135128653</v>
       </c>
       <c r="G173" t="n">
-        <v>0.175355253326305</v>
+        <v>0.05820643410628454</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02584079872574957</v>
+        <v>0.02969001352203118</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.09011236666281124</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05782542283858719</v>
+        <v>0.06619626872237816</v>
       </c>
       <c r="M173" t="n">
-        <v>0.176464384774906</v>
+        <v>0.0885837588511498</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09030396506423838</v>
+        <v>0.1016078208758963</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1757028767458906</v>
+        <v>0.08824438343379348</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02120267409722087</v>
+        <v>0.01601460511419835</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1769789130793263</v>
+        <v>0.05820616557782052</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02633506978611143</v>
+        <v>0.02965822948805756</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.09094674042820763</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05795952733875515</v>
+        <v>0.06590660720100514</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1780983142635626</v>
+        <v>0.08940397884051229</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09077019219541105</v>
+        <v>0.1022632166717048</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1773297552342784</v>
+        <v>0.08906146105818045</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0223690930133934</v>
+        <v>0.01562142208871238</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1786025728323477</v>
+        <v>0.0582058970493565</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02642650918990851</v>
+        <v>0.02942026017019758</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.09178111419360403</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05888717966974558</v>
+        <v>0.06600608373334549</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1797322437522191</v>
+        <v>0.0902241988298748</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09172704073631377</v>
+        <v>0.1019027317693417</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1789566337226663</v>
+        <v>0.08987853868256743</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02353354837674287</v>
+        <v>0.01523866778399794</v>
       </c>
       <c r="G176" t="n">
-        <v>0.180226232585369</v>
+        <v>0.05820562852089248</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02661552202662765</v>
+        <v>0.02947684949495902</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09261548795900043</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05920928583830579</v>
+        <v>0.06559627141977425</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1813661732408756</v>
+        <v>0.09104441881923729</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09227589757111981</v>
+        <v>0.1016287777321981</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1805835122110542</v>
+        <v>0.09069561630695441</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02169639098859553</v>
+        <v>0.01486690770927406</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1818498923383904</v>
+        <v>0.05820535999242846</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02660251338575564</v>
+        <v>0.02962874138884974</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.09344986172439682</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0596267518511831</v>
+        <v>0.06567874336066631</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1830001027295322</v>
+        <v>0.09186463880859978</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09271814958400243</v>
+        <v>0.101043766123665</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1822103906994421</v>
+        <v>0.09151269393134139</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02286299816303337</v>
+        <v>0.0145067073737096</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1834735520914117</v>
+        <v>0.05820509146396445</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02708952982686474</v>
+        <v>0.02957667977837757</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09428423548979321</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05974225284864204</v>
+        <v>0.06535507265639659</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1846340322181887</v>
+        <v>0.09268485879796229</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09316811616577036</v>
+        <v>0.1013501085071337</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1838372691878299</v>
+        <v>0.09232977155572836</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02303890020567091</v>
+        <v>0.01415863228649027</v>
       </c>
       <c r="G179" t="n">
-        <v>0.185097211844433</v>
+        <v>0.05820482293550044</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02708718286169549</v>
+        <v>0.0294214085900503</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.09511860925518963</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06037968048261569</v>
+        <v>0.06512683240734007</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1862679617068453</v>
+        <v>0.09350507878732479</v>
       </c>
       <c r="N179" t="n">
-        <v>0.094256128745003</v>
+        <v>0.1015502164459951</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1854641476762178</v>
+        <v>0.09314684918011533</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0222182584405121</v>
+        <v>0.01382324795678751</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1867208715974544</v>
+        <v>0.05820455440703641</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02719159434343392</v>
+        <v>0.0293636717503758</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.09595298302058602</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06103429310182168</v>
+        <v>0.06509559571387169</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1879018911955018</v>
+        <v>0.09432529877668729</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09466178478381565</v>
+        <v>0.1013465015036402</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1870910261646057</v>
+        <v>0.09396392680450232</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0223950467194898</v>
+        <v>0.01350111989381624</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1883445313504757</v>
+        <v>0.0582042858785724</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02759580554916413</v>
+        <v>0.02940421318586188</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.09678735678598242</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06119052710829148</v>
+        <v>0.06526293567636637</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1895358206841583</v>
+        <v>0.09514551876604978</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09486126005819839</v>
+        <v>0.1003413752434603</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1887179046529936</v>
+        <v>0.0947810044288893</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02456323889453697</v>
+        <v>0.01319281360674733</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1899681911034971</v>
+        <v>0.05820401735010838</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0276928577559703</v>
+        <v>0.02904377682301637</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.09762173055137882</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06143281890405677</v>
+        <v>0.064630425395199</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1911697501728149</v>
+        <v>0.09596573875541228</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09583073034414091</v>
+        <v>0.1004372492288464</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1903447831413815</v>
+        <v>0.09559808205327627</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02371680881758642</v>
+        <v>0.01289889460476648</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1915918508565184</v>
+        <v>0.05820374882164437</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0279757922409366</v>
+        <v>0.02918310658834711</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.09845610431677522</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06224560489114905</v>
+        <v>0.06459963797074458</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1928036796614714</v>
+        <v>0.09678595874477477</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09624637141763315</v>
+        <v>0.09973653502318958</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1919716616297693</v>
+        <v>0.09641515967766325</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0248497303405711</v>
+        <v>0.01261992839704764</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1932155106095398</v>
+        <v>0.05820348029318034</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0279376502811472</v>
+        <v>0.02912294640836188</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.09929047808217162</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06241332147159995</v>
+        <v>0.06477214650337809</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1944376091501279</v>
+        <v>0.09760617873413728</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09658435905466495</v>
+        <v>0.1003416441898809</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1935985401181572</v>
+        <v>0.09723223730205022</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02495597731542386</v>
+        <v>0.01235648049280082</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1948391703625611</v>
+        <v>0.05820321176471633</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02837147315368618</v>
+        <v>0.02886404020956859</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.100124851847568</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06252040504744097</v>
+        <v>0.0643495240934743</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1960715386387845</v>
+        <v>0.09842639872349979</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09702086903122625</v>
+        <v>0.0995549882923113</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1952254186065451</v>
+        <v>0.09804931492643719</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02503095192013215</v>
+        <v>0.01210911640119928</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1964628301155825</v>
+        <v>0.05820294323625232</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02847030213563778</v>
+        <v>0.029107131918475</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.1009592256129644</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06275129202070373</v>
+        <v>0.06443334384140836</v>
       </c>
       <c r="M186" t="n">
-        <v>0.197705468127441</v>
+        <v>0.09924661871286226</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09803320123877318</v>
+        <v>0.09997897889387214</v>
       </c>
       <c r="O186" t="n">
-        <v>0.196852297094933</v>
+        <v>0.09886639255082418</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02309569356383066</v>
+        <v>0.01187840163142874</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1980864898686038</v>
+        <v>0.0582026747077883</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02844510167598563</v>
+        <v>0.02895296546158896</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.1017935993783608</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06322015785998164</v>
+        <v>0.06392517884755505</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1993393976160976</v>
+        <v>0.1000668387022248</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09828898737885711</v>
+        <v>0.1000160275579543</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1984791755833208</v>
+        <v>0.09968347017521115</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02515902818681645</v>
+        <v>0.01166490169266604</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1997101496216251</v>
+        <v>0.05820240617932428</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02841813589139486</v>
+        <v>0.02890228476541831</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.1026279731437572</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06368342434086743</v>
+        <v>0.06412660221228939</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2009733271047541</v>
+        <v>0.1008870586915873</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09883923526045707</v>
+        <v>0.09986854584794896</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2001060540717087</v>
+        <v>0.1005005477995981</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0232209336120492</v>
+        <v>0.01146918209411549</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2013338093746465</v>
+        <v>0.05820213765086026</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02838953667585085</v>
+        <v>0.02895583375647087</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1034623469091536</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0637430502245025</v>
+        <v>0.06373918703598624</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2026072565934106</v>
+        <v>0.1017072786809498</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09858385720720486</v>
+        <v>0.0987389453272472</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2017329325600966</v>
+        <v>0.1013176254239851</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02328138766248856</v>
+        <v>0.01128949918244455</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2029574691276678</v>
+        <v>0.05820186912239624</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02845927842031161</v>
+        <v>0.02881435636125447</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.10429672067455</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06349897823474035</v>
+        <v>0.06406450641902059</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2042411860820671</v>
+        <v>0.1025274986703123</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09862276554273242</v>
+        <v>0.09952963755923999</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2033598110484844</v>
+        <v>0.1021347030483721</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02434036816109422</v>
+        <v>0.0111125634917885</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2045811288806892</v>
+        <v>0.05820160059393223</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02852733551573521</v>
+        <v>0.02857859650627693</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.1051310944399464</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06405115109543438</v>
+        <v>0.06410403727122632</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2058751155707237</v>
+        <v>0.1033477186596748</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0994558725906714</v>
+        <v>0.09924130133743014</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2049866895368723</v>
+        <v>0.1029517806727591</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02339785293082583</v>
+        <v>0.01093663136881725</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2062047886337105</v>
+        <v>0.0582013320654682</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02879368235307966</v>
+        <v>0.02874929811804608</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.1059654682053428</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06419951153043812</v>
+        <v>0.06415053836960477</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2075090450593803</v>
+        <v>0.1041679386490373</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09958309067465376</v>
+        <v>0.09865937285531151</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2066135680252602</v>
+        <v>0.103768858297146</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02345381979464309</v>
+        <v>0.01076226832273183</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2078284483867318</v>
+        <v>0.05820106353700419</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02865829332330301</v>
+        <v>0.02872462006774945</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1067998419707392</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06424400226360494</v>
+        <v>0.06379869312803788</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2091429745480368</v>
+        <v>0.1049881586383998</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09940433211831123</v>
+        <v>0.09907996778625594</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2082404465136481</v>
+        <v>0.104585935921533</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02350824657550565</v>
+        <v>0.01059003986271031</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2094521081397532</v>
+        <v>0.05820079500854018</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02872114281736329</v>
+        <v>0.02870076523384232</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.1076342157361356</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06408456601878837</v>
+        <v>0.06374845113826635</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2107769040366933</v>
+        <v>0.1058083786277623</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09931950924527566</v>
+        <v>0.09850300885438557</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2098673250020359</v>
+        <v>0.10540301354592</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02356111109637321</v>
+        <v>0.0104205114979384</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2110757678927745</v>
+        <v>0.05820052648007616</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02888220522621854</v>
+        <v>0.02877766059632812</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.108468589501532</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06422114551984182</v>
+        <v>0.06339976199203093</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2124108335253499</v>
+        <v>0.1066285986171248</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1004285343791789</v>
+        <v>0.09902841878382229</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2114942034904238</v>
+        <v>0.106220091170307</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02561239118020542</v>
+        <v>0.01025424873759467</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2126994276457959</v>
+        <v>0.05820025795161213</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02914145494082679</v>
+        <v>0.0287552823169058</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.1093029632669284</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06465368349061879</v>
+        <v>0.06385257528107219</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2140447630140064</v>
+        <v>0.1074488186064873</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1004313198436527</v>
+        <v>0.09875612029868791</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2131210819788117</v>
+        <v>0.1070371687946939</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02466206464996196</v>
+        <v>0.01009181709087933</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2143230873988172</v>
+        <v>0.05819998942314812</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02899886635214609</v>
+        <v>0.02853360655727427</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1101373370323248</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06478212265497266</v>
+        <v>0.06340684059713092</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2156786925026629</v>
+        <v>0.1082690385958498</v>
       </c>
       <c r="N197" t="n">
-        <v>0.100127777962329</v>
+        <v>0.0981860361231045</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2147479604671996</v>
+        <v>0.1078542464190809</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02471010932860249</v>
+        <v>0.009933782066970813</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2159467471518386</v>
+        <v>0.05819972089468411</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02915441385113446</v>
+        <v>0.02851260947913253</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1109717107977212</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06510640573675697</v>
+        <v>0.06346250753194779</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2173126219913195</v>
+        <v>0.1090892585852122</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1001178210588394</v>
+        <v>0.09841808898119392</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2163748389555875</v>
+        <v>0.1086713240434679</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02575650303908671</v>
+        <v>0.00978070917505483</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2175704069048599</v>
+        <v>0.05819945236622009</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02900807182874995</v>
+        <v>0.02839226724417954</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1118060845631176</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06522647545982518</v>
+        <v>0.06331952567726346</v>
       </c>
       <c r="M199" t="n">
-        <v>0.218946551479976</v>
+        <v>0.1099094785745747</v>
       </c>
       <c r="N199" t="n">
-        <v>0.100801361456816</v>
+        <v>0.0982522015970782</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2180017174439753</v>
+        <v>0.1094884016678549</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02580122360437426</v>
+        <v>0.009633163924310829</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2191940666578812</v>
+        <v>0.05819918383775607</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02915981467595057</v>
+        <v>0.0283725560141142</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.112640458328514</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06484227454803065</v>
+        <v>0.06327784462481867</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2205804809686326</v>
+        <v>0.1107296985639373</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1003783114798904</v>
+        <v>0.09888829669487903</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2196285959323632</v>
+        <v>0.1103054792922418</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02584424884742482</v>
+        <v>0.009491711823937377</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2208177264109026</v>
+        <v>0.05819891530929205</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0294096167836944</v>
+        <v>0.0286534519506355</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1134748320939104</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06545374572522691</v>
+        <v>0.06333741396635398</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2222144104572891</v>
+        <v>0.1115499185532997</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1008485834516946</v>
+        <v>0.09872629699871854</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2212554744207511</v>
+        <v>0.1111225569166288</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02488555659119809</v>
+        <v>0.009356918383113665</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2224413861639239</v>
+        <v>0.05819864678082803</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02945745254293942</v>
+        <v>0.02853493121544239</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.1143092058593068</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06556083171526741</v>
+        <v>0.06309818329361028</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2238483399459456</v>
+        <v>0.1123701385426623</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1016120896958602</v>
+        <v>0.09796612523271858</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2228823529091389</v>
+        <v>0.1119396345410158</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02492512465865371</v>
+        <v>0.009229349111025423</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2240650459169453</v>
+        <v>0.05819837825236402</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02950329634464373</v>
+        <v>0.02861696997023382</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1151435796247032</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06506347524200559</v>
+        <v>0.06336010219832808</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2254822694346021</v>
+        <v>0.1131903585320247</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1017687425360193</v>
+        <v>0.09800770412100129</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2245092313975268</v>
+        <v>0.1127567121654028</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02396293087275138</v>
+        <v>0.009109569516853336</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2256887056699666</v>
+        <v>0.05819810972389999</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02934712257976529</v>
+        <v>0.02839954437670873</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1159779533900996</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06516161902929493</v>
+        <v>0.06312312027224815</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2271161989232587</v>
+        <v>0.1140105785213872</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1020184542958034</v>
+        <v>0.09825095638768827</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2261361098859147</v>
+        <v>0.1135737897897898</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02499895305645077</v>
+        <v>0.008998145109793569</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2273123654229879</v>
+        <v>0.05819784119543598</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02938890563926222</v>
+        <v>0.02838263059656609</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.116812327155496</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06565520580098885</v>
+        <v>0.06298718710711118</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2287501284119152</v>
+        <v>0.1148307985107497</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1015611372988445</v>
+        <v>0.09839580475690168</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2277629883743026</v>
+        <v>0.1143908674141767</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02603316903271152</v>
+        <v>0.00889564139902646</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2289360251760093</v>
+        <v>0.05819757266697197</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02952861991409247</v>
+        <v>0.0283662047915049</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1176467009208924</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06534417828094083</v>
+        <v>0.06295225229465781</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2303840579005717</v>
+        <v>0.1156510185001122</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1016967038687744</v>
+        <v>0.09824217195276336</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2293898668626904</v>
+        <v>0.1152079450385637</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02506555662449333</v>
+        <v>0.008802623893737753</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2305596849290306</v>
+        <v>0.05819730413850795</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02956623979521415</v>
+        <v>0.028550243123224</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.1184810746862888</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06542847919300435</v>
+        <v>0.06301826542662881</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2320179873892283</v>
+        <v>0.1164712384894747</v>
       </c>
       <c r="N207" t="n">
-        <v>0.102325066329225</v>
+        <v>0.09748998069939524</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2310167453510783</v>
+        <v>0.1160250226629507</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02609609365475588</v>
+        <v>0.008719658103109769</v>
       </c>
       <c r="G208" t="n">
-        <v>0.232183344682052</v>
+        <v>0.05819703561004393</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02940173967358528</v>
+        <v>0.02833472175342241</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1193154484516852</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06580805126103279</v>
+        <v>0.06288517609476479</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2336519168778848</v>
+        <v>0.1172914584788372</v>
       </c>
       <c r="N208" t="n">
-        <v>0.102546137003828</v>
+        <v>0.0981391537209193</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2326436238394662</v>
+        <v>0.1168421002873377</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0241247579464588</v>
+        <v>0.008647309536335489</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2338070044350734</v>
+        <v>0.05819676708157991</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02973509394016387</v>
+        <v>0.02851961684379908</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1201498222170816</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06608283720887972</v>
+        <v>0.06325293389080644</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2352858463665414</v>
+        <v>0.1181116784681997</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1024598282162152</v>
+        <v>0.09818961374145746</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2342705023278541</v>
+        <v>0.1176591779117246</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0251515273225618</v>
+        <v>0.008586143702596805</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2354306641880947</v>
+        <v>0.0581964985531159</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02946627698590795</v>
+        <v>0.02850490455605298</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.120984195982478</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06585277976039847</v>
+        <v>0.0632214884064945</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2369197758551979</v>
+        <v>0.1189318984575622</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1021660522900186</v>
+        <v>0.09814128348513163</v>
       </c>
       <c r="O210" t="n">
-        <v>0.235897380816242</v>
+        <v>0.1184762555361116</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02617637960602456</v>
+        <v>0.008536726111079425</v>
       </c>
       <c r="G211" t="n">
-        <v>0.237054323941116</v>
+        <v>0.05819623002465189</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0294952632017756</v>
+        <v>0.02819056105188303</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.1218185697478744</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06571782163944262</v>
+        <v>0.06319078923356966</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2385537053438545</v>
+        <v>0.1197521184469247</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1021647215488698</v>
+        <v>0.0975940856760637</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2375242593046298</v>
+        <v>0.1192933331604986</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02519929261980675</v>
+        <v>0.008499622270967754</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2386779836941374</v>
+        <v>0.05819596149618786</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02972202697872481</v>
+        <v>0.02837656249298817</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.1226529435132708</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06637790556986553</v>
+        <v>0.06286078596377259</v>
       </c>
       <c r="M212" t="n">
-        <v>0.240187634832511</v>
+        <v>0.1205723384362872</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1021557483164007</v>
+        <v>0.09774794303837575</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2391511377930177</v>
+        <v>0.1201104107848856</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02422024418686801</v>
+        <v>0.008475397691450746</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2403016434471587</v>
+        <v>0.05819569296772385</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02984654270771364</v>
+        <v>0.0281628850410674</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.1234873172786672</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0664329742755207</v>
+        <v>0.06273142818884395</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2418215643211675</v>
+        <v>0.1213925584256497</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1029390449162433</v>
+        <v>0.09790277829618954</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2407780162814056</v>
+        <v>0.1209274884092725</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02523921213016804</v>
+        <v>0.008464617881712266</v>
       </c>
       <c r="G214" t="n">
-        <v>0.24192530320018</v>
+        <v>0.05819542443925983</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02956878477970012</v>
+        <v>0.02834950485781965</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1243216910440636</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06638297048026157</v>
+        <v>0.06330266550052446</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2434554938098241</v>
+        <v>0.1222127784150122</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1029145236720291</v>
+        <v>0.09775851417362708</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2424048947697935</v>
+        <v>0.1217445660336595</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02425617427266648</v>
+        <v>0.008464617881712259</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2435489629532014</v>
+        <v>0.05819542443925983</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02968872758564231</v>
+        <v>0.02813639810494387</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.12515606480946</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06652783690794162</v>
+        <v>0.0632744474905548</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2450894232984806</v>
+        <v>0.1230329984043747</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1030820969073901</v>
+        <v>0.09791507339481037</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2440317732581813</v>
+        <v>0.1225616436580465</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02527110843732305</v>
+        <v>0.008195582351253845</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2451726227062227</v>
+        <v>0.05817147669193248</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02990634551649821</v>
+        <v>0.02822354094413899</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1259904385748565</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06596751628241429</v>
+        <v>0.06284672375067563</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2467233527871372</v>
+        <v>0.1238532183937372</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1025416769459582</v>
+        <v>0.09747237868386116</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2456586517465692</v>
+        <v>0.1233787212824335</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02628399244709742</v>
+        <v>0.007929630002155637</v>
       </c>
       <c r="G217" t="n">
-        <v>0.246796282459244</v>
+        <v>0.05814752894460514</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02982161296322586</v>
+        <v>0.02821090953710403</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1268248123402528</v>
       </c>
       <c r="L217" t="n">
-        <v>0.066501951327533</v>
+        <v>0.0630194438726277</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2483572822757937</v>
+        <v>0.1246734383830997</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1029931761113649</v>
+        <v>0.09783035276490154</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2472855302349571</v>
+        <v>0.1241957989068204</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02529480412494921</v>
+        <v>0.007667467604803788</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2484199422122654</v>
+        <v>0.0581235811972778</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02963450431678333</v>
+        <v>0.02839848004553788</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1276591861056492</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06603108476715128</v>
+        <v>0.06289255744815167</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2499912117644502</v>
+        <v>0.1254936583724622</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1031365067272424</v>
+        <v>0.09728891836205333</v>
       </c>
       <c r="O218" t="n">
-        <v>0.248912408723345</v>
+        <v>0.1250128765312074</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02530352129383814</v>
+        <v>0.007409801929584341</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2500436019652867</v>
+        <v>0.05809963344995044</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02974499396812862</v>
+        <v>0.02828622863113951</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1284935598710456</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06625485932512254</v>
+        <v>0.06256601406898823</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2516251412531068</v>
+        <v>0.1263138783618247</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1029715811172223</v>
+        <v>0.09754799819943855</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2505392872117329</v>
+        <v>0.1258299541555944</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02531012177672386</v>
+        <v>0.007157339746883699</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2516672617183081</v>
+        <v>0.05807568570262309</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02995305630821976</v>
+        <v>0.02827413145560788</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.129327933636442</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06627321772530026</v>
+        <v>0.06263976332687801</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2532590707417633</v>
+        <v>0.1271340983511872</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1033983116049365</v>
+        <v>0.09710751500117915</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2521661657001207</v>
+        <v>0.1266470317799814</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02531458339656607</v>
+        <v>0.006910787827087886</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2532909214713294</v>
+        <v>0.05805173795529575</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02975866572801482</v>
+        <v>0.02816216468064194</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1301623074018385</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06618610269153788</v>
+        <v>0.06261375481356179</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2548930002304198</v>
+        <v>0.1279543183405497</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1032166105140168</v>
+        <v>0.09746739149139694</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2537930441885086</v>
+        <v>0.1274641094043684</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02531688397632441</v>
+        <v>0.006670852940583075</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2549145812243508</v>
+        <v>0.05802779020796841</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02996179661847181</v>
+        <v>0.02835030446794064</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1309966811672348</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06629345694768882</v>
+        <v>0.06268793812078022</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2565269297190764</v>
+        <v>0.1287745383299122</v>
       </c>
       <c r="N222" t="n">
-        <v>0.103326390168095</v>
+        <v>0.09732755039421392</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2554199226768964</v>
+        <v>0.1282811870287553</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02631040912523781</v>
+        <v>0.006438241857755413</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2565382409773721</v>
+        <v>0.05800384246064107</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0296600109805287</v>
+        <v>0.02833852697920293</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.1318310549326313</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06619226803117695</v>
+        <v>0.06286226284027396</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2581608592077329</v>
+        <v>0.1295947583192747</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1030101864496556</v>
+        <v>0.09718791443375208</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2570468011652843</v>
+        <v>0.1290982646531423</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02424805957439499</v>
+        <v>0.006213661348991054</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2581619007303935</v>
+        <v>0.05797989471331372</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02960263669572824</v>
+        <v>0.02812680837612777</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.1326654286980276</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06657496041933345</v>
+        <v>0.06253667856378378</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2597947886963894</v>
+        <v>0.1304149783086372</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1027846531493583</v>
+        <v>0.09754840633413325</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2586736796536722</v>
+        <v>0.1299153422775293</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02412623174616324</v>
+        <v>0.005997818184676068</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2597855604834148</v>
+        <v>0.05795594696598636</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02957539889028202</v>
+        <v>0.02831512482041411</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.133499802463424</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06630051601823189</v>
+        <v>0.06251113488305027</v>
       </c>
       <c r="M225" t="n">
-        <v>0.261428718185046</v>
+        <v>0.1312351982979997</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1025222761462576</v>
+        <v>0.09700894881947941</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2603005581420601</v>
+        <v>0.1307324199019163</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0249518391861082</v>
+        <v>0.005791419135196811</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2614092202364361</v>
+        <v>0.05793199921865902</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02958628101355468</v>
+        <v>0.02810345247376091</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1343341762288204</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0652867902875327</v>
+        <v>0.06298558138981419</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2630626476737025</v>
+        <v>0.1320554182873622</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1011503879679362</v>
+        <v>0.09706946461391253</v>
       </c>
       <c r="O226" t="n">
-        <v>0.261927436630448</v>
+        <v>0.1315494975263032</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02473179543979558</v>
+        <v>0.005595170970939346</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2630328799894575</v>
+        <v>0.05790805147133168</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02924326651491083</v>
+        <v>0.0281917674978671</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1351685499942168</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0647516386868964</v>
+        <v>0.06265996767581619</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2646965771623591</v>
+        <v>0.1328756382767247</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1009963211419767</v>
+        <v>0.09692987644155449</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2635543151188358</v>
+        <v>0.1323665751506902</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02547301405279098</v>
+        <v>0.005409780462289814</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2646565397424789</v>
+        <v>0.05788410372400433</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02885433884371508</v>
+        <v>0.02828004605443166</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.1360029237596132</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0646129166759834</v>
+        <v>0.06273424333279695</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2663305066510156</v>
+        <v>0.1336958582660872</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1001874081959612</v>
+        <v>0.09709010702652721</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2651811936072237</v>
+        <v>0.1331836527750772</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02418240857066008</v>
+        <v>0.005235954379634387</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2662801994955002</v>
+        <v>0.05786015597667699</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02862748144933207</v>
+        <v>0.02796826430515353</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.1368372975250096</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06338847971445427</v>
+        <v>0.06250835795249718</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2679644361396721</v>
+        <v>0.1345160782554497</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0986509816574726</v>
+        <v>0.09665007909295259</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2668080720956116</v>
+        <v>0.1340007303994642</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02486689253896855</v>
+        <v>0.005074399493359208</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2679038592485215</v>
+        <v>0.05783620822934964</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02817067778112642</v>
+        <v>0.02815639841173165</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.137671671290406</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06269618326196938</v>
+        <v>0.06288226112665762</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2695983656283287</v>
+        <v>0.1353362982448122</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09761437405409318</v>
+        <v>0.09690971536495263</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2684349505839995</v>
+        <v>0.1348178080238511</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02353337950328203</v>
+        <v>0.00492582257385038</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2695275190015429</v>
+        <v>0.05781226048202229</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02799191128846272</v>
+        <v>0.027944424535865</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.1385060450558024</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06205388277818932</v>
+        <v>0.06265590244701888</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2712322951169852</v>
+        <v>0.1361565182341747</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09550491791340554</v>
+        <v>0.09706893856664928</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2700618290723873</v>
+        <v>0.1356348856482381</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0241887830091662</v>
+        <v>0.004790930391494197</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2711511787545642</v>
+        <v>0.05778831273469495</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02749916542070564</v>
+        <v>0.02823232530597336</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.1393404188211988</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06137943372277452</v>
+        <v>0.06262940177408174</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2728662246056417</v>
+        <v>0.1369767382235372</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09424994576299206</v>
+        <v>0.09662802622617439</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2716887075607752</v>
+        <v>0.1364519632726251</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02384001660218671</v>
+        <v>0.004670429716676749</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2727748385075855</v>
+        <v>0.0577643649873676</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02720042362721981</v>
+        <v>0.02802025506635375</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.1401747925865952</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06029069155538541</v>
+        <v>0.06220311166858969</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2745001540942983</v>
+        <v>0.1377969582128997</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09357679013043552</v>
+        <v>0.09678745500300651</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2733155860491631</v>
+        <v>0.1372690408970121</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02249399382790919</v>
+        <v>0.004565027319784191</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2743984982606069</v>
+        <v>0.05774041724004025</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02650366935736982</v>
+        <v>0.02810828964605459</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.1410091663519916</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05950551173568255</v>
+        <v>0.06217704937798546</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2761340835829548</v>
+        <v>0.1386171782022622</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09211278354331798</v>
+        <v>0.09734723516277494</v>
       </c>
       <c r="O234" t="n">
-        <v>0.274942464537551</v>
+        <v>0.1380861185213991</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02215762823189935</v>
+        <v>0.004475429971202677</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2760221580136282</v>
+        <v>0.05771646949271291</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02631688606052027</v>
+        <v>0.02809643111378796</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.141843540117388</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05874174972332638</v>
+        <v>0.06215121927674941</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2777680130716114</v>
+        <v>0.1394373981916247</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09028525852922231</v>
+        <v>0.09680737341155943</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2765693430259388</v>
+        <v>0.138903196145786</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02183783335972279</v>
+        <v>0.004402344441318359</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2776458177666495</v>
+        <v>0.05769252174538557</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02594805718603582</v>
+        <v>0.02808468153826597</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.1426779138827844</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05741726097797736</v>
+        <v>0.06222562573936169</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2794019425602679</v>
+        <v>0.1402576181809872</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08922154761573098</v>
+        <v>0.09686787645543943</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2781962215143267</v>
+        <v>0.139720273770173</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02054152275694522</v>
+        <v>0.004346477500517386</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2792694775196709</v>
+        <v>0.05766857399805821</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02560516618328108</v>
+        <v>0.02817304298820075</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.1435122876481808</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05714990095929598</v>
+        <v>0.06250027314030249</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2810358720489244</v>
+        <v>0.1410778381703497</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08764898333042626</v>
+        <v>0.09702875100049463</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2798231000027146</v>
+        <v>0.14053735139456</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02026672206011378</v>
+        <v>0.004308535919185966</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2808931372726923</v>
+        <v>0.05764462625073087</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02508932819082643</v>
+        <v>0.02816151753230439</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1443466614135772</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05634434604794886</v>
+        <v>0.06247516585405216</v>
       </c>
       <c r="M238" t="n">
-        <v>0.282669801537581</v>
+        <v>0.1418980581597122</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08696494310883734</v>
+        <v>0.09659000375280463</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2814499784911025</v>
+        <v>0.141354429018947</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01999225423273035</v>
+        <v>0.004289226467710218</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2825167970257136</v>
+        <v>0.05762067850340352</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02497550619437253</v>
+        <v>0.02805010723928898</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.1451810351789736</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0555447903931236</v>
+        <v>0.06265030825509077</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2843037310262375</v>
+        <v>0.1427182781490747</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08558433604199994</v>
+        <v>0.09665164141844912</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2830768569794904</v>
+        <v>0.1421715066433339</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0197167473810619</v>
+        <v>0.004286785718686792</v>
       </c>
       <c r="G240" t="n">
-        <v>0.284140456778735</v>
+        <v>0.05759673075607618</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02456049225863918</v>
+        <v>0.02783881417786666</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.14601540894437</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05454257478661423</v>
+        <v>0.06232570471789864</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2859376605148941</v>
+        <v>0.1435384981384372</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08479963254875011</v>
+        <v>0.09711367070350757</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2847037354678782</v>
+        <v>0.1429885842677209</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0204401851266626</v>
+        <v>0.004286943337782012</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2857641165317563</v>
+        <v>0.05757278300874884</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02414426747053884</v>
+        <v>0.0280276404167495</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1468497827097664</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05413765692817477</v>
+        <v>0.06240135961695589</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2875715900035505</v>
+        <v>0.1443587181277997</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08371076787731652</v>
+        <v>0.09657609831405967</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2863306139562661</v>
+        <v>0.1438056618921079</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01916255109108662</v>
+        <v>0.004287537440525527</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2873877762847776</v>
+        <v>0.0575488352614215</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02392681291698383</v>
+        <v>0.02801658802464962</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1476841564751628</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05342999451755912</v>
+        <v>0.06237727732674284</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2892055194922071</v>
+        <v>0.1451789381171622</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08301767727592746</v>
+        <v>0.09703893095618504</v>
       </c>
       <c r="O242" t="n">
-        <v>0.287957492444654</v>
+        <v>0.1446227395164948</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02088382889588813</v>
+        <v>0.004288859016016187</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2890114360377989</v>
+        <v>0.05752488751409414</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0238081096848866</v>
+        <v>0.02780565907027915</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1485185302405592</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05301954525452121</v>
+        <v>0.06205346222173957</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2908394489808637</v>
+        <v>0.1459991581065247</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0819202959928117</v>
+        <v>0.09610217533596321</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2895843709330418</v>
+        <v>0.1454398171408818</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01860400216262133</v>
+        <v>0.004291199053352887</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2906350957908203</v>
+        <v>0.05750093976676679</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02318813886115957</v>
+        <v>0.02799485562235017</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1493529040059556</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05230626683881492</v>
+        <v>0.06252991867642643</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2924733784695202</v>
+        <v>0.1468193780958872</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08071855927619764</v>
+        <v>0.09606583815947373</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2912112494214297</v>
+        <v>0.1462568947652688</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01932305451284037</v>
+        <v>0.004294848541634456</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2922587555438416</v>
+        <v>0.05747699201943945</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02296688153271507</v>
+        <v>0.02808417974957481</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.150187277771352</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05129011697019423</v>
+        <v>0.06210665106528357</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2941073079581767</v>
+        <v>0.1476395980852497</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07891240237431413</v>
+        <v>0.09642992613279644</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2928381279098176</v>
+        <v>0.1470739723896558</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01804096956809946</v>
+        <v>0.004300098469959775</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293882415296863</v>
+        <v>0.05745304427211211</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02284431878646559</v>
+        <v>0.02777363352066514</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1510216515367484</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05037105334841305</v>
+        <v>0.0623836637627912</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2957412374468332</v>
+        <v>0.1484598180746122</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07790176053538939</v>
+        <v>0.09629444596201076</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2944650063982054</v>
+        <v>0.1478910500140428</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01775773094995274</v>
+        <v>0.0043072398274277</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2955060750498843</v>
+        <v>0.05742909652478476</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02222043170932347</v>
+        <v>0.02776321900433329</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.1518560253021448</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04964903367322521</v>
+        <v>0.06236096114342957</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2973751669354898</v>
+        <v>0.1492800380639747</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07768656900765231</v>
+        <v>0.09655940435319627</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2960918848865934</v>
+        <v>0.1487081276384297</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0174733222799544</v>
+        <v>0.004316563603137098</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2971297348029057</v>
+        <v>0.05740514877745741</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02209520138820112</v>
+        <v>0.02795293826929136</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1526903990675412</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04892401564438478</v>
+        <v>0.06243854758167885</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2990090964241463</v>
+        <v>0.1501002580533372</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07576676303933128</v>
+        <v>0.09612480801243273</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2977187633749812</v>
+        <v>0.1495252052628167</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01818772717965863</v>
+        <v>0.004328360786186848</v>
       </c>
       <c r="G249" t="n">
-        <v>0.298753394555927</v>
+        <v>0.05738120103013006</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02176860891001092</v>
+        <v>0.02804279338425147</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.1535247728329376</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04829595696164554</v>
+        <v>0.06191642745201928</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3006430259128029</v>
+        <v>0.1509204780426996</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07504227787865497</v>
+        <v>0.09679066364579963</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2993456418633691</v>
+        <v>0.1503422828872037</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01790092927061959</v>
+        <v>0.004342922365675787</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3003770543089484</v>
+        <v>0.05735725328280272</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02154063536166534</v>
+        <v>0.0280327864179257</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.1543591465983341</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04756481532476159</v>
+        <v>0.06199460512893107</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3022769554014594</v>
+        <v>0.1517406980320622</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07431304877385186</v>
+        <v>0.0967569779593766</v>
       </c>
       <c r="O250" t="n">
-        <v>0.300972520351757</v>
+        <v>0.1511593605115907</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01761291217439147</v>
+        <v>0.004360539330702781</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3020007140619697</v>
+        <v>0.05733330553547537</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02121126183007671</v>
+        <v>0.02802291943902618</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.1551935203637304</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04703054843348667</v>
+        <v>0.06177308498689449</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3039108848901159</v>
+        <v>0.1525609180214247</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07287901097315058</v>
+        <v>0.09642375765924321</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3025993988401449</v>
+        <v>0.1519764381359777</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01732365951252843</v>
+        <v>0.004381502670366702</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3036243738149911</v>
+        <v>0.05730935778814803</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02068046940215748</v>
+        <v>0.02791319451626502</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1560278941291268</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04639311398757481</v>
+        <v>0.06225187140038965</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3055448143787725</v>
+        <v>0.1533811380107871</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07154009972477965</v>
+        <v>0.09579100945147911</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3042262773285327</v>
+        <v>0.1527935157603646</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01603315490658467</v>
+        <v>0.004406103373766401</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3052480335680124</v>
+        <v>0.05728541004082068</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02024823916482003</v>
+        <v>0.0279036137183543</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1568622678945232</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04555246968677987</v>
+        <v>0.06223096874389683</v>
       </c>
       <c r="M253" t="n">
-        <v>0.307178743867429</v>
+        <v>0.1542013580001496</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07079625027696768</v>
+        <v>0.09565874004216396</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3058531558169206</v>
+        <v>0.1536105933847516</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01674138197811435</v>
+        <v>0.004434632430000765</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3068716933210338</v>
+        <v>0.05726146229349334</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01991455220497676</v>
+        <v>0.02789417911400614</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1576966416599196</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04490857323085581</v>
+        <v>0.06181038139189626</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3088126733560856</v>
+        <v>0.1550215779895121</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06914739787794327</v>
+        <v>0.09662695613737732</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3074800343053085</v>
+        <v>0.1544276710091386</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01744832434867164</v>
+        <v>0.004467380828168652</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3084953530740551</v>
+        <v>0.05723751454616598</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01957938960954007</v>
+        <v>0.02788489277193265</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.158531015425316</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04396138231955654</v>
+        <v>0.0621901137188681</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3104466028447421</v>
+        <v>0.1558417979788747</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06859347777593494</v>
+        <v>0.09619566444319871</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3091069127936963</v>
+        <v>0.1552447486335256</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01515396563981073</v>
+        <v>0.004504639557368892</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3101190128270764</v>
+        <v>0.05721356679883864</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01934273246542235</v>
+        <v>0.02767575676084595</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1593653891907124</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04341085465263597</v>
+        <v>0.06207017009929258</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3120805323333987</v>
+        <v>0.1566620179682371</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06683442521917132</v>
+        <v>0.0963648716657079</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3107337912820842</v>
+        <v>0.1560618262579125</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01485828947308578</v>
+        <v>0.004546699606700379</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3117426725800978</v>
+        <v>0.0571896190515113</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01920456185953606</v>
+        <v>0.0279667731494581</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1601997629561089</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04255694792984802</v>
+        <v>0.06195055490764997</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3137144618220551</v>
+        <v>0.1574822379575996</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06627017545588088</v>
+        <v>0.09633458451098442</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3123606697704721</v>
+        <v>0.1568789038822995</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01456127947005099</v>
+        <v>0.004593851965261971</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3133663323331191</v>
+        <v>0.05716567130418395</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01876485887879353</v>
+        <v>0.02795794400648124</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1610341367215052</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04159961985094662</v>
+        <v>0.0616312725184204</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3153483913107117</v>
+        <v>0.1583024579469622</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06420066373429234</v>
+        <v>0.09600480968510777</v>
       </c>
       <c r="O258" t="n">
-        <v>0.31398754825886</v>
+        <v>0.1576959815066865</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01526291925226053</v>
+        <v>0.004646387622152519</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3149899920861405</v>
+        <v>0.05714172355685661</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01822360461010719</v>
+        <v>0.02774927140062748</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.1618685104869017</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04093882811568575</v>
+        <v>0.0617123273060842</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3169823207993683</v>
+        <v>0.1591226779363246</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06392582530263413</v>
+        <v>0.09617555389415761</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3156144267472478</v>
+        <v>0.1585130591310735</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01396319244126857</v>
+        <v>0.004704597566470903</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3166136518391618</v>
+        <v>0.05711777580952927</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01798078014038942</v>
+        <v>0.02784075740060893</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.162702884252298</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03997453042381924</v>
+        <v>0.06159372364512147</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3186162502880248</v>
+        <v>0.1599428979256871</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06264559540913484</v>
+        <v>0.09554682384421365</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3172413052356358</v>
+        <v>0.1593301367554604</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01366208265862929</v>
+        <v>0.004768772787316002</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3182373115921832</v>
+        <v>0.05709382806220191</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01763636655655268</v>
+        <v>0.02773240407513766</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1635372580176944</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03920668447510103</v>
+        <v>0.0618754659100125</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3202501797766814</v>
+        <v>0.1607631179150496</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06085990930202323</v>
+        <v>0.09541862624135544</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3188681837240236</v>
+        <v>0.1601472143798474</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01335957352589687</v>
+        <v>0.004839204273786632</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3198609713452045</v>
+        <v>0.05706988031487457</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01739034494550928</v>
+        <v>0.02782421349292583</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1643716317830909</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03883524796928511</v>
+        <v>0.06185755847523744</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3218841092653378</v>
+        <v>0.1615833379044121</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05986870222952761</v>
+        <v>0.09619096779166258</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3204950622124115</v>
+        <v>0.1609642920042344</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01405564866462548</v>
+        <v>0.00491618301498168</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3214846310982258</v>
+        <v>0.05704593256754722</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01704269639417173</v>
+        <v>0.02761618772268551</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.1652060055484872</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03786017860612534</v>
+        <v>0.06184000571527654</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3235180387539944</v>
+        <v>0.1624035578937746</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05837190943987658</v>
+        <v>0.09636385520121465</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3221219407007994</v>
+        <v>0.1617813696286214</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01375029169636929</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3231082908512471</v>
+        <v>0.05702198482021988</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01679340198945235</v>
+        <v>0.02770832883312878</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1660403793138837</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03688143408537564</v>
+        <v>0.06162281200461003</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3251519682426509</v>
+        <v>0.1632237778831371</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05706946618129893</v>
+        <v>0.09533729517609124</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3237488191891872</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1625984472530083</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05700882692548303</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005318905637247795</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05700909545394704</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005634856568013082</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05700936398241106</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005947773090434483</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05700963251087508</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006257575502609823</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0570099010393391</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006564184102677867</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05701016956780312</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006867519188763688</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05701043809626713</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007167501059005321</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05701070662473116</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.00746405001150173</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05701097515319517</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007757086344391123</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05701124368165918</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008046530355798567</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0570115122101232</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008332302343861481</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05701178073858722</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008614322606680068</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05701204926705124</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008892511442391907</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05701231779551525</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.00916678914912207</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05701258632397926</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009437076025007311</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05701285485244329</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.00970329236814918</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0570131233809073</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009965358476684574</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05701339190937132</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01022319464873857</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05701366043783534</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01047672118244718</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05701392896629937</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01072585837591341</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05701419749476338</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01097052652727346</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05701446602322739</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0112106459346524</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05701473455169141</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01144613689618543</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05701500308015543</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01167691970997713</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05701527160861945</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01190324012348559</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05701554013708346</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01212697113077166</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05701580866554747</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.0123483584792926</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0570160771940115</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01256732246715421</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05701634572247551</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01278378339249124</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05701661425093953</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01299766155342877</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05701688277940355</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.013208877248101</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05701715130786757</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01341735077461461</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05701741983633159</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01362300243110392</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0570176883647956</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01382575251569402</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05701795689325961</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01402552132651858</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05701822542172364</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01422222916168529</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05701849395018765</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.014415796319328</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05701876247865167</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01460614309757175</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05701903100711568</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01479318979454971</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05701929953557971</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01497685670837064</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05701956806404372</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01515706413716784</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05701983659250773</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01533373237906637</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05702010512097175</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01550678173219876</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05702037364943578</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.015676132494675</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0570206421778998</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0158417049646278</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05702091070636381</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01600341944018222</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05702117923482782</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01616119621947009</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05702144776329185</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01631495560060277</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05702171629175586</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01646461788171227</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05702198482021988</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01646461788171227</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05700882692548303</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01661253616486585</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05703331172973841</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01675986698095085</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05705779653399379</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01690613555545642</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05708228133824917</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01705086711387147</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05710676614250456</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01719358688168495</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05713125094675993</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01733382008438601</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05715573575101531</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01747109194746357</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0571802205552707</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01760492769640658</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05720470535952607</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01773485255670417</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05722919016378145</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01786039175384529</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05725367496803684</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01798107051331886</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05727815977229221</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01809641406061403</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0573026445765476</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01820594762121967</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05732712938080297</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01830919642062492</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05735161418505835</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01840568568431869</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05737609898931374</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01849494063778997</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05740058379356911</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01857648650652784</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0574250685978245</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01864984851602128</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05744955340207988</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01871455189175923</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05747403820633525</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01877012185923078</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05749852301059064</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01881608364392491</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05752300781484602</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01885196247133059</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05754749261910139</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01887728356693685</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05757197742335678</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0188915721562327</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05759646222761217</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01889581775384647</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05762094703186754</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01889850921014581</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05764543183612292</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01890109064764601</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05766991664037831</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01890356166528329</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05769440144463368</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01890592186199392</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05771888624888907</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01890817083671414</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05774337105314445</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01891030818838017</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05776785585739982</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01891233351592828</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05779234066165521</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01891424641829472</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05781682546591059</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01891604649441571</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05784131027016597</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01891773334322751</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05786579507442135</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01891930656366636</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05789027987867673</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01892076575466851</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05791476468293211</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0189221105151702</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05793924948718749</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01892334044410767</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05796373429144287</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01892445514041718</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05798821909569825</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01892545420303497</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05801270389995363</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01892633723089727</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05803718870420901</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01892710382294034</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05806167350846439</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01892775357810043</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05808615831271977</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01892828609531377</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05811064311697515</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01892870097351659</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05813512792123053</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01892899781164517</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05815961272548592</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01892917620863574</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05818409752974129</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01892923576342454</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05820858233399667</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01892923576342454</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05820858233399667</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01930369094252962</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05979092683523428</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01967066092220248</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06137327133647188</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02002998783108826</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06295561583770948</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02038151379783207</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06453796033894707</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02072508095107903</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06612030484018468</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02106053141947432</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06770264934142228</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02138770733166298</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06928499384265988</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0217064508162902</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07086733834389747</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0220166040020011</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07244968284513507</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02231800901744078</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07403202734637268</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02261050799125441</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07561437184761029</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02289394305208707</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07719671634884788</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02316815632858391</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07877906085008547</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02343298994939005</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08036140535132308</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02368828604315064</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08194374985256068</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02393388673851078</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08352609435379828</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02416963416411559</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08510843885503587</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0243953704486102</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08669078335627348</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02461093772063978</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08827312785751108</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0248161781088494</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08985547235874868</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02501093374188422</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09143781685998628</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02519504674838936</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09302016136122387</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02536835925700993</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09460250586246148</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0255307133963911</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09618485036369909</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02568195129517793</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09776719486493668</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0258219150820156</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09934953936617429</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02595044688554923</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1009318838674119</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02606738883442393</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1025142283686495</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02617258305728483</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1040965728698871</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02626587168277707</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1056789173711247</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02634709683954577</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1072612618723623</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02641610065623604</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1088436063735999</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02647272526149302</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1104259508748375</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02651681278396185</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1120082953760751</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02654820535228763</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1135906398773127</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02657231435123272</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1151729843785503</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02657229573719576</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1167553288797879</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02656885642642741</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1183376733810255</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02655977572808144</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1199200178822631</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02654548209711909</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1215023623835007</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02652640398850152</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1230847068847383</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02650296985718997</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1246670513859759</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02647560815814563</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1262493958872135</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02644474734632972</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1278317403884511</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02641081587670342</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1294140848896887</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02637424220422795</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1309964293909263</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02633545478386452</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1325787738921639</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02629488207057432</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1341611183934015</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02625295251931857</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1357434628946391</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02621009458505846</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1373258073958767</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0261664477687699</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1389081518971143</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02610917247365775</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1404904963983519</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02603439577757161</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1420728408995895</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02594657437808186</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1436551854008271</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02585016497275892</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1452375299020647</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02574962425917318</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1468198744033023</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02564940893489501</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1484022189045399</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02555397569749485</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02546778124454306</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1515669079070151</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02539528227361004</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1531492524082527</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02534093548226621</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1547315969094903</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02530030480907657</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1563139414107279</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0252621570802171</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1578962859119655</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02522624906209694</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1594786304132031</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02519243794477823</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1610609749144407</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02516058091832307</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1626433194156783</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02513053517279362</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1642256639169159</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02510215789825201</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1658080084181535</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02507530628476035</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1673903529193911</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02504983752238081</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1689726974206287</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02502560880117552</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1705550419218663</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02500247731120657</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1721373864231039</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02498030024253614</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1737197309243415</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02495893478522636</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1753020754255791</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02493823812933935</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1768844199268167</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02491806746493724</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1784667644280543</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02489827998208219</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1800491089292919</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02487873287083631</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1816314534305295</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02485928332126175</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1832137979317671</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02483978852342063</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1847961424330047</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02482010566737507</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1863784869342423</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02480009194318725</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1879608314354799</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02478002282873441</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1895431759367175</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02476028910366437</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1911255204379551</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02474090318337559</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1927078649391927</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02472187746106028</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1942902094404303</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02470322432991065</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1958725539416679</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02468495618311896</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1974548984429055</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02466708541387744</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1990372429441431</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02464962441537831</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2006195874453807</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0246325855808138</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2022019319466183</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02461598130337614</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2037842764478559</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0245998239762576</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2053666209490935</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02458412599265038</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2069489654503311</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02456889974574669</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2085313099515687</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0245541576287388</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2101136544528063</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02453991203481894</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2116959989540439</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02452617535717931</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2132783434552815</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02451295998901219</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2148606879565191</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
